--- a/07_渗透测试字典/协议/协议清单.xlsx
+++ b/07_渗透测试字典/协议/协议清单.xlsx
@@ -4,11 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="26640" windowHeight="13410"/>
   </bookViews>
   <sheets>
     <sheet name="协议清单" sheetId="3" r:id="rId1"/>
-    <sheet name="基础信息" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="822">
   <si>
     <t>协议缩写</t>
   </si>
@@ -39,6 +38,44 @@
     <t>解释</t>
   </si>
   <si>
+    <t>3COM</t>
+  </si>
+  <si>
+    <t>Three Com Corporation</t>
+  </si>
+  <si>
+    <r>
+      <t>3COM (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>三康公司</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>曾经生产和销售网络硬件设备，如路由器、交换机和网络接口卡等</t>
+    </r>
+  </si>
+  <si>
     <t>3PC</t>
   </si>
   <si>
@@ -48,6 +85,36 @@
     <t>第三方连接协议，用于建立两个网络实体间的连接。</t>
   </si>
   <si>
+    <t>ABIS</t>
+  </si>
+  <si>
+    <t>Application Binary Interface Specification</t>
+  </si>
+  <si>
+    <t>定义了应用程序与操作系统之间的接口，确保应用程序可以在特定的操作系统上正确运行</t>
+  </si>
+  <si>
+    <t>ACAP</t>
+  </si>
+  <si>
+    <t>Application Configuration Access Protocol</t>
+  </si>
+  <si>
+    <t>应用程序配置访问协议，这是一种用于访问和修改应用程序配置的协议</t>
+  </si>
+  <si>
+    <t>Advanced Customer Account Protection</t>
+  </si>
+  <si>
+    <t>高级客户账户保护，这是一种用于保护客户账户安全的措施或协议</t>
+  </si>
+  <si>
+    <t>ACTRACE</t>
+  </si>
+  <si>
+    <t>特定组织或应用程序内部使用的专有术语</t>
+  </si>
+  <si>
     <t>AFP</t>
   </si>
   <si>
@@ -75,6 +142,21 @@
     <t>接入节点控制协议，用于管理网络接入点。</t>
   </si>
   <si>
+    <t>AODV</t>
+  </si>
+  <si>
+    <t>AOE</t>
+  </si>
+  <si>
+    <t>AOL</t>
+  </si>
+  <si>
+    <t>AP1394</t>
+  </si>
+  <si>
+    <t>ARCNET</t>
+  </si>
+  <si>
     <t>ARGUS</t>
   </si>
   <si>
@@ -93,6 +175,39 @@
     <t>应用层流量索引服务，用于网络流量分析。</t>
   </si>
   <si>
+    <t>ARMAGETRONAD</t>
+  </si>
+  <si>
+    <t>ARP</t>
+  </si>
+  <si>
+    <t>ARUBA</t>
+  </si>
+  <si>
+    <t>ASAP</t>
+  </si>
+  <si>
+    <t>ASCEND</t>
+  </si>
+  <si>
+    <t>ASF</t>
+  </si>
+  <si>
+    <t>ASTERIX</t>
+  </si>
+  <si>
+    <t>ATALK</t>
+  </si>
+  <si>
+    <t>ATM</t>
+  </si>
+  <si>
+    <t>ATMTCP</t>
+  </si>
+  <si>
+    <t>AUTO</t>
+  </si>
+  <si>
     <t>AX25</t>
   </si>
   <si>
@@ -111,6 +226,30 @@
     <t>一种用于网络通信的协议，具体信息不详。</t>
   </si>
   <si>
+    <t>AYIYA</t>
+  </si>
+  <si>
+    <t>BABEL</t>
+  </si>
+  <si>
+    <t>BACNET</t>
+  </si>
+  <si>
+    <t>BACP</t>
+  </si>
+  <si>
+    <t>BANANA</t>
+  </si>
+  <si>
+    <t>BAP</t>
+  </si>
+  <si>
+    <t>BAT</t>
+  </si>
+  <si>
+    <t>BATADV</t>
+  </si>
+  <si>
     <t>BBN_RCC</t>
   </si>
   <si>
@@ -120,6 +259,18 @@
     <t>BBN可靠通信协调协议，用于提高网络通信的可靠性。</t>
   </si>
   <si>
+    <t>BCP</t>
+  </si>
+  <si>
+    <t>BEEP</t>
+  </si>
+  <si>
+    <t>BER</t>
+  </si>
+  <si>
+    <t>BFD</t>
+  </si>
+  <si>
     <t>BGP</t>
   </si>
   <si>
@@ -129,6 +280,15 @@
     <t>边界网关协议，用于互联网上进行路由和可达性信息的传递。</t>
   </si>
   <si>
+    <t>BICC</t>
+  </si>
+  <si>
+    <t>BITTORRENT</t>
+  </si>
+  <si>
+    <t>BJNP</t>
+  </si>
+  <si>
     <t>BNA</t>
   </si>
   <si>
@@ -138,6 +298,9 @@
     <t>一种网络架构，用于构建复杂的网络系统。</t>
   </si>
   <si>
+    <t>BOFL</t>
+  </si>
+  <si>
     <t>Bootstrap_Protocol</t>
   </si>
   <si>
@@ -147,6 +310,18 @@
     <t>引导协议，用于在网络设备启动时获取网络配置信息。</t>
   </si>
   <si>
+    <t>BPDU</t>
+  </si>
+  <si>
+    <t>BPQ</t>
+  </si>
+  <si>
+    <t>BRDWLK</t>
+  </si>
+  <si>
+    <t>BRP</t>
+  </si>
+  <si>
     <t>BRSATMON</t>
   </si>
   <si>
@@ -156,6 +331,78 @@
     <t>宽带卫星监控协议，用于监控卫星通信网络。</t>
   </si>
   <si>
+    <t>BSSAP</t>
+  </si>
+  <si>
+    <t>BT</t>
+  </si>
+  <si>
+    <t>BT3DS</t>
+  </si>
+  <si>
+    <t>BTA2DP</t>
+  </si>
+  <si>
+    <t>BTAMP</t>
+  </si>
+  <si>
+    <t>BTATT</t>
+  </si>
+  <si>
+    <t>BTAVCTP</t>
+  </si>
+  <si>
+    <t>BTAVDTP</t>
+  </si>
+  <si>
+    <t>BTAVRCP</t>
+  </si>
+  <si>
+    <t>BTBNEP</t>
+  </si>
+  <si>
+    <t>BTDUN</t>
+  </si>
+  <si>
+    <t>BTGNSS</t>
+  </si>
+  <si>
+    <t>BTHCI</t>
+  </si>
+  <si>
+    <t>BTHCRP</t>
+  </si>
+  <si>
+    <t>BTHFP</t>
+  </si>
+  <si>
+    <t>BTHID</t>
+  </si>
+  <si>
+    <t>BTMCAP</t>
+  </si>
+  <si>
+    <t>BTOBEX</t>
+  </si>
+  <si>
+    <t>BTRFCOMM</t>
+  </si>
+  <si>
+    <t>BTSAP</t>
+  </si>
+  <si>
+    <t>BTSDP</t>
+  </si>
+  <si>
+    <t>BTSMP</t>
+  </si>
+  <si>
+    <t>BTSPP</t>
+  </si>
+  <si>
+    <t>BTVDP</t>
+  </si>
+  <si>
     <t>BULK</t>
   </si>
   <si>
@@ -165,6 +412,39 @@
     <t>大量数据传输协议，用于高效的数据传输。</t>
   </si>
   <si>
+    <t>BUNDLE</t>
+  </si>
+  <si>
+    <t>BVLC</t>
+  </si>
+  <si>
+    <t>BZR</t>
+  </si>
+  <si>
+    <t>C1222</t>
+  </si>
+  <si>
+    <t>CALCA</t>
+  </si>
+  <si>
+    <t>CAP</t>
+  </si>
+  <si>
+    <t>CAPWAP</t>
+  </si>
+  <si>
+    <t>CARP</t>
+  </si>
+  <si>
+    <t>CAST</t>
+  </si>
+  <si>
+    <t>CATAPULT</t>
+  </si>
+  <si>
+    <t>CBCP</t>
+  </si>
+  <si>
     <t>CBT</t>
   </si>
   <si>
@@ -174,6 +454,24 @@
     <t>基于核心的树协议，用于网络路由优化。</t>
   </si>
   <si>
+    <t>CCID</t>
+  </si>
+  <si>
+    <t>CCP</t>
+  </si>
+  <si>
+    <t>CDP</t>
+  </si>
+  <si>
+    <t>CDPCP</t>
+  </si>
+  <si>
+    <t>CFM</t>
+  </si>
+  <si>
+    <t>CGMP</t>
+  </si>
+  <si>
     <t>CHAOS</t>
   </si>
   <si>
@@ -183,6 +481,39 @@
     <t>早期的网络协议，用于连接计算机系统。</t>
   </si>
   <si>
+    <t>CHAP</t>
+  </si>
+  <si>
+    <t>CHDLC</t>
+  </si>
+  <si>
+    <t>CIMETRICS</t>
+  </si>
+  <si>
+    <t>CIP</t>
+  </si>
+  <si>
+    <t>CIPSAFETY</t>
+  </si>
+  <si>
+    <t>CLASSICSTUN</t>
+  </si>
+  <si>
+    <t>CLIP</t>
+  </si>
+  <si>
+    <t>CLNP</t>
+  </si>
+  <si>
+    <t>CMD</t>
+  </si>
+  <si>
+    <t>CMP</t>
+  </si>
+  <si>
+    <t>CMPP</t>
+  </si>
+  <si>
     <t>CMTP</t>
   </si>
   <si>
@@ -192,6 +523,12 @@
     <t>无连接多播传输协议，用于多播通信。</t>
   </si>
   <si>
+    <t>CNIP</t>
+  </si>
+  <si>
+    <t>COAP</t>
+  </si>
+  <si>
     <t>COLLECTD</t>
   </si>
   <si>
@@ -201,6 +538,9 @@
     <t>用于收集系统和网络统计信息的守护进程。</t>
   </si>
   <si>
+    <t>COMP</t>
+  </si>
+  <si>
     <t>COMPAQ</t>
   </si>
   <si>
@@ -210,6 +550,12 @@
     <t>康柏公司的网络协议，用于其网络产品。</t>
   </si>
   <si>
+    <t>COMPONENTSTATUS</t>
+  </si>
+  <si>
+    <t>COPS</t>
+  </si>
+  <si>
     <t>CORBA</t>
   </si>
   <si>
@@ -219,6 +565,9 @@
     <t>公共对象请求代理体系结构，用于软件中间件。</t>
   </si>
   <si>
+    <t>COSINE</t>
+  </si>
+  <si>
     <t>COTP</t>
   </si>
   <si>
@@ -228,6 +577,12 @@
     <t>面向连接的传输协议，用于可靠的通信。</t>
   </si>
   <si>
+    <t>CPFI</t>
+  </si>
+  <si>
+    <t>CPHA</t>
+  </si>
+  <si>
     <t>CPHB</t>
   </si>
   <si>
@@ -264,6 +619,27 @@
     <t>无连接可靠用户数据报协议，用于数据传输。</t>
   </si>
   <si>
+    <t>CSM</t>
+  </si>
+  <si>
+    <t>CUPS</t>
+  </si>
+  <si>
+    <t>CWIDS</t>
+  </si>
+  <si>
+    <t>DAP</t>
+  </si>
+  <si>
+    <t>DAYTIME</t>
+  </si>
+  <si>
+    <t>DB</t>
+  </si>
+  <si>
+    <t>DBUS</t>
+  </si>
+  <si>
     <t>DCCP</t>
   </si>
   <si>
@@ -282,6 +658,9 @@
     <t>分布式计算环境远程过程调用，用于分布式应用。</t>
   </si>
   <si>
+    <t>DCM</t>
+  </si>
+  <si>
     <t>DCNMEAS</t>
   </si>
   <si>
@@ -291,6 +670,9 @@
     <t>数据网络测量协议，用于网络性能测量。</t>
   </si>
   <si>
+    <t>DCP</t>
+  </si>
+  <si>
     <t>DDP</t>
   </si>
   <si>
@@ -300,6 +682,9 @@
     <t>数据报传输协议，用于数据传输。</t>
   </si>
   <si>
+    <t>DDTP</t>
+  </si>
+  <si>
     <t>DDX</t>
   </si>
   <si>
@@ -309,6 +694,12 @@
     <t>分布式显示协议，用于远程显示。</t>
   </si>
   <si>
+    <t>DEC</t>
+  </si>
+  <si>
+    <t>DECT</t>
+  </si>
+  <si>
     <t>DGP</t>
   </si>
   <si>
@@ -327,6 +718,9 @@
     <t>动态主机配置协议，用于自动分配IP地址。</t>
   </si>
   <si>
+    <t>DHCPFO</t>
+  </si>
+  <si>
     <t>DHCPv6</t>
   </si>
   <si>
@@ -336,6 +730,30 @@
     <t>用于IPv6网络的动态主机配置协议。</t>
   </si>
   <si>
+    <t>DIAMETER</t>
+  </si>
+  <si>
+    <t>DIS</t>
+  </si>
+  <si>
+    <t>DISP</t>
+  </si>
+  <si>
+    <t>DISTCC</t>
+  </si>
+  <si>
+    <t>DLM3</t>
+  </si>
+  <si>
+    <t>DLSW</t>
+  </si>
+  <si>
+    <t>DMP</t>
+  </si>
+  <si>
+    <t>DNP3</t>
+  </si>
+  <si>
     <t>DNS</t>
   </si>
   <si>
@@ -345,6 +763,21 @@
     <t>域名系统，用于将域名转换为IP地址。</t>
   </si>
   <si>
+    <t>DOP</t>
+  </si>
+  <si>
+    <t>DPNSS</t>
+  </si>
+  <si>
+    <t>DSI</t>
+  </si>
+  <si>
+    <t>DSMCC</t>
+  </si>
+  <si>
+    <t>DSP</t>
+  </si>
+  <si>
     <t>DSR</t>
   </si>
   <si>
@@ -363,6 +796,45 @@
     <t>目的选项头协议，用于IPv6网络。</t>
   </si>
   <si>
+    <t>DTCP</t>
+  </si>
+  <si>
+    <t>DTLS</t>
+  </si>
+  <si>
+    <t>DTP</t>
+  </si>
+  <si>
+    <t>DTPT</t>
+  </si>
+  <si>
+    <t>DUA</t>
+  </si>
+  <si>
+    <t>DVBCI</t>
+  </si>
+  <si>
+    <t>EAP</t>
+  </si>
+  <si>
+    <t>EAPOL</t>
+  </si>
+  <si>
+    <t>ECHO</t>
+  </si>
+  <si>
+    <t>ECP</t>
+  </si>
+  <si>
+    <t>EDONKEY</t>
+  </si>
+  <si>
+    <t>EDP</t>
+  </si>
+  <si>
+    <t>EGD</t>
+  </si>
+  <si>
     <t>EGP</t>
   </si>
   <si>
@@ -381,6 +853,12 @@
     <t>增强内部网关路由协议，用于网络路由。</t>
   </si>
   <si>
+    <t>EISS</t>
+  </si>
+  <si>
+    <t>ELCOM</t>
+  </si>
+  <si>
     <t>EMCON</t>
   </si>
   <si>
@@ -390,6 +868,9 @@
     <t>紧急连接协议，用于紧急通信。</t>
   </si>
   <si>
+    <t>ENC</t>
+  </si>
+  <si>
     <t>ENCAP</t>
   </si>
   <si>
@@ -408,6 +889,36 @@
     <t>以太网/IP，用于工业自动化的网络协议。</t>
   </si>
   <si>
+    <t>ENRP</t>
+  </si>
+  <si>
+    <t>ENTTEC</t>
+  </si>
+  <si>
+    <t>EPL</t>
+  </si>
+  <si>
+    <t>EPMD</t>
+  </si>
+  <si>
+    <t>ERF</t>
+  </si>
+  <si>
+    <t>ERSPAN</t>
+  </si>
+  <si>
+    <t>ESIO</t>
+  </si>
+  <si>
+    <t>ESIS</t>
+  </si>
+  <si>
+    <t>ETCH</t>
+  </si>
+  <si>
+    <t>ETH</t>
+  </si>
+  <si>
     <t>ETHERIP</t>
   </si>
   <si>
@@ -417,6 +928,21 @@
     <t>以太网通过IP，用于在IP网络中传输以太网帧。</t>
   </si>
   <si>
+    <t>ETV</t>
+  </si>
+  <si>
+    <t>EVRC</t>
+  </si>
+  <si>
+    <t>EXEC</t>
+  </si>
+  <si>
+    <t>EXPORTED</t>
+  </si>
+  <si>
+    <t>FABRICPATH</t>
+  </si>
+  <si>
     <t>FC</t>
   </si>
   <si>
@@ -426,6 +952,54 @@
     <t>光纤通道协议，用于高速数据传输。</t>
   </si>
   <si>
+    <t>FCCT</t>
+  </si>
+  <si>
+    <t>FCDNS</t>
+  </si>
+  <si>
+    <t>FCELS</t>
+  </si>
+  <si>
+    <t>FCFCS</t>
+  </si>
+  <si>
+    <t>FCFZS</t>
+  </si>
+  <si>
+    <t>FCGI</t>
+  </si>
+  <si>
+    <t>FCOE</t>
+  </si>
+  <si>
+    <t>FCP</t>
+  </si>
+  <si>
+    <t>FCSBCCS</t>
+  </si>
+  <si>
+    <t>FCSWILS</t>
+  </si>
+  <si>
+    <t>FDDI</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>FEFD</t>
+  </si>
+  <si>
+    <t>FF</t>
+  </si>
+  <si>
+    <t>FINGER</t>
+  </si>
+  <si>
+    <t>FIP</t>
+  </si>
+  <si>
     <t>FIRE</t>
   </si>
   <si>
@@ -435,6 +1009,24 @@
     <t>转发和路由增强，用于网络性能提升。</t>
   </si>
   <si>
+    <t>FIX</t>
+  </si>
+  <si>
+    <t>FLEXNET</t>
+  </si>
+  <si>
+    <t>FLIP</t>
+  </si>
+  <si>
+    <t>FORCES</t>
+  </si>
+  <si>
+    <t>FR</t>
+  </si>
+  <si>
+    <t>FRACTALGENERATOR</t>
+  </si>
+  <si>
     <t>FRAGMENT</t>
   </si>
   <si>
@@ -453,6 +1045,21 @@
     <t>文件传输协议，用于文件的传输。</t>
   </si>
   <si>
+    <t>G723</t>
+  </si>
+  <si>
+    <t>GADU</t>
+  </si>
+  <si>
+    <t>GDSDB</t>
+  </si>
+  <si>
+    <t>GEARMAN</t>
+  </si>
+  <si>
+    <t>GED125</t>
+  </si>
+  <si>
     <t>GGP</t>
   </si>
   <si>
@@ -462,6 +1069,21 @@
     <t>网关到网关协议，早期的互联网路由协议。</t>
   </si>
   <si>
+    <t>GIFT</t>
+  </si>
+  <si>
+    <t>GIT</t>
+  </si>
+  <si>
+    <t>GLBP</t>
+  </si>
+  <si>
+    <t>GMHDR</t>
+  </si>
+  <si>
+    <t>GMR1</t>
+  </si>
+  <si>
     <t>GMTP</t>
   </si>
   <si>
@@ -471,6 +1093,72 @@
     <t>网关消息传输协议，用于网关间的消息传输。</t>
   </si>
   <si>
+    <t>GNUTELLA</t>
+  </si>
+  <si>
+    <t>GOOSE</t>
+  </si>
+  <si>
+    <t>GOPHER</t>
+  </si>
+  <si>
+    <t>GRE</t>
+  </si>
+  <si>
+    <t>GSM</t>
+  </si>
+  <si>
+    <t>GSMTAP</t>
+  </si>
+  <si>
+    <t>GTP</t>
+  </si>
+  <si>
+    <t>GVCP</t>
+  </si>
+  <si>
+    <t>H223</t>
+  </si>
+  <si>
+    <t>H225</t>
+  </si>
+  <si>
+    <t>H248</t>
+  </si>
+  <si>
+    <t>H261</t>
+  </si>
+  <si>
+    <t>H263P</t>
+  </si>
+  <si>
+    <t>H264</t>
+  </si>
+  <si>
+    <t>H450</t>
+  </si>
+  <si>
+    <t>H501</t>
+  </si>
+  <si>
+    <t>HANDLE</t>
+  </si>
+  <si>
+    <t>HARTIP</t>
+  </si>
+  <si>
+    <t>HAZELCAST</t>
+  </si>
+  <si>
+    <t>HCI</t>
+  </si>
+  <si>
+    <t>HDFS</t>
+  </si>
+  <si>
+    <t>HDFSDATA</t>
+  </si>
+  <si>
     <t>HIP</t>
   </si>
   <si>
@@ -489,6 +1177,27 @@
     <t>超通道消息协议，用于高速网络通信。</t>
   </si>
   <si>
+    <t>HNBAP</t>
+  </si>
+  <si>
+    <t>HOMEPLUG</t>
+  </si>
+  <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>HPEXT</t>
+  </si>
+  <si>
+    <t>HPFEEDS</t>
+  </si>
+  <si>
+    <t>HPSW</t>
+  </si>
+  <si>
+    <t>HPTEAM</t>
+  </si>
+  <si>
     <t>HSRP</t>
   </si>
   <si>
@@ -507,6 +1216,15 @@
     <t>超文本传输协议，用于从网络传输超文本。</t>
   </si>
   <si>
+    <t>HYPERSCSI</t>
+  </si>
+  <si>
+    <t>I2C</t>
+  </si>
+  <si>
+    <t>IAPP</t>
+  </si>
+  <si>
     <t>IATP</t>
   </si>
   <si>
@@ -516,6 +1234,18 @@
     <t>交互式代理传输协议，用于代理通信。</t>
   </si>
   <si>
+    <t>IAX2</t>
+  </si>
+  <si>
+    <t>ICAP</t>
+  </si>
+  <si>
+    <t>ICEP</t>
+  </si>
+  <si>
+    <t>ICMP</t>
+  </si>
+  <si>
     <t>ICMP_v4</t>
   </si>
   <si>
@@ -534,6 +1264,18 @@
     <t>互联网控制报文协议第六版，用于IPv6网络中的控制消息。</t>
   </si>
   <si>
+    <t>ICMPV6</t>
+  </si>
+  <si>
+    <t>ICP</t>
+  </si>
+  <si>
+    <t>ICQ</t>
+  </si>
+  <si>
+    <t>IDM</t>
+  </si>
+  <si>
     <t>IDP</t>
   </si>
   <si>
@@ -561,6 +1303,21 @@
     <t>域间路由协议，用于网络路由。</t>
   </si>
   <si>
+    <t>IEC104</t>
+  </si>
+  <si>
+    <t>IEEE80211</t>
+  </si>
+  <si>
+    <t>IEEE802154</t>
+  </si>
+  <si>
+    <t>IEEE8021AH</t>
+  </si>
+  <si>
+    <t>IEEE802A</t>
+  </si>
+  <si>
     <t>IFMP</t>
   </si>
   <si>
@@ -597,6 +1354,15 @@
     <t>链路间协议，用于网络连接。</t>
   </si>
   <si>
+    <t>ILP</t>
+  </si>
+  <si>
+    <t>IMAP</t>
+  </si>
+  <si>
+    <t>INFINIBAND</t>
+  </si>
+  <si>
     <t>INSLP</t>
   </si>
   <si>
@@ -606,6 +1372,12 @@
     <t>综合服务位置协议，用于定位服务。</t>
   </si>
   <si>
+    <t>IP</t>
+  </si>
+  <si>
+    <t>IPCP</t>
+  </si>
+  <si>
     <t>IPCV</t>
   </si>
   <si>
@@ -615,6 +1387,15 @@
     <t>进程间通信版本，用于进程通信。</t>
   </si>
   <si>
+    <t>IPDC</t>
+  </si>
+  <si>
+    <t>IPFC</t>
+  </si>
+  <si>
+    <t>IPHC</t>
+  </si>
+  <si>
     <t>IPINIP</t>
   </si>
   <si>
@@ -633,6 +1414,15 @@
     <t>互联网协议层测试协议，用于网络测试。</t>
   </si>
   <si>
+    <t>IPMI</t>
+  </si>
+  <si>
+    <t>IPNET</t>
+  </si>
+  <si>
+    <t>IPOIB</t>
+  </si>
+  <si>
     <t>IPPC</t>
   </si>
   <si>
@@ -660,6 +1450,27 @@
     <t>互联网协议安全与互联网安全关联和密钥管理协议，用于网络加密和密钥管理。</t>
   </si>
   <si>
+    <t>IPSICTL</t>
+  </si>
+  <si>
+    <t>IPV6</t>
+  </si>
+  <si>
+    <t>IPV6CP</t>
+  </si>
+  <si>
+    <t>IPVS</t>
+  </si>
+  <si>
+    <t>IPX</t>
+  </si>
+  <si>
+    <t>IPXWAN</t>
+  </si>
+  <si>
+    <t>IRC</t>
+  </si>
+  <si>
     <t>IRT</t>
   </si>
   <si>
@@ -669,6 +1480,12 @@
     <t>互联网可靠穿越，用于网络通信。</t>
   </si>
   <si>
+    <t>ISAKMP</t>
+  </si>
+  <si>
+    <t>ISDN</t>
+  </si>
+  <si>
     <t>ISIS</t>
   </si>
   <si>
@@ -678,6 +1495,51 @@
     <t>中间系统到中间系统协议，用于网络路由。</t>
   </si>
   <si>
+    <t>ISMACRYP</t>
+  </si>
+  <si>
+    <t>ISMP</t>
+  </si>
+  <si>
+    <t>ISNS</t>
+  </si>
+  <si>
+    <t>ISUP</t>
+  </si>
+  <si>
+    <t>ITDM</t>
+  </si>
+  <si>
+    <t>IUA</t>
+  </si>
+  <si>
+    <t>IUUP</t>
+  </si>
+  <si>
+    <t>IXVERIWAVE</t>
+  </si>
+  <si>
+    <t>JFIF</t>
+  </si>
+  <si>
+    <t>JMIRROR</t>
+  </si>
+  <si>
+    <t>JPEG</t>
+  </si>
+  <si>
+    <t>JUNIPER</t>
+  </si>
+  <si>
+    <t>K12</t>
+  </si>
+  <si>
+    <t>KAFKA</t>
+  </si>
+  <si>
+    <t>KDP</t>
+  </si>
+  <si>
     <t>KERBEROS</t>
   </si>
   <si>
@@ -1086,6 +1948,9 @@
     <t>私有网络到网络接口，用于电信网络。</t>
   </si>
   <si>
+    <t>PPP</t>
+  </si>
+  <si>
     <t>PPTP</t>
   </si>
   <si>
@@ -1104,6 +1969,9 @@
     <t>策略路由协议，用于基于策略的路由决策。</t>
   </si>
   <si>
+    <t>ProConversion</t>
+  </si>
+  <si>
     <t>PTP</t>
   </si>
   <si>
@@ -1446,6 +2314,9 @@
     <t>流量控制设施，用于网络流量管理。</t>
   </si>
   <si>
+    <t>TCP</t>
+  </si>
+  <si>
     <t>TDS</t>
   </si>
   <si>
@@ -1524,6 +2395,9 @@
     <t>时间触发协议，用于嵌入式系统。</t>
   </si>
   <si>
+    <t>UDP</t>
+  </si>
+  <si>
     <t>UTI</t>
   </si>
   <si>
@@ -1648,24 +2522,6 @@
   </si>
   <si>
     <t>Xpress传输协议，一种用于数据传输的协议。</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>协议</t>
-  </si>
-  <si>
-    <t>HOPOPTS</t>
-  </si>
-  <si>
-    <t>IPSEC</t>
-  </si>
-  <si>
-    <t>NDPI_BITBORRENT</t>
   </si>
 </sst>
 </file>
@@ -1678,7 +2534,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="26">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -1687,6 +2543,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10.5"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
@@ -1694,7 +2558,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="helvetica"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="10.5"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
@@ -1851,6 +2720,12 @@
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="34">
@@ -2053,12 +2928,40 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2162,28 +3065,19 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2192,131 +3086,162 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2370,15 +3295,15 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="3">
     <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
+      <font>
+        <name val="等线"/>
+        <scheme val="none"/>
+        <b val="0"/>
+        <sz val="10"/>
+      </font>
+      <alignment horizontal="center" vertical="center"/>
     </dxf>
     <dxf>
       <alignment vertical="center"/>
@@ -2397,23 +3322,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:C181" totalsRowShown="0">
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:C181" etc:filterBottomFollowUsedRange="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:C456" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:C456" etc:filterBottomFollowUsedRange="0"/>
+  <sortState ref="A1:C456">
+    <sortCondition ref="A1"/>
+  </sortState>
   <tableColumns count="3">
     <tableColumn id="1" name="协议缩写" dataDxfId="0"/>
     <tableColumn id="2" name="协议全称" dataDxfId="1"/>
     <tableColumn id="3" name="解释" dataDxfId="2"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:B181" totalsRowShown="0">
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:B181" etc:filterBottomFollowUsedRange="0"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="name" dataDxfId="3"/>
-    <tableColumn id="2" name="type" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2679,15 +3596,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C181"/>
+  <dimension ref="A1:C456"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="12.75" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="1" max="1" width="22" style="1" customWidth="1"/>
     <col min="2" max="2" width="105" customWidth="1"/>
     <col min="3" max="3" width="77" customWidth="1"/>
     <col min="4" max="20" width="10" customWidth="1"/>
@@ -2697,3461 +3614,3393 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1" spans="1:3">
-      <c r="A2" s="3" t="s">
+    <row r="2" ht="15" customHeight="1" spans="1:1">
+      <c r="A2" s="4">
+        <v>17221</v>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1" spans="1:3">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C3" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1" spans="1:3">
-      <c r="A3" s="3" t="s">
+    <row r="4" ht="15" customHeight="1" spans="1:3">
+      <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C4" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1" spans="1:3">
-      <c r="A4" s="3" t="s">
+    <row r="5" ht="15" customHeight="1" spans="1:3">
+      <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C5" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1" spans="1:3">
-      <c r="A5" s="3" t="s">
+    <row r="6" ht="15" customHeight="1" spans="1:3">
+      <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C6" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1" spans="1:3">
-      <c r="A6" s="3" t="s">
+    <row r="7" ht="15" customHeight="1" spans="1:3">
+      <c r="A7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="3" t="s">
+    </row>
+    <row r="8" ht="15" customHeight="1" spans="1:3">
+      <c r="A8" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" ht="15" customHeight="1" spans="1:3">
-      <c r="A7" s="3" t="s">
+      <c r="C8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="3" t="s">
+    </row>
+    <row r="9" ht="15" customHeight="1" spans="1:3">
+      <c r="A9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="B9" s="8" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" ht="15" customHeight="1" spans="1:3">
-      <c r="A8" s="3" t="s">
+      <c r="C9" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="3" t="s">
+    </row>
+    <row r="10" ht="15" customHeight="1" spans="1:3">
+      <c r="A10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="B10" s="8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" ht="15" customHeight="1" spans="1:3">
-      <c r="A9" s="3" t="s">
+      <c r="C10" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="3" t="s">
+    </row>
+    <row r="11" ht="15" customHeight="1" spans="1:3">
+      <c r="A11" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="B11" s="8" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" ht="15" customHeight="1" spans="1:3">
-      <c r="A10" s="3" t="s">
+      <c r="C11" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="3" t="s">
+    </row>
+    <row r="12" ht="15" customHeight="1" spans="1:1">
+      <c r="A12" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="3" t="s">
+    </row>
+    <row r="13" ht="15" customHeight="1" spans="1:1">
+      <c r="A13" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1" spans="1:3">
-      <c r="A11" s="3" t="s">
+    <row r="14" ht="15" customHeight="1" spans="1:1">
+      <c r="A14" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="3" t="s">
+    </row>
+    <row r="15" ht="15" customHeight="1" spans="1:1">
+      <c r="A15" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="3" t="s">
+    </row>
+    <row r="16" ht="15" customHeight="1" spans="1:1">
+      <c r="A16" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1" spans="1:3">
-      <c r="A12" s="3" t="s">
+    <row r="17" ht="15" customHeight="1" spans="1:3">
+      <c r="A17" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B17" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C17" s="8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1" spans="1:3">
-      <c r="A13" s="3" t="s">
+    <row r="18" ht="15" customHeight="1" spans="1:3">
+      <c r="A18" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B18" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C18" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1" spans="1:3">
-      <c r="A14" s="3" t="s">
+    <row r="19" ht="15" customHeight="1" spans="1:1">
+      <c r="A19" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="3" t="s">
+    </row>
+    <row r="20" ht="15" customHeight="1" spans="1:1">
+      <c r="A20" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="3" t="s">
+    </row>
+    <row r="21" ht="15" customHeight="1" spans="1:1">
+      <c r="A21" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1" spans="1:3">
-      <c r="A15" s="3" t="s">
+    <row r="22" ht="15" customHeight="1" spans="1:1">
+      <c r="A22" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="3" t="s">
+    </row>
+    <row r="23" ht="15" customHeight="1" spans="1:1">
+      <c r="A23" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="3" t="s">
+    </row>
+    <row r="24" ht="15" customHeight="1" spans="1:1">
+      <c r="A24" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1" spans="1:3">
-      <c r="A16" s="3" t="s">
+    <row r="25" ht="15" customHeight="1" spans="1:1">
+      <c r="A25" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="3" t="s">
+    </row>
+    <row r="26" ht="15" customHeight="1" spans="1:1">
+      <c r="A26" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="3" t="s">
+    </row>
+    <row r="27" ht="15" customHeight="1" spans="1:1">
+      <c r="A27" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1" spans="1:3">
-      <c r="A17" s="3" t="s">
+    <row r="28" ht="15" customHeight="1" spans="1:1">
+      <c r="A28" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="3" t="s">
+    </row>
+    <row r="29" ht="15" customHeight="1" spans="1:1">
+      <c r="A29" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="3" t="s">
+    </row>
+    <row r="30" ht="15" customHeight="1" spans="1:3">
+      <c r="A30" s="7" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="18" ht="15" customHeight="1" spans="1:3">
-      <c r="A18" s="3" t="s">
+      <c r="B30" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="C30" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="3" t="s">
+    </row>
+    <row r="31" ht="15" customHeight="1" spans="1:3">
+      <c r="A31" s="7" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="19" ht="15" customHeight="1" spans="1:3">
-      <c r="A19" s="3" t="s">
+      <c r="B31" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="C31" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="3" t="s">
+    </row>
+    <row r="32" ht="15" customHeight="1" spans="1:1">
+      <c r="A32" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1" spans="1:3">
-      <c r="A20" s="3" t="s">
+    <row r="33" ht="15" customHeight="1" spans="1:1">
+      <c r="A33" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B20" s="3" t="s">
+    </row>
+    <row r="34" ht="15" customHeight="1" spans="1:1">
+      <c r="A34" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="3" t="s">
+    </row>
+    <row r="35" ht="15" customHeight="1" spans="1:1">
+      <c r="A35" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1" spans="1:3">
-      <c r="A21" s="3" t="s">
+    <row r="36" ht="15" customHeight="1" spans="1:1">
+      <c r="A36" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B21" s="3" t="s">
+    </row>
+    <row r="37" ht="15" customHeight="1" spans="1:1">
+      <c r="A37" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="3" t="s">
+    </row>
+    <row r="38" ht="15" customHeight="1" spans="1:1">
+      <c r="A38" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1" spans="1:3">
-      <c r="A22" s="3" t="s">
+    <row r="39" ht="15" customHeight="1" spans="1:1">
+      <c r="A39" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B22" s="3" t="s">
+    </row>
+    <row r="40" ht="15" customHeight="1" spans="1:3">
+      <c r="A40" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="B40" s="8" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="23" ht="15" customHeight="1" spans="1:3">
-      <c r="A23" s="3" t="s">
+      <c r="C40" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B23" s="3" t="s">
+    </row>
+    <row r="41" ht="15" customHeight="1" spans="1:1">
+      <c r="A41" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C23" s="3" t="s">
+    </row>
+    <row r="42" ht="15" customHeight="1" spans="1:1">
+      <c r="A42" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="24" ht="15" customHeight="1" spans="1:3">
-      <c r="A24" s="3" t="s">
+    <row r="43" ht="15" customHeight="1" spans="1:1">
+      <c r="A43" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B24" s="3" t="s">
+    </row>
+    <row r="44" ht="15" customHeight="1" spans="1:1">
+      <c r="A44" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C24" s="3" t="s">
+    </row>
+    <row r="45" ht="15" customHeight="1" spans="1:3">
+      <c r="A45" s="7" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="25" ht="15" customHeight="1" spans="1:3">
-      <c r="A25" s="3" t="s">
+      <c r="B45" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="C45" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C25" s="3" t="s">
+    </row>
+    <row r="46" ht="15" customHeight="1" spans="1:1">
+      <c r="A46" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="26" ht="15" customHeight="1" spans="1:3">
-      <c r="A26" s="3" t="s">
+    <row r="47" ht="15" customHeight="1" spans="1:1">
+      <c r="A47" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B26" s="3" t="s">
+    </row>
+    <row r="48" ht="15" customHeight="1" spans="1:1">
+      <c r="A48" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C26" s="3" t="s">
+    </row>
+    <row r="49" ht="15" customHeight="1" spans="1:3">
+      <c r="A49" s="7" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="27" ht="15" customHeight="1" spans="1:3">
-      <c r="A27" s="3" t="s">
+      <c r="B49" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="C49" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C27" s="3" t="s">
+    </row>
+    <row r="50" ht="15" customHeight="1" spans="1:1">
+      <c r="A50" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="28" ht="15" customHeight="1" spans="1:3">
-      <c r="A28" s="3" t="s">
+    <row r="51" ht="15" customHeight="1" spans="1:3">
+      <c r="A51" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B51" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C51" s="8" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="29" ht="15" customHeight="1" spans="1:3">
-      <c r="A29" s="3" t="s">
+    <row r="52" ht="15" customHeight="1" spans="1:1">
+      <c r="A52" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B29" s="3" t="s">
+    </row>
+    <row r="53" ht="15" customHeight="1" spans="1:1">
+      <c r="A53" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C29" s="3" t="s">
+    </row>
+    <row r="54" ht="15" customHeight="1" spans="1:1">
+      <c r="A54" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="30" ht="15" customHeight="1" spans="1:3">
-      <c r="A30" s="3" t="s">
+    <row r="55" ht="15" customHeight="1" spans="1:1">
+      <c r="A55" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B30" s="3" t="s">
+    </row>
+    <row r="56" ht="15" customHeight="1" spans="1:3">
+      <c r="A56" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="B56" s="8" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="31" ht="15" customHeight="1" spans="1:3">
-      <c r="A31" s="3" t="s">
+      <c r="C56" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="B31" s="3" t="s">
+    </row>
+    <row r="57" ht="15" customHeight="1" spans="1:1">
+      <c r="A57" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C31" s="3" t="s">
+    </row>
+    <row r="58" ht="15" customHeight="1" spans="1:1">
+      <c r="A58" s="4" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="32" ht="15" customHeight="1" spans="1:3">
-      <c r="A32" s="3" t="s">
+    <row r="59" ht="15" customHeight="1" spans="1:1">
+      <c r="A59" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B32" s="3" t="s">
+    </row>
+    <row r="60" ht="15" customHeight="1" spans="1:1">
+      <c r="A60" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C32" s="3" t="s">
+    </row>
+    <row r="61" ht="15" customHeight="1" spans="1:1">
+      <c r="A61" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="33" ht="15" customHeight="1" spans="1:3">
-      <c r="A33" s="3" t="s">
+    <row r="62" ht="15" customHeight="1" spans="1:1">
+      <c r="A62" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B33" s="3" t="s">
+    </row>
+    <row r="63" ht="15" customHeight="1" spans="1:1">
+      <c r="A63" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C33" s="3" t="s">
+    </row>
+    <row r="64" ht="15" customHeight="1" spans="1:1">
+      <c r="A64" s="4" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="34" ht="15" customHeight="1" spans="1:3">
-      <c r="A34" s="3" t="s">
+    <row r="65" ht="15" customHeight="1" spans="1:1">
+      <c r="A65" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B34" s="3" t="s">
+    </row>
+    <row r="66" ht="15" customHeight="1" spans="1:1">
+      <c r="A66" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C34" s="3" t="s">
+    </row>
+    <row r="67" ht="15" customHeight="1" spans="1:1">
+      <c r="A67" s="4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="35" ht="15" customHeight="1" spans="1:3">
-      <c r="A35" s="3" t="s">
+    <row r="68" ht="15" customHeight="1" spans="1:1">
+      <c r="A68" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B35" s="3" t="s">
+    </row>
+    <row r="69" ht="15" customHeight="1" spans="1:1">
+      <c r="A69" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C35" s="3" t="s">
+    </row>
+    <row r="70" ht="15" customHeight="1" spans="1:1">
+      <c r="A70" s="4" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="36" ht="15" customHeight="1" spans="1:3">
-      <c r="A36" s="3" t="s">
+    <row r="71" ht="15" customHeight="1" spans="1:1">
+      <c r="A71" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B36" s="3" t="s">
+    </row>
+    <row r="72" ht="15" customHeight="1" spans="1:1">
+      <c r="A72" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C36" s="3" t="s">
+    </row>
+    <row r="73" ht="15" customHeight="1" spans="1:1">
+      <c r="A73" s="4" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="37" ht="15" customHeight="1" spans="1:3">
-      <c r="A37" s="3" t="s">
+    <row r="74" ht="15" customHeight="1" spans="1:1">
+      <c r="A74" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B37" s="3" t="s">
+    </row>
+    <row r="75" ht="15" customHeight="1" spans="1:1">
+      <c r="A75" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C37" s="3" t="s">
+    </row>
+    <row r="76" ht="15" customHeight="1" spans="1:1">
+      <c r="A76" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="38" ht="15" customHeight="1" spans="1:3">
-      <c r="A38" s="3" t="s">
+    <row r="77" ht="15" customHeight="1" spans="1:1">
+      <c r="A77" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B38" s="3" t="s">
+    </row>
+    <row r="78" ht="15" customHeight="1" spans="1:1">
+      <c r="A78" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C38" s="3" t="s">
+    </row>
+    <row r="79" ht="15" customHeight="1" spans="1:1">
+      <c r="A79" s="4" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="39" ht="15" customHeight="1" spans="1:3">
-      <c r="A39" s="3" t="s">
+    <row r="80" ht="15" customHeight="1" spans="1:1">
+      <c r="A80" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B39" s="3" t="s">
+    </row>
+    <row r="81" ht="15" customHeight="1" spans="1:3">
+      <c r="A81" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="B81" s="8" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="40" ht="15" customHeight="1" spans="1:3">
-      <c r="A40" s="3" t="s">
+      <c r="C81" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="B40" s="3" t="s">
+    </row>
+    <row r="82" ht="15" customHeight="1" spans="1:1">
+      <c r="A82" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C40" s="3" t="s">
+    </row>
+    <row r="83" ht="15" customHeight="1" spans="1:1">
+      <c r="A83" s="4" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="41" ht="15" customHeight="1" spans="1:3">
-      <c r="A41" s="3" t="s">
+    <row r="84" ht="15" customHeight="1" spans="1:1">
+      <c r="A84" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B41" s="3" t="s">
+    </row>
+    <row r="85" ht="15" customHeight="1" spans="1:1">
+      <c r="A85" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C41" s="3" t="s">
+    </row>
+    <row r="86" ht="15" customHeight="1" spans="1:1">
+      <c r="A86" s="4" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="42" ht="15" customHeight="1" spans="1:3">
-      <c r="A42" s="3" t="s">
+    <row r="87" ht="15" customHeight="1" spans="1:1">
+      <c r="A87" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B42" s="3" t="s">
+    </row>
+    <row r="88" ht="15" customHeight="1" spans="1:1">
+      <c r="A88" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="C42" s="3" t="s">
+    </row>
+    <row r="89" ht="15" customHeight="1" spans="1:1">
+      <c r="A89" s="4" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="43" ht="15" customHeight="1" spans="1:3">
-      <c r="A43" s="3" t="s">
+    <row r="90" ht="15" customHeight="1" spans="1:1">
+      <c r="A90" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="B43" s="3" t="s">
+    </row>
+    <row r="91" ht="15" customHeight="1" spans="1:1">
+      <c r="A91" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="C43" s="3" t="s">
+    </row>
+    <row r="92" ht="15" customHeight="1" spans="1:1">
+      <c r="A92" s="4" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="44" ht="15" customHeight="1" spans="1:3">
-      <c r="A44" s="3" t="s">
+    <row r="93" ht="15" customHeight="1" spans="1:3">
+      <c r="A93" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B93" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C93" s="8" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="45" ht="15" customHeight="1" spans="1:3">
-      <c r="A45" s="3" t="s">
+    <row r="94" ht="15" customHeight="1" spans="1:1">
+      <c r="A94" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B45" s="3" t="s">
+    </row>
+    <row r="95" ht="15" customHeight="1" spans="1:1">
+      <c r="A95" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="C45" s="3" t="s">
+    </row>
+    <row r="96" ht="15" customHeight="1" spans="1:1">
+      <c r="A96" s="4" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="46" ht="15" customHeight="1" spans="1:3">
-      <c r="A46" s="3" t="s">
+    <row r="97" ht="15" customHeight="1" spans="1:1">
+      <c r="A97" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B46" s="3" t="s">
+    </row>
+    <row r="98" ht="15" customHeight="1" spans="1:1">
+      <c r="A98" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C46" s="3" t="s">
+    </row>
+    <row r="99" ht="15" customHeight="1" spans="1:1">
+      <c r="A99" s="4" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="47" ht="15" customHeight="1" spans="1:3">
-      <c r="A47" s="3" t="s">
+    <row r="100" ht="15" customHeight="1" spans="1:3">
+      <c r="A100" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B100" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C100" s="8" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="48" ht="15" customHeight="1" spans="1:3">
-      <c r="A48" s="3" t="s">
+    <row r="101" ht="15" customHeight="1" spans="1:1">
+      <c r="A101" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="B48" s="3" t="s">
+    </row>
+    <row r="102" ht="15" customHeight="1" spans="1:1">
+      <c r="A102" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="C48" s="3" t="s">
+    </row>
+    <row r="103" ht="15" customHeight="1" spans="1:1">
+      <c r="A103" s="4" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="49" ht="15" customHeight="1" spans="1:3">
-      <c r="A49" s="3" t="s">
+    <row r="104" ht="15" customHeight="1" spans="1:1">
+      <c r="A104" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="B49" s="3" t="s">
+    </row>
+    <row r="105" ht="15" customHeight="1" spans="1:1">
+      <c r="A105" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="C49" s="3" t="s">
+    </row>
+    <row r="106" ht="15" customHeight="1" spans="1:1">
+      <c r="A106" s="4" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="50" ht="15" customHeight="1" spans="1:3">
-      <c r="A50" s="3" t="s">
+    <row r="107" ht="15" customHeight="1" spans="1:1">
+      <c r="A107" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="B50" s="3" t="s">
+    </row>
+    <row r="108" ht="15" customHeight="1" spans="1:1">
+      <c r="A108" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="C50" s="3" t="s">
+    </row>
+    <row r="109" ht="15" customHeight="1" spans="1:1">
+      <c r="A109" s="4" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="51" ht="15" customHeight="1" spans="1:3">
-      <c r="A51" s="3" t="s">
+    <row r="110" ht="15" customHeight="1" spans="1:1">
+      <c r="A110" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="B51" s="3" t="s">
+    </row>
+    <row r="111" ht="15" customHeight="1" spans="1:1">
+      <c r="A111" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="C51" s="3" t="s">
+    </row>
+    <row r="112" ht="15" customHeight="1" spans="1:3">
+      <c r="A112" s="7" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="52" ht="15" customHeight="1" spans="1:3">
-      <c r="A52" s="3" t="s">
+      <c r="B112" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="C112" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="C52" s="3" t="s">
+    </row>
+    <row r="113" ht="15" customHeight="1" spans="1:1">
+      <c r="A113" s="4" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="53" ht="15" customHeight="1" spans="1:3">
-      <c r="A53" s="3" t="s">
+    <row r="114" ht="15" customHeight="1" spans="1:1">
+      <c r="A114" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="B53" s="3" t="s">
+    </row>
+    <row r="115" ht="15" customHeight="1" spans="1:3">
+      <c r="A115" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="B115" s="8" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="54" ht="15" customHeight="1" spans="1:3">
-      <c r="A54" s="3" t="s">
+      <c r="C115" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="B54" s="3" t="s">
+    </row>
+    <row r="116" ht="15" customHeight="1" spans="1:1">
+      <c r="A116" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="C54" s="3" t="s">
+    </row>
+    <row r="117" ht="15" customHeight="1" spans="1:3">
+      <c r="A117" s="7" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="55" ht="15" customHeight="1" spans="1:3">
-      <c r="A55" s="3" t="s">
+      <c r="B117" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="C117" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="C55" s="3" t="s">
+    </row>
+    <row r="118" ht="15" customHeight="1" spans="1:1">
+      <c r="A118" s="4" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="56" ht="15" customHeight="1" spans="1:3">
-      <c r="A56" s="3" t="s">
+    <row r="119" ht="15" customHeight="1" spans="1:1">
+      <c r="A119" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="B56" s="3" t="s">
+    </row>
+    <row r="120" ht="15" customHeight="1" spans="1:3">
+      <c r="A120" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="B120" s="8" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="57" ht="15" customHeight="1" spans="1:3">
-      <c r="A57" s="3" t="s">
+      <c r="C120" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="B57" s="3" t="s">
+    </row>
+    <row r="121" ht="15" customHeight="1" spans="1:1">
+      <c r="A121" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="C57" s="3" t="s">
+    </row>
+    <row r="122" ht="15" customHeight="1" spans="1:3">
+      <c r="A122" s="7" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="58" ht="15" customHeight="1" spans="1:3">
-      <c r="A58" s="3" t="s">
+      <c r="B122" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="C122" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="C58" s="3" t="s">
+    </row>
+    <row r="123" ht="15" customHeight="1" spans="1:1">
+      <c r="A123" s="4" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="59" ht="15" customHeight="1" spans="1:3">
-      <c r="A59" s="3" t="s">
+    <row r="124" ht="15" customHeight="1" spans="1:1">
+      <c r="A124" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="B59" s="3" t="s">
+    </row>
+    <row r="125" ht="15" customHeight="1" spans="1:3">
+      <c r="A125" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="B125" s="8" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="60" ht="15" customHeight="1" spans="1:3">
-      <c r="A60" s="3" t="s">
+      <c r="C125" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="B60" s="3" t="s">
+    </row>
+    <row r="126" ht="15" customHeight="1" spans="1:3">
+      <c r="A126" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="B126" s="8" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="61" ht="15" customHeight="1" spans="1:3">
-      <c r="A61" s="3" t="s">
+      <c r="C126" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="B61" s="3" t="s">
+    </row>
+    <row r="127" ht="15" customHeight="1" spans="1:3">
+      <c r="A127" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="B127" s="8" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="62" ht="15" customHeight="1" spans="1:3">
-      <c r="A62" s="3" t="s">
+      <c r="C127" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="B62" s="3" t="s">
+    </row>
+    <row r="128" ht="15" customHeight="1" spans="1:3">
+      <c r="A128" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="B128" s="8" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="63" ht="15" customHeight="1" spans="1:3">
-      <c r="A63" s="3" t="s">
+      <c r="C128" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="B63" s="3" t="s">
+    </row>
+    <row r="129" ht="15" customHeight="1" spans="1:1">
+      <c r="A129" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="C63" s="3" t="s">
+    </row>
+    <row r="130" ht="15" customHeight="1" spans="1:1">
+      <c r="A130" s="4" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="64" ht="15" customHeight="1" spans="1:3">
-      <c r="A64" s="3" t="s">
+    <row r="131" ht="15" customHeight="1" spans="1:1">
+      <c r="A131" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="B64" s="3" t="s">
+    </row>
+    <row r="132" ht="15" customHeight="1" spans="1:1">
+      <c r="A132" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="C64" s="3" t="s">
+    </row>
+    <row r="133" ht="15" customHeight="1" spans="1:1">
+      <c r="A133" s="4" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="65" ht="15" customHeight="1" spans="1:3">
-      <c r="A65" s="3" t="s">
+    <row r="134" ht="15" customHeight="1" spans="1:1">
+      <c r="A134" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="B65" s="3" t="s">
+    </row>
+    <row r="135" ht="15" customHeight="1" spans="1:1">
+      <c r="A135" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="C65" s="3" t="s">
+    </row>
+    <row r="136" ht="15" customHeight="1" spans="1:3">
+      <c r="A136" s="7" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="66" ht="15" customHeight="1" spans="1:3">
-      <c r="A66" s="3" t="s">
+      <c r="B136" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="C136" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="C66" s="3" t="s">
+    </row>
+    <row r="137" ht="15" customHeight="1" spans="1:3">
+      <c r="A137" s="7" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="67" ht="15" customHeight="1" spans="1:3">
-      <c r="A67" s="3" t="s">
+      <c r="B137" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="C137" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="C67" s="3" t="s">
+    </row>
+    <row r="138" ht="15" customHeight="1" spans="1:1">
+      <c r="A138" s="4" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="68" ht="15" customHeight="1" spans="1:3">
-      <c r="A68" s="3" t="s">
+    <row r="139" ht="15" customHeight="1" spans="1:3">
+      <c r="A139" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B139" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="C139" s="8" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="69" ht="15" customHeight="1" spans="1:3">
-      <c r="A69" s="3" t="s">
+    <row r="140" ht="15" customHeight="1" spans="1:1">
+      <c r="A140" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="B69" s="3" t="s">
+    </row>
+    <row r="141" ht="15" customHeight="1" spans="1:3">
+      <c r="A141" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="B141" s="8" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="70" ht="15" customHeight="1" spans="1:3">
-      <c r="A70" s="3" t="s">
+      <c r="C141" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="B70" s="3" t="s">
+    </row>
+    <row r="142" ht="15" customHeight="1" spans="1:1">
+      <c r="A142" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="C70" s="3" t="s">
+    </row>
+    <row r="143" ht="15" customHeight="1" spans="1:3">
+      <c r="A143" s="7" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="71" ht="15" customHeight="1" spans="1:3">
-      <c r="A71" s="3" t="s">
+      <c r="B143" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="C143" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="C71" s="3" t="s">
+    </row>
+    <row r="144" ht="15" customHeight="1" spans="1:1">
+      <c r="A144" s="4" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="72" ht="15" customHeight="1" spans="1:3">
-      <c r="A72" s="3" t="s">
+    <row r="145" ht="15" customHeight="1" spans="1:1">
+      <c r="A145" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="B72" s="3" t="s">
+    </row>
+    <row r="146" ht="15" customHeight="1" spans="1:3">
+      <c r="A146" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="B146" s="8" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="73" ht="15" customHeight="1" spans="1:3">
-      <c r="A73" s="3" t="s">
+      <c r="C146" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="B73" s="3" t="s">
+    </row>
+    <row r="147" ht="15" customHeight="1" spans="1:3">
+      <c r="A147" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="B147" s="8" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="74" ht="15" customHeight="1" spans="1:3">
-      <c r="A74" s="3" t="s">
+      <c r="C147" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="B74" s="3" t="s">
+    </row>
+    <row r="148" ht="15" customHeight="1" spans="1:1">
+      <c r="A148" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="C74" s="3" t="s">
+    </row>
+    <row r="149" ht="15" customHeight="1" spans="1:3">
+      <c r="A149" s="7" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="75" ht="15" customHeight="1" spans="1:3">
-      <c r="A75" s="3" t="s">
+      <c r="B149" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="C149" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="C75" s="3" t="s">
+    </row>
+    <row r="150" ht="15" customHeight="1" spans="1:1">
+      <c r="A150" s="4" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="76" ht="15" customHeight="1" spans="1:3">
-      <c r="A76" s="3" t="s">
+    <row r="151" ht="15" customHeight="1" spans="1:1">
+      <c r="A151" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="B76" s="3" t="s">
+    </row>
+    <row r="152" ht="15" customHeight="1" spans="1:1">
+      <c r="A152" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="C76" s="3" t="s">
+    </row>
+    <row r="153" ht="15" customHeight="1" spans="1:1">
+      <c r="A153" s="4" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="77" ht="15" customHeight="1" spans="1:3">
-      <c r="A77" s="3" t="s">
+    <row r="154" ht="15" customHeight="1" spans="1:1">
+      <c r="A154" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="B77" s="3" t="s">
+    </row>
+    <row r="155" ht="15" customHeight="1" spans="1:1">
+      <c r="A155" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="C77" s="3" t="s">
+    </row>
+    <row r="156" ht="15" customHeight="1" spans="1:1">
+      <c r="A156" s="4" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="78" ht="15" customHeight="1" spans="1:3">
-      <c r="A78" s="3" t="s">
+    <row r="157" ht="15" customHeight="1" spans="1:1">
+      <c r="A157" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="B78" s="3" t="s">
+    </row>
+    <row r="158" ht="15" customHeight="1" spans="1:3">
+      <c r="A158" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="C78" s="3" t="s">
+      <c r="B158" s="8" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="79" ht="15" customHeight="1" spans="1:3">
-      <c r="A79" s="3" t="s">
+      <c r="C158" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="B79" s="3" t="s">
+    </row>
+    <row r="159" ht="15" customHeight="1" spans="1:1">
+      <c r="A159" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="C79" s="3" t="s">
+    </row>
+    <row r="160" ht="15" customHeight="1" spans="1:1">
+      <c r="A160" s="4" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="80" ht="15" customHeight="1" spans="1:3">
-      <c r="A80" s="3" t="s">
+    <row r="161" ht="15" customHeight="1" spans="1:1">
+      <c r="A161" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="B80" s="3" t="s">
+    </row>
+    <row r="162" ht="15" customHeight="1" spans="1:1">
+      <c r="A162" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="C80" s="3" t="s">
+    </row>
+    <row r="163" ht="15" customHeight="1" spans="1:1">
+      <c r="A163" s="4" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="81" ht="15" customHeight="1" spans="1:3">
-      <c r="A81" s="3" t="s">
+    <row r="164" ht="15" customHeight="1" spans="1:3">
+      <c r="A164" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="B164" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="C164" s="8" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="82" ht="15" customHeight="1" spans="1:3">
-      <c r="A82" s="3" t="s">
+    <row r="165" ht="15" customHeight="1" spans="1:3">
+      <c r="A165" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="B165" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="C165" s="8" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="83" ht="15" customHeight="1" spans="1:3">
-      <c r="A83" s="3" t="s">
+    <row r="166" ht="15" customHeight="1" spans="1:1">
+      <c r="A166" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="B83" s="3" t="s">
+    </row>
+    <row r="167" ht="15" customHeight="1" spans="1:1">
+      <c r="A167" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="C83" s="3" t="s">
+    </row>
+    <row r="168" ht="15" customHeight="1" spans="1:1">
+      <c r="A168" s="4" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="84" ht="15" customHeight="1" spans="1:3">
-      <c r="A84" s="3" t="s">
+    <row r="169" ht="15" customHeight="1" spans="1:1">
+      <c r="A169" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="B84" s="3" t="s">
+    </row>
+    <row r="170" ht="15" customHeight="1" spans="1:1">
+      <c r="A170" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="C84" s="3" t="s">
+    </row>
+    <row r="171" ht="15" customHeight="1" spans="1:1">
+      <c r="A171" s="4" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="85" ht="15" customHeight="1" spans="1:3">
-      <c r="A85" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="C85" s="3" t="s">
+    <row r="172" spans="1:1">
+      <c r="A172" s="9" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="86" ht="15" customHeight="1" spans="1:3">
-      <c r="A86" s="3" t="s">
+    <row r="173" spans="1:1">
+      <c r="A173" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="B86" s="3" t="s">
+    </row>
+    <row r="174" spans="1:1">
+      <c r="A174" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="C86" s="3" t="s">
+    </row>
+    <row r="175" spans="1:1">
+      <c r="A175" s="10" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="87" ht="15" customHeight="1" spans="1:3">
-      <c r="A87" s="3" t="s">
+    <row r="176" spans="1:1">
+      <c r="A176" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="B87" s="3" t="s">
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="C87" s="3" t="s">
+    </row>
+    <row r="178" ht="13.5" spans="1:1">
+      <c r="A178" s="10" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="88" ht="15" customHeight="1" spans="1:3">
-      <c r="A88" s="3" t="s">
+    <row r="179" ht="14.25" spans="1:3">
+      <c r="A179" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="B179" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="C88" s="3" t="s">
+      <c r="C179" s="8" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="89" ht="15" customHeight="1" spans="1:3">
-      <c r="A89" s="3" t="s">
+    <row r="180" ht="14.25" spans="1:3">
+      <c r="A180" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="B180" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="C89" s="3" t="s">
+      <c r="C180" s="8" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="90" ht="15" customHeight="1" spans="1:3">
-      <c r="A90" s="3" t="s">
+    <row r="181" spans="1:1">
+      <c r="A181" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="B90" s="3" t="s">
+    </row>
+    <row r="182" ht="13.5" spans="1:1">
+      <c r="A182" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="C90" s="3" t="s">
+    </row>
+    <row r="183" ht="14.25" spans="1:3">
+      <c r="A183" s="11" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="91" ht="15" customHeight="1" spans="1:3">
-      <c r="A91" s="3" t="s">
+      <c r="B183" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="B91" s="3" t="s">
+      <c r="C183" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="C91" s="3" t="s">
+    </row>
+    <row r="184" ht="13.5" spans="1:1">
+      <c r="A184" s="10" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="92" ht="15" customHeight="1" spans="1:3">
-      <c r="A92" s="3" t="s">
+    <row r="185" ht="14.25" spans="1:3">
+      <c r="A185" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="B185" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="C92" s="3" t="s">
+      <c r="C185" s="8" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="93" ht="15" customHeight="1" spans="1:3">
-      <c r="A93" s="3" t="s">
+    <row r="186" ht="14.25" spans="1:3">
+      <c r="A186" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="B93" s="3" t="s">
+      <c r="B186" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="C93" s="3" t="s">
+      <c r="C186" s="8" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="94" ht="15" customHeight="1" spans="1:3">
-      <c r="A94" s="3" t="s">
+    <row r="187" spans="1:1">
+      <c r="A187" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="B94" s="3" t="s">
+    </row>
+    <row r="188" spans="1:1">
+      <c r="A188" s="10" t="s">
         <v>278</v>
       </c>
-      <c r="C94" s="3" t="s">
+    </row>
+    <row r="189" spans="1:1">
+      <c r="A189" s="10" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="95" ht="15" customHeight="1" spans="1:3">
-      <c r="A95" s="3" t="s">
+    <row r="190" spans="1:1">
+      <c r="A190" s="10" t="s">
         <v>280</v>
       </c>
-      <c r="B95" s="3" t="s">
+    </row>
+    <row r="191" spans="1:1">
+      <c r="A191" s="10" t="s">
         <v>281</v>
       </c>
-      <c r="C95" s="3" t="s">
+    </row>
+    <row r="192" spans="1:1">
+      <c r="A192" s="10" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="96" ht="15" customHeight="1" spans="1:3">
-      <c r="A96" s="3" t="s">
+    <row r="193" spans="1:1">
+      <c r="A193" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="B96" s="3" t="s">
+    </row>
+    <row r="194" spans="1:1">
+      <c r="A194" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="C96" s="3" t="s">
+    </row>
+    <row r="195" spans="1:1">
+      <c r="A195" s="10" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="97" ht="15" customHeight="1" spans="1:3">
-      <c r="A97" s="3" t="s">
+    <row r="196" ht="13.5" spans="1:1">
+      <c r="A196" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="B97" s="3" t="s">
+    </row>
+    <row r="197" ht="14.25" spans="1:3">
+      <c r="A197" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="C97" s="3" t="s">
+      <c r="B197" s="8" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="98" ht="15" customHeight="1" spans="1:3">
-      <c r="A98" s="3" t="s">
+      <c r="C197" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="B98" s="3" t="s">
+    </row>
+    <row r="198" spans="1:1">
+      <c r="A198" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="C98" s="3" t="s">
+    </row>
+    <row r="199" spans="1:1">
+      <c r="A199" s="10" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="99" ht="15" customHeight="1" spans="1:3">
-      <c r="A99" s="3" t="s">
+    <row r="200" spans="1:1">
+      <c r="A200" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="B99" s="3" t="s">
+    </row>
+    <row r="201" spans="1:1">
+      <c r="A201" s="10" t="s">
         <v>293</v>
       </c>
-      <c r="C99" s="3" t="s">
+    </row>
+    <row r="202" ht="13.5" spans="1:1">
+      <c r="A202" s="10" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="100" ht="15" customHeight="1" spans="1:3">
-      <c r="A100" s="3" t="s">
+    <row r="203" ht="14.25" spans="1:3">
+      <c r="A203" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="B100" s="3" t="s">
+      <c r="B203" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="C100" s="3" t="s">
+      <c r="C203" s="8" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="101" ht="15" customHeight="1" spans="1:3">
-      <c r="A101" s="3" t="s">
+    <row r="204" spans="1:1">
+      <c r="A204" s="10" t="s">
         <v>298</v>
       </c>
-      <c r="B101" s="3" t="s">
+    </row>
+    <row r="205" spans="1:1">
+      <c r="A205" s="10" t="s">
         <v>299</v>
       </c>
-      <c r="C101" s="3" t="s">
+    </row>
+    <row r="206" spans="1:1">
+      <c r="A206" s="10" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="102" ht="15" customHeight="1" spans="1:3">
-      <c r="A102" s="3" t="s">
+    <row r="207" spans="1:1">
+      <c r="A207" s="10" t="s">
         <v>301</v>
       </c>
-      <c r="B102" s="3" t="s">
+    </row>
+    <row r="208" spans="1:1">
+      <c r="A208" s="10" t="s">
         <v>302</v>
       </c>
-      <c r="C102" s="3" t="s">
+    </row>
+    <row r="209" spans="1:1">
+      <c r="A209" s="10" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="103" ht="15" customHeight="1" spans="1:3">
-      <c r="A103" s="3" t="s">
+    <row r="210" spans="1:1">
+      <c r="A210" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="B103" s="3" t="s">
+    </row>
+    <row r="211" spans="1:1">
+      <c r="A211" s="10" t="s">
         <v>305</v>
       </c>
-      <c r="C103" s="3" t="s">
+    </row>
+    <row r="212" spans="1:1">
+      <c r="A212" s="10" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="104" ht="15" customHeight="1" spans="1:3">
-      <c r="A104" s="3" t="s">
+    <row r="213" spans="1:1">
+      <c r="A213" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="B104" s="3" t="s">
+    </row>
+    <row r="214" spans="1:1">
+      <c r="A214" s="10" t="s">
         <v>308</v>
       </c>
-      <c r="C104" s="3" t="s">
+    </row>
+    <row r="215" spans="1:1">
+      <c r="A215" s="10" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="105" ht="15" customHeight="1" spans="1:3">
-      <c r="A105" s="3" t="s">
+    <row r="216" spans="1:1">
+      <c r="A216" s="10" t="s">
         <v>310</v>
       </c>
-      <c r="B105" s="3" t="s">
+    </row>
+    <row r="217" spans="1:1">
+      <c r="A217" s="10" t="s">
         <v>311</v>
       </c>
-      <c r="C105" s="3" t="s">
+    </row>
+    <row r="218" spans="1:1">
+      <c r="A218" s="10" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="106" ht="15" customHeight="1" spans="1:3">
-      <c r="A106" s="3" t="s">
+    <row r="219" ht="13.5" spans="1:1">
+      <c r="A219" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="B106" s="3" t="s">
+    </row>
+    <row r="220" ht="14.25" spans="1:3">
+      <c r="A220" s="11" t="s">
         <v>314</v>
       </c>
-      <c r="C106" s="3" t="s">
+      <c r="B220" s="8" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="107" ht="15" customHeight="1" spans="1:3">
-      <c r="A107" s="3" t="s">
+      <c r="C220" s="8" t="s">
         <v>316</v>
       </c>
-      <c r="B107" s="3" t="s">
+    </row>
+    <row r="221" spans="1:1">
+      <c r="A221" s="10" t="s">
         <v>317</v>
       </c>
-      <c r="C107" s="3" t="s">
+    </row>
+    <row r="222" spans="1:1">
+      <c r="A222" s="10" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="108" ht="15" customHeight="1" spans="1:3">
-      <c r="A108" s="3" t="s">
+    <row r="223" spans="1:1">
+      <c r="A223" s="10" t="s">
         <v>319</v>
       </c>
-      <c r="B108" s="3" t="s">
+    </row>
+    <row r="224" spans="1:1">
+      <c r="A224" s="10" t="s">
         <v>320</v>
       </c>
-      <c r="C108" s="3" t="s">
+    </row>
+    <row r="225" spans="1:1">
+      <c r="A225" s="10" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="109" ht="15" customHeight="1" spans="1:3">
-      <c r="A109" s="3" t="s">
+    <row r="226" ht="13.5" spans="1:1">
+      <c r="A226" s="10" t="s">
         <v>322</v>
       </c>
-      <c r="B109" s="3" t="s">
+    </row>
+    <row r="227" ht="14.25" spans="1:3">
+      <c r="A227" s="11" t="s">
         <v>323</v>
       </c>
-      <c r="C109" s="3" t="s">
+      <c r="B227" s="8" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="110" ht="15" customHeight="1" spans="1:3">
-      <c r="A110" s="3" t="s">
+      <c r="C227" s="8" t="s">
         <v>325</v>
       </c>
-      <c r="B110" s="3" t="s">
+    </row>
+    <row r="228" ht="14.25" spans="1:3">
+      <c r="A228" s="11" t="s">
         <v>326</v>
       </c>
-      <c r="C110" s="3" t="s">
+      <c r="B228" s="8" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="111" ht="15" customHeight="1" spans="1:3">
-      <c r="A111" s="3" t="s">
+      <c r="C228" s="8" t="s">
         <v>328</v>
       </c>
-      <c r="B111" s="3" t="s">
+    </row>
+    <row r="229" spans="1:1">
+      <c r="A229" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="C111" s="3" t="s">
+    </row>
+    <row r="230" spans="1:1">
+      <c r="A230" s="10" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="112" ht="15" customHeight="1" spans="1:3">
-      <c r="A112" s="3" t="s">
+    <row r="231" spans="1:1">
+      <c r="A231" s="10" t="s">
         <v>331</v>
       </c>
-      <c r="B112" s="3" t="s">
+    </row>
+    <row r="232" spans="1:1">
+      <c r="A232" s="10" t="s">
         <v>332</v>
       </c>
-      <c r="C112" s="3" t="s">
+    </row>
+    <row r="233" ht="13.5" spans="1:1">
+      <c r="A233" s="10" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="113" ht="15" customHeight="1" spans="1:3">
-      <c r="A113" s="3" t="s">
+    <row r="234" ht="14.25" spans="1:3">
+      <c r="A234" s="11" t="s">
         <v>334</v>
       </c>
-      <c r="B113" s="3" t="s">
+      <c r="B234" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="C113" s="3" t="s">
+      <c r="C234" s="8" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="114" ht="15" customHeight="1" spans="1:3">
-      <c r="A114" s="3" t="s">
+    <row r="235" spans="1:1">
+      <c r="A235" s="10" t="s">
         <v>337</v>
       </c>
-      <c r="B114" s="3" t="s">
+    </row>
+    <row r="236" spans="1:1">
+      <c r="A236" s="10" t="s">
         <v>338</v>
       </c>
-      <c r="C114" s="3" t="s">
+    </row>
+    <row r="237" spans="1:1">
+      <c r="A237" s="10" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="115" ht="15" customHeight="1" spans="1:3">
-      <c r="A115" s="3" t="s">
+    <row r="238" spans="1:1">
+      <c r="A238" s="10" t="s">
         <v>340</v>
       </c>
-      <c r="B115" s="3" t="s">
+    </row>
+    <row r="239" ht="13.5" spans="1:1">
+      <c r="A239" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="C115" s="3" t="s">
+    </row>
+    <row r="240" ht="14.25" spans="1:3">
+      <c r="A240" s="11" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="116" ht="15" customHeight="1" spans="1:3">
-      <c r="A116" s="3" t="s">
+      <c r="B240" s="8" t="s">
         <v>343</v>
       </c>
-      <c r="B116" s="3" t="s">
+      <c r="C240" s="8" t="s">
         <v>344</v>
       </c>
-      <c r="C116" s="3" t="s">
+    </row>
+    <row r="241" spans="1:1">
+      <c r="A241" s="10" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="117" ht="15" customHeight="1" spans="1:3">
-      <c r="A117" s="3" t="s">
+    <row r="242" spans="1:1">
+      <c r="A242" s="10" t="s">
         <v>346</v>
       </c>
-      <c r="B117" s="3" t="s">
+    </row>
+    <row r="243" spans="1:1">
+      <c r="A243" s="10" t="s">
         <v>347</v>
       </c>
-      <c r="C117" s="3" t="s">
+    </row>
+    <row r="244" spans="1:1">
+      <c r="A244" s="10" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="118" ht="15" customHeight="1" spans="1:3">
-      <c r="A118" s="3" t="s">
+    <row r="245" spans="1:1">
+      <c r="A245" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="B118" s="3" t="s">
+    </row>
+    <row r="246" spans="1:1">
+      <c r="A246" s="10" t="s">
         <v>350</v>
       </c>
-      <c r="C118" s="3" t="s">
+    </row>
+    <row r="247" spans="1:1">
+      <c r="A247" s="10" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="119" ht="15" customHeight="1" spans="1:3">
-      <c r="A119" s="3" t="s">
+    <row r="248" spans="1:1">
+      <c r="A248" s="10" t="s">
         <v>352</v>
       </c>
-      <c r="B119" s="3" t="s">
+    </row>
+    <row r="249" spans="1:1">
+      <c r="A249" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="C119" s="3" t="s">
+    </row>
+    <row r="250" spans="1:1">
+      <c r="A250" s="10" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="120" ht="15" customHeight="1" spans="1:3">
-      <c r="A120" s="3" t="s">
+    <row r="251" spans="1:1">
+      <c r="A251" s="10" t="s">
         <v>355</v>
       </c>
-      <c r="B120" s="3" t="s">
+    </row>
+    <row r="252" spans="1:1">
+      <c r="A252" s="10" t="s">
         <v>356</v>
       </c>
-      <c r="C120" s="3" t="s">
+    </row>
+    <row r="253" spans="1:1">
+      <c r="A253" s="10" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="121" ht="15" customHeight="1" spans="1:3">
-      <c r="A121" s="3" t="s">
+    <row r="254" spans="1:1">
+      <c r="A254" s="10" t="s">
         <v>358</v>
       </c>
-      <c r="B121" s="3" t="s">
+    </row>
+    <row r="255" spans="1:1">
+      <c r="A255" s="10" t="s">
         <v>359</v>
       </c>
-      <c r="C121" s="3" t="s">
+    </row>
+    <row r="256" spans="1:1">
+      <c r="A256" s="10" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="122" ht="15" customHeight="1" spans="1:3">
-      <c r="A122" s="3" t="s">
+    <row r="257" spans="1:1">
+      <c r="A257" s="10" t="s">
         <v>361</v>
       </c>
-      <c r="B122" s="3" t="s">
+    </row>
+    <row r="258" spans="1:1">
+      <c r="A258" s="10" t="s">
         <v>362</v>
       </c>
-      <c r="C122" s="3" t="s">
+    </row>
+    <row r="259" spans="1:1">
+      <c r="A259" s="10" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="123" ht="15" customHeight="1" spans="1:3">
-      <c r="A123" s="3" t="s">
+    <row r="260" spans="1:1">
+      <c r="A260" s="10" t="s">
         <v>364</v>
       </c>
-      <c r="B123" s="3" t="s">
+    </row>
+    <row r="261" spans="1:1">
+      <c r="A261" s="10" t="s">
         <v>365</v>
       </c>
-      <c r="C123" s="3" t="s">
+    </row>
+    <row r="262" ht="13.5" spans="1:1">
+      <c r="A262" s="10" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="124" ht="15" customHeight="1" spans="1:3">
-      <c r="A124" s="3" t="s">
+    <row r="263" ht="14.25" spans="1:3">
+      <c r="A263" s="11" t="s">
         <v>367</v>
       </c>
-      <c r="B124" s="3" t="s">
+      <c r="B263" s="8" t="s">
         <v>368</v>
       </c>
-      <c r="C124" s="3" t="s">
+      <c r="C263" s="8" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="125" ht="15" customHeight="1" spans="1:3">
-      <c r="A125" s="3" t="s">
+    <row r="264" ht="14.25" spans="1:3">
+      <c r="A264" s="11" t="s">
         <v>370</v>
       </c>
-      <c r="B125" s="3" t="s">
+      <c r="B264" s="8" t="s">
         <v>371</v>
       </c>
-      <c r="C125" s="3" t="s">
+      <c r="C264" s="8" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="126" ht="15" customHeight="1" spans="1:3">
-      <c r="A126" s="3" t="s">
+    <row r="265" spans="1:1">
+      <c r="A265" s="10" t="s">
         <v>373</v>
       </c>
-      <c r="B126" s="3" t="s">
+    </row>
+    <row r="266" spans="1:1">
+      <c r="A266" s="10" t="s">
         <v>374</v>
       </c>
-      <c r="C126" s="3" t="s">
+    </row>
+    <row r="267" spans="1:1">
+      <c r="A267" s="10" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="127" ht="15" customHeight="1" spans="1:3">
-      <c r="A127" s="3" t="s">
+    <row r="268" spans="1:1">
+      <c r="A268" s="10" t="s">
         <v>376</v>
       </c>
-      <c r="B127" s="3" t="s">
+    </row>
+    <row r="269" spans="1:1">
+      <c r="A269" s="10" t="s">
         <v>377</v>
       </c>
-      <c r="C127" s="3" t="s">
+    </row>
+    <row r="270" spans="1:1">
+      <c r="A270" s="10" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="128" ht="15" customHeight="1" spans="1:3">
-      <c r="A128" s="3" t="s">
+    <row r="271" ht="13.5" spans="1:1">
+      <c r="A271" s="10" t="s">
         <v>379</v>
       </c>
-      <c r="B128" s="3" t="s">
+    </row>
+    <row r="272" ht="14.25" spans="1:3">
+      <c r="A272" s="11" t="s">
         <v>380</v>
       </c>
-      <c r="C128" s="3" t="s">
+      <c r="B272" s="8" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="129" ht="15" customHeight="1" spans="1:3">
-      <c r="A129" s="3" t="s">
+      <c r="C272" s="8" t="s">
         <v>382</v>
       </c>
-      <c r="B129" s="3" t="s">
+    </row>
+    <row r="273" ht="14.25" spans="1:3">
+      <c r="A273" s="11" t="s">
         <v>383</v>
       </c>
-      <c r="C129" s="3" t="s">
+      <c r="B273" s="8" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="130" ht="15" customHeight="1" spans="1:3">
-      <c r="A130" s="3" t="s">
+      <c r="C273" s="8" t="s">
         <v>385</v>
       </c>
-      <c r="B130" s="3" t="s">
+    </row>
+    <row r="274" spans="1:1">
+      <c r="A274" s="10" t="s">
         <v>386</v>
       </c>
-      <c r="C130" s="3" t="s">
+    </row>
+    <row r="275" spans="1:1">
+      <c r="A275" s="10" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="131" ht="15" customHeight="1" spans="1:3">
-      <c r="A131" s="3" t="s">
+    <row r="276" ht="13.5" spans="1:1">
+      <c r="A276" s="10" t="s">
         <v>388</v>
       </c>
-      <c r="B131" s="3" t="s">
+    </row>
+    <row r="277" ht="14.25" spans="1:3">
+      <c r="A277" s="11" t="s">
         <v>389</v>
       </c>
-      <c r="C131" s="3" t="s">
+      <c r="B277" s="8" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="132" ht="15" customHeight="1" spans="1:3">
-      <c r="A132" s="3" t="s">
+      <c r="C277" s="8" t="s">
         <v>391</v>
       </c>
-      <c r="B132" s="3" t="s">
+    </row>
+    <row r="278" spans="1:1">
+      <c r="A278" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="C132" s="3" t="s">
+    </row>
+    <row r="279" spans="1:1">
+      <c r="A279" s="10" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="133" ht="15" customHeight="1" spans="1:3">
-      <c r="A133" s="3" t="s">
+    <row r="280" spans="1:1">
+      <c r="A280" s="10" t="s">
         <v>394</v>
       </c>
-      <c r="B133" s="3" t="s">
+    </row>
+    <row r="281" ht="13.5" spans="1:1">
+      <c r="A281" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="C133" s="3" t="s">
+    </row>
+    <row r="282" ht="14.25" spans="1:3">
+      <c r="A282" s="11" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="134" ht="15" customHeight="1" spans="1:3">
-      <c r="A134" s="3" t="s">
+      <c r="B282" s="8" t="s">
         <v>397</v>
       </c>
-      <c r="B134" s="3" t="s">
+      <c r="C282" s="8" t="s">
         <v>398</v>
       </c>
-      <c r="C134" s="3" t="s">
+    </row>
+    <row r="283" ht="14.25" spans="1:3">
+      <c r="A283" s="11" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="135" ht="15" customHeight="1" spans="1:3">
-      <c r="A135" s="3" t="s">
+      <c r="B283" s="8" t="s">
         <v>400</v>
       </c>
-      <c r="B135" s="3" t="s">
+      <c r="C283" s="8" t="s">
         <v>401</v>
       </c>
-      <c r="C135" s="3" t="s">
+    </row>
+    <row r="284" spans="1:1">
+      <c r="A284" s="10" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="136" ht="15" customHeight="1" spans="1:3">
-      <c r="A136" s="3" t="s">
+    <row r="285" spans="1:1">
+      <c r="A285" s="10" t="s">
         <v>403</v>
       </c>
-      <c r="B136" s="3" t="s">
+    </row>
+    <row r="286" spans="1:1">
+      <c r="A286" s="10" t="s">
         <v>404</v>
       </c>
-      <c r="C136" s="3" t="s">
+    </row>
+    <row r="287" ht="13.5" spans="1:1">
+      <c r="A287" s="10" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="137" ht="15" customHeight="1" spans="1:3">
-      <c r="A137" s="3" t="s">
+    <row r="288" ht="14.25" spans="1:3">
+      <c r="A288" s="11" t="s">
         <v>406</v>
       </c>
-      <c r="B137" s="3" t="s">
+      <c r="B288" s="8" t="s">
         <v>407</v>
       </c>
-      <c r="C137" s="3" t="s">
+      <c r="C288" s="8" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="138" ht="15" customHeight="1" spans="1:3">
-      <c r="A138" s="3" t="s">
+    <row r="289" ht="14.25" spans="1:3">
+      <c r="A289" s="11" t="s">
         <v>409</v>
       </c>
-      <c r="B138" s="3" t="s">
+      <c r="B289" s="8" t="s">
         <v>410</v>
       </c>
-      <c r="C138" s="3" t="s">
+      <c r="C289" s="8" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="139" ht="15" customHeight="1" spans="1:3">
-      <c r="A139" s="3" t="s">
+    <row r="290" ht="14.25" spans="1:3">
+      <c r="A290" s="11" t="s">
         <v>412</v>
       </c>
-      <c r="B139" s="3" t="s">
+      <c r="B290" s="8" t="s">
         <v>413</v>
       </c>
-      <c r="C139" s="3" t="s">
+      <c r="C290" s="8" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="140" ht="15" customHeight="1" spans="1:3">
-      <c r="A140" s="3" t="s">
+    <row r="291" spans="1:1">
+      <c r="A291" s="10" t="s">
         <v>415</v>
       </c>
-      <c r="B140" s="3" t="s">
+    </row>
+    <row r="292" spans="1:1">
+      <c r="A292" s="10" t="s">
         <v>416</v>
       </c>
-      <c r="C140" s="3" t="s">
+    </row>
+    <row r="293" spans="1:1">
+      <c r="A293" s="10" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="141" ht="15" customHeight="1" spans="1:3">
-      <c r="A141" s="3" t="s">
+    <row r="294" spans="1:1">
+      <c r="A294" s="10" t="s">
         <v>418</v>
       </c>
-      <c r="B141" s="3" t="s">
+    </row>
+    <row r="295" ht="13.5" spans="1:1">
+      <c r="A295" s="10" t="s">
         <v>419</v>
       </c>
-      <c r="C141" s="3" t="s">
+    </row>
+    <row r="296" ht="14.25" spans="1:3">
+      <c r="A296" s="11" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="142" ht="15" customHeight="1" spans="1:3">
-      <c r="A142" s="3" t="s">
+      <c r="B296" s="8" t="s">
         <v>421</v>
       </c>
-      <c r="B142" s="3" t="s">
+      <c r="C296" s="8" t="s">
         <v>422</v>
       </c>
-      <c r="C142" s="3" t="s">
+    </row>
+    <row r="297" ht="14.25" spans="1:3">
+      <c r="A297" s="11" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="143" ht="15" customHeight="1" spans="1:3">
-      <c r="A143" s="3" t="s">
+      <c r="B297" s="8" t="s">
         <v>424</v>
       </c>
-      <c r="B143" s="3" t="s">
+      <c r="C297" s="8" t="s">
         <v>425</v>
       </c>
-      <c r="C143" s="3" t="s">
+    </row>
+    <row r="298" ht="14.25" spans="1:3">
+      <c r="A298" s="11" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="144" ht="15" customHeight="1" spans="1:3">
-      <c r="A144" s="3" t="s">
+      <c r="B298" s="8" t="s">
         <v>427</v>
       </c>
-      <c r="B144" s="3" t="s">
+      <c r="C298" s="8" t="s">
         <v>428</v>
       </c>
-      <c r="C144" s="3" t="s">
+    </row>
+    <row r="299" ht="14.25" spans="1:3">
+      <c r="A299" s="11" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="145" ht="15" customHeight="1" spans="1:3">
-      <c r="A145" s="3" t="s">
+      <c r="B299" s="8" t="s">
         <v>430</v>
       </c>
-      <c r="B145" s="3" t="s">
+      <c r="C299" s="8" t="s">
         <v>431</v>
       </c>
-      <c r="C145" s="3" t="s">
+    </row>
+    <row r="300" spans="1:1">
+      <c r="A300" s="10" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="146" ht="15" customHeight="1" spans="1:3">
-      <c r="A146" s="3" t="s">
+    <row r="301" spans="1:1">
+      <c r="A301" s="10" t="s">
         <v>433</v>
       </c>
-      <c r="B146" s="3" t="s">
+    </row>
+    <row r="302" ht="13.5" spans="1:1">
+      <c r="A302" s="10" t="s">
         <v>434</v>
       </c>
-      <c r="C146" s="3" t="s">
+    </row>
+    <row r="303" ht="14.25" spans="1:3">
+      <c r="A303" s="11" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="147" ht="15" customHeight="1" spans="1:3">
-      <c r="A147" s="3" t="s">
+      <c r="B303" s="8" t="s">
         <v>436</v>
       </c>
-      <c r="B147" s="3" t="s">
+      <c r="C303" s="8" t="s">
         <v>437</v>
       </c>
-      <c r="C147" s="3" t="s">
+    </row>
+    <row r="304" spans="1:1">
+      <c r="A304" s="10" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="148" ht="15" customHeight="1" spans="1:3">
-      <c r="A148" s="3" t="s">
+    <row r="305" ht="13.5" spans="1:1">
+      <c r="A305" s="10" t="s">
         <v>439</v>
       </c>
-      <c r="B148" s="3" t="s">
+    </row>
+    <row r="306" ht="14.25" spans="1:3">
+      <c r="A306" s="11" t="s">
         <v>440</v>
       </c>
-      <c r="C148" s="3" t="s">
+      <c r="B306" s="8" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="149" ht="15" customHeight="1" spans="1:3">
-      <c r="A149" s="3" t="s">
+      <c r="C306" s="8" t="s">
         <v>442</v>
       </c>
-      <c r="B149" s="3" t="s">
+    </row>
+    <row r="307" spans="1:1">
+      <c r="A307" s="10" t="s">
         <v>443</v>
       </c>
-      <c r="C149" s="3" t="s">
+    </row>
+    <row r="308" spans="1:1">
+      <c r="A308" s="10" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="150" ht="15" customHeight="1" spans="1:3">
-      <c r="A150" s="3" t="s">
+    <row r="309" ht="13.5" spans="1:1">
+      <c r="A309" s="10" t="s">
         <v>445</v>
       </c>
-      <c r="B150" s="3" t="s">
+    </row>
+    <row r="310" ht="14.25" spans="1:3">
+      <c r="A310" s="11" t="s">
         <v>446</v>
       </c>
-      <c r="C150" s="3" t="s">
+      <c r="B310" s="8" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="151" ht="15" customHeight="1" spans="1:3">
-      <c r="A151" s="3" t="s">
+      <c r="C310" s="8" t="s">
         <v>448</v>
       </c>
-      <c r="B151" s="3" t="s">
+    </row>
+    <row r="311" ht="14.25" spans="1:3">
+      <c r="A311" s="11" t="s">
         <v>449</v>
       </c>
-      <c r="C151" s="3" t="s">
+      <c r="B311" s="8" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="152" ht="15" customHeight="1" spans="1:3">
-      <c r="A152" s="3" t="s">
+      <c r="C311" s="8" t="s">
         <v>451</v>
       </c>
-      <c r="B152" s="3" t="s">
+    </row>
+    <row r="312" spans="1:1">
+      <c r="A312" s="10" t="s">
         <v>452</v>
       </c>
-      <c r="C152" s="3" t="s">
+    </row>
+    <row r="313" spans="1:1">
+      <c r="A313" s="10" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="153" ht="15" customHeight="1" spans="1:3">
-      <c r="A153" s="3" t="s">
+    <row r="314" ht="13.5" spans="1:1">
+      <c r="A314" s="10" t="s">
         <v>454</v>
       </c>
-      <c r="B153" s="3" t="s">
+    </row>
+    <row r="315" ht="14.25" spans="1:3">
+      <c r="A315" s="11" t="s">
         <v>455</v>
       </c>
-      <c r="C153" s="3" t="s">
+      <c r="B315" s="8" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="154" ht="15" customHeight="1" spans="1:3">
-      <c r="A154" s="3" t="s">
+      <c r="C315" s="8" t="s">
         <v>457</v>
       </c>
-      <c r="B154" s="3" t="s">
+    </row>
+    <row r="316" ht="14.25" spans="1:3">
+      <c r="A316" s="11" t="s">
         <v>458</v>
       </c>
-      <c r="C154" s="3" t="s">
+      <c r="B316" s="8" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="155" ht="15" customHeight="1" spans="1:3">
-      <c r="A155" s="3" t="s">
+      <c r="C316" s="8" t="s">
         <v>460</v>
       </c>
-      <c r="B155" s="3" t="s">
+    </row>
+    <row r="317" ht="14.25" spans="1:3">
+      <c r="A317" s="11" t="s">
         <v>461</v>
       </c>
-      <c r="C155" s="3" t="s">
+      <c r="B317" s="8" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="156" ht="15" customHeight="1" spans="1:3">
-      <c r="A156" s="3" t="s">
+      <c r="C317" s="8" t="s">
         <v>463</v>
       </c>
-      <c r="B156" s="3" t="s">
+    </row>
+    <row r="318" spans="1:1">
+      <c r="A318" s="10" t="s">
         <v>464</v>
       </c>
-      <c r="C156" s="3" t="s">
+    </row>
+    <row r="319" spans="1:1">
+      <c r="A319" s="10" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="157" ht="15" customHeight="1" spans="1:3">
-      <c r="A157" s="3" t="s">
+    <row r="320" spans="1:1">
+      <c r="A320" s="10" t="s">
         <v>466</v>
       </c>
-      <c r="B157" s="3" t="s">
+    </row>
+    <row r="321" spans="1:1">
+      <c r="A321" s="10" t="s">
         <v>467</v>
       </c>
-      <c r="C157" s="3" t="s">
+    </row>
+    <row r="322" spans="1:1">
+      <c r="A322" s="10" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="158" ht="15" customHeight="1" spans="1:3">
-      <c r="A158" s="3" t="s">
+    <row r="323" spans="1:1">
+      <c r="A323" s="10" t="s">
         <v>469</v>
       </c>
-      <c r="B158" s="3" t="s">
+    </row>
+    <row r="324" ht="13.5" spans="1:1">
+      <c r="A324" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="C158" s="3" t="s">
+    </row>
+    <row r="325" ht="14.25" spans="1:3">
+      <c r="A325" s="11" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="159" ht="15" customHeight="1" spans="1:3">
-      <c r="A159" s="3" t="s">
+      <c r="B325" s="8" t="s">
         <v>472</v>
       </c>
-      <c r="B159" s="3" t="s">
+      <c r="C325" s="8" t="s">
         <v>473</v>
       </c>
-      <c r="C159" s="3" t="s">
+    </row>
+    <row r="326" spans="1:1">
+      <c r="A326" s="10" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="160" ht="15" customHeight="1" spans="1:3">
-      <c r="A160" s="3" t="s">
+    <row r="327" ht="13.5" spans="1:1">
+      <c r="A327" s="10" t="s">
         <v>475</v>
       </c>
-      <c r="B160" s="3" t="s">
+    </row>
+    <row r="328" ht="14.25" spans="1:3">
+      <c r="A328" s="11" t="s">
         <v>476</v>
       </c>
-      <c r="C160" s="3" t="s">
+      <c r="B328" s="8" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="161" ht="15" customHeight="1" spans="1:3">
-      <c r="A161" s="3" t="s">
+      <c r="C328" s="8" t="s">
         <v>478</v>
       </c>
-      <c r="B161" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C161" s="3" t="s">
+    </row>
+    <row r="329" spans="1:1">
+      <c r="A329" s="10" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="162" ht="15" customHeight="1" spans="1:3">
-      <c r="A162" s="3" t="s">
+    <row r="330" spans="1:1">
+      <c r="A330" s="10" t="s">
         <v>480</v>
       </c>
-      <c r="B162" s="3" t="s">
+    </row>
+    <row r="331" spans="1:1">
+      <c r="A331" s="10" t="s">
         <v>481</v>
       </c>
-      <c r="C162" s="3" t="s">
+    </row>
+    <row r="332" spans="1:1">
+      <c r="A332" s="10" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="163" ht="15" customHeight="1" spans="1:3">
-      <c r="A163" s="3" t="s">
+    <row r="333" spans="1:1">
+      <c r="A333" s="10" t="s">
         <v>483</v>
       </c>
-      <c r="B163" s="3" t="s">
+    </row>
+    <row r="334" spans="1:1">
+      <c r="A334" s="10" t="s">
         <v>484</v>
       </c>
-      <c r="C163" s="3" t="s">
+    </row>
+    <row r="335" spans="1:1">
+      <c r="A335" s="10" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="164" ht="15" customHeight="1" spans="1:3">
-      <c r="A164" s="3" t="s">
+    <row r="336" spans="1:1">
+      <c r="A336" s="10" t="s">
         <v>486</v>
       </c>
-      <c r="B164" s="3" t="s">
+    </row>
+    <row r="337" spans="1:1">
+      <c r="A337" s="10" t="s">
         <v>487</v>
       </c>
-      <c r="C164" s="3" t="s">
+    </row>
+    <row r="338" spans="1:1">
+      <c r="A338" s="10" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="165" ht="15" customHeight="1" spans="1:3">
-      <c r="A165" s="3" t="s">
+    <row r="339" spans="1:1">
+      <c r="A339" s="10" t="s">
         <v>489</v>
       </c>
-      <c r="B165" s="3" t="s">
+    </row>
+    <row r="340" spans="1:1">
+      <c r="A340" s="10" t="s">
         <v>490</v>
       </c>
-      <c r="C165" s="3" t="s">
+    </row>
+    <row r="341" spans="1:1">
+      <c r="A341" s="10" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="166" ht="15" customHeight="1" spans="1:3">
-      <c r="A166" s="3" t="s">
+    <row r="342" spans="1:1">
+      <c r="A342" s="10" t="s">
         <v>492</v>
       </c>
-      <c r="B166" s="3" t="s">
+    </row>
+    <row r="343" ht="13.5" spans="1:1">
+      <c r="A343" s="10" t="s">
         <v>493</v>
       </c>
-      <c r="C166" s="3" t="s">
+    </row>
+    <row r="344" ht="14.25" spans="1:3">
+      <c r="A344" s="11" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="167" ht="15" customHeight="1" spans="1:3">
-      <c r="A167" s="3" t="s">
+      <c r="B344" s="8" t="s">
         <v>495</v>
       </c>
-      <c r="B167" s="3" t="s">
+      <c r="C344" s="8" t="s">
         <v>496</v>
       </c>
-      <c r="C167" s="3" t="s">
+    </row>
+    <row r="345" ht="14.25" spans="1:3">
+      <c r="A345" s="11" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="168" ht="15" customHeight="1" spans="1:3">
-      <c r="A168" s="3" t="s">
+      <c r="B345" s="8" t="s">
         <v>498</v>
       </c>
-      <c r="B168" s="3" t="s">
+      <c r="C345" s="8" t="s">
         <v>499</v>
       </c>
-      <c r="C168" s="3" t="s">
+    </row>
+    <row r="346" ht="14.25" spans="1:3">
+      <c r="A346" s="11" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="169" ht="15" customHeight="1" spans="1:3">
-      <c r="A169" s="3" t="s">
+      <c r="B346" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="B169" s="3" t="s">
+      <c r="C346" s="8" t="s">
         <v>502</v>
       </c>
-      <c r="C169" s="3" t="s">
+    </row>
+    <row r="347" ht="14.25" spans="1:3">
+      <c r="A347" s="11" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="170" ht="15" customHeight="1" spans="1:3">
-      <c r="A170" s="3" t="s">
+      <c r="B347" s="8" t="s">
         <v>504</v>
       </c>
-      <c r="B170" s="3" t="s">
+      <c r="C347" s="8" t="s">
         <v>505</v>
       </c>
-      <c r="C170" s="3" t="s">
+    </row>
+    <row r="348" ht="14.25" spans="1:3">
+      <c r="A348" s="11" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="171" ht="15" customHeight="1" spans="1:3">
-      <c r="A171" s="3" t="s">
+      <c r="B348" s="8" t="s">
         <v>507</v>
       </c>
-      <c r="B171" s="3" t="s">
+      <c r="C348" s="8" t="s">
         <v>508</v>
       </c>
-      <c r="C171" s="3" t="s">
+    </row>
+    <row r="349" ht="14.25" spans="1:3">
+      <c r="A349" s="11" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="172" ht="15" customHeight="1" spans="1:3">
-      <c r="A172" s="3" t="s">
+      <c r="B349" s="8" t="s">
         <v>510</v>
       </c>
-      <c r="B172" s="3" t="s">
+      <c r="C349" s="8" t="s">
         <v>511</v>
       </c>
-      <c r="C172" s="3" t="s">
+    </row>
+    <row r="350" ht="14.25" spans="1:3">
+      <c r="A350" s="11" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="173" ht="15" customHeight="1" spans="1:3">
-      <c r="A173" s="3" t="s">
+      <c r="B350" s="8" t="s">
         <v>513</v>
       </c>
-      <c r="B173" s="3" t="s">
+      <c r="C350" s="8" t="s">
         <v>514</v>
       </c>
-      <c r="C173" s="3" t="s">
+    </row>
+    <row r="351" ht="14.25" spans="1:3">
+      <c r="A351" s="11" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="174" ht="15" customHeight="1" spans="1:3">
-      <c r="A174" s="3" t="s">
+      <c r="B351" s="8" t="s">
         <v>516</v>
       </c>
-      <c r="B174" s="3" t="s">
+      <c r="C351" s="8" t="s">
         <v>517</v>
       </c>
-      <c r="C174" s="3" t="s">
+    </row>
+    <row r="352" ht="14.25" spans="1:3">
+      <c r="A352" s="11" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="175" ht="15" customHeight="1" spans="1:3">
-      <c r="A175" s="3" t="s">
+      <c r="B352" s="8" t="s">
         <v>519</v>
       </c>
-      <c r="B175" s="3" t="s">
+      <c r="C352" s="8" t="s">
         <v>520</v>
       </c>
-      <c r="C175" s="3" t="s">
+    </row>
+    <row r="353" ht="14.25" spans="1:3">
+      <c r="A353" s="11" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="176" ht="15" customHeight="1" spans="1:3">
-      <c r="A176" s="3" t="s">
+      <c r="B353" s="8" t="s">
         <v>522</v>
       </c>
-      <c r="B176" s="3" t="s">
+      <c r="C353" s="8" t="s">
         <v>523</v>
       </c>
-      <c r="C176" s="3" t="s">
+    </row>
+    <row r="354" ht="14.25" spans="1:3">
+      <c r="A354" s="11" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="177" ht="15" customHeight="1" spans="1:3">
-      <c r="A177" s="3" t="s">
+      <c r="B354" s="8" t="s">
         <v>525</v>
       </c>
-      <c r="B177" s="3" t="s">
+      <c r="C354" s="8" t="s">
         <v>526</v>
       </c>
-      <c r="C177" s="3" t="s">
+    </row>
+    <row r="355" ht="14.25" spans="1:3">
+      <c r="A355" s="11" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="178" ht="15" customHeight="1" spans="1:3">
-      <c r="A178" s="3" t="s">
+      <c r="B355" s="8" t="s">
         <v>528</v>
       </c>
-      <c r="B178" s="3" t="s">
+      <c r="C355" s="8" t="s">
         <v>529</v>
       </c>
-      <c r="C178" s="3" t="s">
+    </row>
+    <row r="356" ht="14.25" spans="1:3">
+      <c r="A356" s="11" t="s">
+        <v>527</v>
+      </c>
+      <c r="B356" s="8" t="s">
+        <v>528</v>
+      </c>
+      <c r="C356" s="8" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="179" ht="15" customHeight="1" spans="1:3">
-      <c r="A179" s="3" t="s">
+    <row r="357" ht="14.25" spans="1:3">
+      <c r="A357" s="11" t="s">
         <v>531</v>
       </c>
-      <c r="B179" s="3" t="s">
+      <c r="B357" s="8" t="s">
         <v>532</v>
       </c>
-      <c r="C179" s="3" t="s">
+      <c r="C357" s="8" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="180" ht="15" customHeight="1" spans="1:3">
-      <c r="A180" s="3" t="s">
+    <row r="358" ht="14.25" spans="1:3">
+      <c r="A358" s="11" t="s">
         <v>534</v>
       </c>
-      <c r="B180" s="3" t="s">
+      <c r="B358" s="8" t="s">
         <v>535</v>
       </c>
-      <c r="C180" s="3" t="s">
+      <c r="C358" s="8" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="181" ht="15" customHeight="1" spans="1:3">
-      <c r="A181" s="3" t="s">
+    <row r="359" ht="14.25" spans="1:3">
+      <c r="A359" s="11" t="s">
         <v>537</v>
       </c>
-      <c r="B181" s="3" t="s">
+      <c r="B359" s="8" t="s">
         <v>538</v>
       </c>
-      <c r="C181" s="3" t="s">
+      <c r="C359" s="8" t="s">
         <v>539</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:B181"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="12.75" outlineLevelCol="1"/>
-  <sheetData>
-    <row r="1" ht="13.5" spans="1:2">
-      <c r="A1" s="1" t="s">
+    <row r="360" ht="14.25" spans="1:3">
+      <c r="A360" s="11" t="s">
         <v>540</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B360" s="8" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="2" ht="13.5" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="C360" s="8" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="3" ht="13.5" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="4" ht="13.5" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="5" ht="13.5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="6" ht="13.5" spans="1:2">
-      <c r="A6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="7" ht="13.5" spans="1:2">
-      <c r="A7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="8" ht="13.5" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="9" ht="13.5" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="10" ht="13.5" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="11" ht="13.5" spans="1:2">
-      <c r="A11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="12" ht="13.5" spans="1:2">
-      <c r="A12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="13" ht="13.5" spans="1:2">
-      <c r="A13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="14" ht="13.5" spans="1:2">
-      <c r="A14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="15" ht="13.5" spans="1:2">
-      <c r="A15" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="16" ht="13.5" spans="1:2">
-      <c r="A16" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="17" ht="13.5" spans="1:2">
-      <c r="A17" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="18" ht="13.5" spans="1:2">
-      <c r="A18" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="19" ht="13.5" spans="1:2">
-      <c r="A19" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="20" ht="13.5" spans="1:2">
-      <c r="A20" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="21" ht="13.5" spans="1:2">
-      <c r="A21" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="22" ht="13.5" spans="1:2">
-      <c r="A22" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="23" ht="13.5" spans="1:2">
-      <c r="A23" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="24" ht="13.5" spans="1:2">
-      <c r="A24" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="25" ht="13.5" spans="1:2">
-      <c r="A25" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="26" ht="13.5" spans="1:2">
-      <c r="A26" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="27" ht="13.5" spans="1:2">
-      <c r="A27" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="28" ht="13.5" spans="1:2">
-      <c r="A28" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="29" ht="13.5" spans="1:2">
-      <c r="A29" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="30" ht="13.5" spans="1:2">
-      <c r="A30" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="31" ht="13.5" spans="1:2">
-      <c r="A31" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="32" ht="13.5" spans="1:2">
-      <c r="A32" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="33" ht="13.5" spans="1:2">
-      <c r="A33" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="34" ht="13.5" spans="1:2">
-      <c r="A34" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="35" ht="13.5" spans="1:2">
-      <c r="A35" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="36" ht="13.5" spans="1:2">
-      <c r="A36" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="37" ht="13.5" spans="1:2">
-      <c r="A37" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="38" ht="13.5" spans="1:2">
-      <c r="A38" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="39" ht="13.5" spans="1:2">
-      <c r="A39" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="40" ht="13.5" spans="1:2">
-      <c r="A40" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="41" ht="13.5" spans="1:2">
-      <c r="A41" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="42" ht="13.5" spans="1:2">
-      <c r="A42" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="43" ht="13.5" spans="1:2">
-      <c r="A43" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="44" ht="13.5" spans="1:2">
-      <c r="A44" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="45" ht="13.5" spans="1:2">
-      <c r="A45" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="46" ht="13.5" spans="1:2">
-      <c r="A46" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="47" ht="13.5" spans="1:2">
-      <c r="A47" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="48" ht="13.5" spans="1:2">
-      <c r="A48" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="49" ht="13.5" spans="1:2">
-      <c r="A49" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="50" ht="13.5" spans="1:2">
-      <c r="A50" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="51" ht="13.5" spans="1:2">
-      <c r="A51" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="52" ht="13.5" spans="1:2">
-      <c r="A52" s="1" t="s">
+    <row r="361" ht="14.25" spans="1:3">
+      <c r="A361" s="11" t="s">
         <v>543</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="53" ht="13.5" spans="1:2">
-      <c r="A53" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="54" ht="13.5" spans="1:2">
-      <c r="A54" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="55" ht="13.5" spans="1:2">
-      <c r="A55" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="56" ht="13.5" spans="1:2">
-      <c r="A56" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="57" ht="13.5" spans="1:2">
-      <c r="A57" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="58" ht="13.5" spans="1:2">
-      <c r="A58" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="59" ht="13.5" spans="1:2">
-      <c r="A59" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="60" ht="13.5" spans="1:2">
-      <c r="A60" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="61" ht="13.5" spans="1:2">
-      <c r="A61" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="62" ht="13.5" spans="1:2">
-      <c r="A62" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="63" ht="13.5" spans="1:2">
-      <c r="A63" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="64" ht="13.5" spans="1:2">
-      <c r="A64" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="65" ht="13.5" spans="1:2">
-      <c r="A65" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="66" ht="13.5" spans="1:2">
-      <c r="A66" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="67" ht="13.5" spans="1:2">
-      <c r="A67" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="68" ht="13.5" spans="1:2">
-      <c r="A68" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="69" ht="13.5" spans="1:2">
-      <c r="A69" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="70" ht="13.5" spans="1:2">
-      <c r="A70" s="1" t="s">
+      <c r="B361" s="8" t="s">
         <v>544</v>
       </c>
-      <c r="B70" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="71" ht="13.5" spans="1:2">
-      <c r="A71" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="72" ht="13.5" spans="1:2">
-      <c r="A72" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="73" ht="13.5" spans="1:2">
-      <c r="A73" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="74" ht="13.5" spans="1:2">
-      <c r="A74" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="75" ht="13.5" spans="1:2">
-      <c r="A75" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="76" ht="13.5" spans="1:2">
-      <c r="A76" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="77" ht="13.5" spans="1:2">
-      <c r="A77" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="78" ht="13.5" spans="1:2">
-      <c r="A78" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="79" ht="13.5" spans="1:2">
-      <c r="A79" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="80" ht="13.5" spans="1:2">
-      <c r="A80" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="81" ht="13.5" spans="1:2">
-      <c r="A81" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="82" ht="13.5" spans="1:2">
-      <c r="A82" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="83" ht="13.5" spans="1:2">
-      <c r="A83" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="84" ht="13.5" spans="1:2">
-      <c r="A84" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="85" ht="13.5" spans="1:2">
-      <c r="A85" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="86" ht="13.5" spans="1:2">
-      <c r="A86" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="87" ht="13.5" spans="1:2">
-      <c r="A87" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="88" ht="13.5" spans="1:2">
-      <c r="A88" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="89" ht="13.5" spans="1:2">
-      <c r="A89" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="90" ht="13.5" spans="1:2">
-      <c r="A90" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="91" ht="13.5" spans="1:2">
-      <c r="A91" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="92" ht="13.5" spans="1:2">
-      <c r="A92" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="93" ht="13.5" spans="1:2">
-      <c r="A93" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="94" ht="13.5" spans="1:2">
-      <c r="A94" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="95" ht="13.5" spans="1:2">
-      <c r="A95" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="96" ht="13.5" spans="1:2">
-      <c r="A96" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="97" ht="13.5" spans="1:2">
-      <c r="A97" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="98" ht="13.5" spans="1:2">
-      <c r="A98" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="99" ht="13.5" spans="1:2">
-      <c r="A99" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="100" ht="13.5" spans="1:2">
-      <c r="A100" s="1" t="s">
+      <c r="C361" s="8" t="s">
         <v>545</v>
       </c>
-      <c r="B100" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="101" ht="13.5" spans="1:2">
-      <c r="A101" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="102" ht="13.5" spans="1:2">
-      <c r="A102" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="103" ht="13.5" spans="1:2">
-      <c r="A103" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="104" ht="13.5" spans="1:2">
-      <c r="A104" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="105" ht="13.5" spans="1:2">
-      <c r="A105" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="106" ht="13.5" spans="1:2">
-      <c r="A106" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="107" ht="13.5" spans="1:2">
-      <c r="A107" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="108" ht="13.5" spans="1:2">
-      <c r="A108" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="109" ht="13.5" spans="1:2">
-      <c r="A109" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="110" ht="13.5" spans="1:2">
-      <c r="A110" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="111" ht="13.5" spans="1:2">
-      <c r="A111" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="112" ht="13.5" spans="1:2">
-      <c r="A112" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="113" ht="13.5" spans="1:2">
-      <c r="A113" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="114" ht="13.5" spans="1:2">
-      <c r="A114" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="115" ht="13.5" spans="1:2">
-      <c r="A115" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="116" ht="13.5" spans="1:2">
-      <c r="A116" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="117" ht="13.5" spans="1:2">
-      <c r="A117" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="118" ht="13.5" spans="1:2">
-      <c r="A118" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="119" ht="13.5" spans="1:2">
-      <c r="A119" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="120" ht="13.5" spans="1:2">
-      <c r="A120" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="121" ht="13.5" spans="1:2">
-      <c r="A121" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="122" ht="13.5" spans="1:2">
-      <c r="A122" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="123" ht="13.5" spans="1:2">
-      <c r="A123" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="124" ht="13.5" spans="1:2">
-      <c r="A124" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="125" ht="13.5" spans="1:2">
-      <c r="A125" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="126" ht="13.5" spans="1:2">
-      <c r="A126" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="127" ht="13.5" spans="1:2">
-      <c r="A127" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="128" ht="13.5" spans="1:2">
-      <c r="A128" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="129" ht="13.5" spans="1:2">
-      <c r="A129" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="130" ht="13.5" spans="1:2">
-      <c r="A130" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="131" ht="13.5" spans="1:2">
-      <c r="A131" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="132" ht="13.5" spans="1:2">
-      <c r="A132" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="133" ht="13.5" spans="1:2">
-      <c r="A133" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="134" ht="13.5" spans="1:2">
-      <c r="A134" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="135" ht="13.5" spans="1:2">
-      <c r="A135" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="136" ht="13.5" spans="1:2">
-      <c r="A136" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="137" ht="13.5" spans="1:2">
-      <c r="A137" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="138" ht="13.5" spans="1:2">
-      <c r="A138" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="139" ht="13.5" spans="1:2">
-      <c r="A139" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="140" ht="13.5" spans="1:2">
-      <c r="A140" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="141" ht="13.5" spans="1:2">
-      <c r="A141" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="142" ht="13.5" spans="1:2">
-      <c r="A142" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="143" ht="13.5" spans="1:2">
-      <c r="A143" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="144" ht="13.5" spans="1:2">
-      <c r="A144" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="145" ht="13.5" spans="1:2">
-      <c r="A145" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="146" ht="13.5" spans="1:2">
-      <c r="A146" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="147" ht="13.5" spans="1:2">
-      <c r="A147" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="148" ht="13.5" spans="1:2">
-      <c r="A148" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="149" ht="13.5" spans="1:2">
-      <c r="A149" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="150" ht="13.5" spans="1:2">
-      <c r="A150" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="151" ht="13.5" spans="1:2">
-      <c r="A151" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="152" ht="13.5" spans="1:2">
-      <c r="A152" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="153" ht="13.5" spans="1:2">
-      <c r="A153" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="154" ht="13.5" spans="1:2">
-      <c r="A154" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="B154" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="155" ht="13.5" spans="1:2">
-      <c r="A155" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="156" ht="13.5" spans="1:2">
-      <c r="A156" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="157" ht="13.5" spans="1:2">
-      <c r="A157" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="B157" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="158" ht="13.5" spans="1:2">
-      <c r="A158" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="B158" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="159" ht="13.5" spans="1:2">
-      <c r="A159" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="160" ht="13.5" spans="1:2">
-      <c r="A160" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="B160" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="161" ht="13.5" spans="1:2">
-      <c r="A161" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="B161" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="162" ht="13.5" spans="1:2">
-      <c r="A162" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="B162" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="163" ht="13.5" spans="1:2">
-      <c r="A163" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="B163" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="164" ht="13.5" spans="1:2">
-      <c r="A164" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="B164" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="165" ht="13.5" spans="1:2">
-      <c r="A165" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="B165" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="166" ht="13.5" spans="1:2">
-      <c r="A166" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="B166" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="167" ht="13.5" spans="1:2">
-      <c r="A167" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="B167" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="168" ht="13.5" spans="1:2">
-      <c r="A168" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="B168" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="169" ht="13.5" spans="1:2">
-      <c r="A169" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="B169" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="170" ht="13.5" spans="1:2">
-      <c r="A170" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="B170" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="171" ht="13.5" spans="1:2">
-      <c r="A171" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="B171" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="172" ht="13.5" spans="1:2">
-      <c r="A172" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="B172" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="173" ht="13.5" spans="1:2">
-      <c r="A173" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="B173" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="174" ht="13.5" spans="1:2">
-      <c r="A174" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="B174" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="175" ht="13.5" spans="1:2">
-      <c r="A175" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="B175" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="176" ht="13.5" spans="1:2">
-      <c r="A176" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="B176" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="177" ht="13.5" spans="1:2">
-      <c r="A177" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="B177" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="178" ht="13.5" spans="1:2">
-      <c r="A178" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="B178" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="179" ht="13.5" spans="1:2">
-      <c r="A179" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="B179" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="180" ht="13.5" spans="1:2">
-      <c r="A180" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="B180" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="181" ht="13.5" spans="1:2">
-      <c r="A181" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="B181" s="1" t="s">
-        <v>542</v>
+    </row>
+    <row r="362" ht="14.25" spans="1:3">
+      <c r="A362" s="11" t="s">
+        <v>546</v>
+      </c>
+      <c r="B362" s="8" t="s">
+        <v>547</v>
+      </c>
+      <c r="C362" s="8" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="363" ht="14.25" spans="1:3">
+      <c r="A363" s="11" t="s">
+        <v>549</v>
+      </c>
+      <c r="B363" s="8" t="s">
+        <v>550</v>
+      </c>
+      <c r="C363" s="8" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="364" ht="14.25" spans="1:3">
+      <c r="A364" s="11" t="s">
+        <v>552</v>
+      </c>
+      <c r="B364" s="8" t="s">
+        <v>553</v>
+      </c>
+      <c r="C364" s="8" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="365" ht="14.25" spans="1:3">
+      <c r="A365" s="11" t="s">
+        <v>555</v>
+      </c>
+      <c r="B365" s="8" t="s">
+        <v>556</v>
+      </c>
+      <c r="C365" s="8" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="366" ht="14.25" spans="1:3">
+      <c r="A366" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="B366" s="8" t="s">
+        <v>559</v>
+      </c>
+      <c r="C366" s="8" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="367" ht="14.25" spans="1:3">
+      <c r="A367" s="11" t="s">
+        <v>561</v>
+      </c>
+      <c r="B367" s="8" t="s">
+        <v>562</v>
+      </c>
+      <c r="C367" s="8" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="368" ht="14.25" spans="1:3">
+      <c r="A368" s="11" t="s">
+        <v>564</v>
+      </c>
+      <c r="B368" s="8" t="s">
+        <v>565</v>
+      </c>
+      <c r="C368" s="8" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="369" ht="14.25" spans="1:3">
+      <c r="A369" s="11" t="s">
+        <v>567</v>
+      </c>
+      <c r="B369" s="8" t="s">
+        <v>568</v>
+      </c>
+      <c r="C369" s="8" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="370" ht="14.25" spans="1:3">
+      <c r="A370" s="11" t="s">
+        <v>570</v>
+      </c>
+      <c r="B370" s="8" t="s">
+        <v>571</v>
+      </c>
+      <c r="C370" s="8" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="371" ht="14.25" spans="1:3">
+      <c r="A371" s="11" t="s">
+        <v>573</v>
+      </c>
+      <c r="B371" s="8" t="s">
+        <v>574</v>
+      </c>
+      <c r="C371" s="8" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="372" ht="14.25" spans="1:3">
+      <c r="A372" s="11" t="s">
+        <v>576</v>
+      </c>
+      <c r="B372" s="8" t="s">
+        <v>577</v>
+      </c>
+      <c r="C372" s="8" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="373" ht="14.25" spans="1:3">
+      <c r="A373" s="11" t="s">
+        <v>579</v>
+      </c>
+      <c r="B373" s="8" t="s">
+        <v>580</v>
+      </c>
+      <c r="C373" s="8" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="374" ht="14.25" spans="1:3">
+      <c r="A374" s="11" t="s">
+        <v>582</v>
+      </c>
+      <c r="B374" s="8" t="s">
+        <v>583</v>
+      </c>
+      <c r="C374" s="8" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="375" ht="14.25" spans="1:3">
+      <c r="A375" s="11" t="s">
+        <v>585</v>
+      </c>
+      <c r="B375" s="8" t="s">
+        <v>586</v>
+      </c>
+      <c r="C375" s="8" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="376" ht="14.25" spans="1:3">
+      <c r="A376" s="11" t="s">
+        <v>588</v>
+      </c>
+      <c r="B376" s="8" t="s">
+        <v>589</v>
+      </c>
+      <c r="C376" s="8" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="377" ht="14.25" spans="1:3">
+      <c r="A377" s="11" t="s">
+        <v>591</v>
+      </c>
+      <c r="B377" s="8" t="s">
+        <v>592</v>
+      </c>
+      <c r="C377" s="8" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="378" ht="14.25" spans="1:3">
+      <c r="A378" s="11" t="s">
+        <v>594</v>
+      </c>
+      <c r="B378" s="8" t="s">
+        <v>595</v>
+      </c>
+      <c r="C378" s="8" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="379" ht="14.25" spans="1:3">
+      <c r="A379" s="11" t="s">
+        <v>597</v>
+      </c>
+      <c r="B379" s="8" t="s">
+        <v>598</v>
+      </c>
+      <c r="C379" s="8" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="380" ht="14.25" spans="1:3">
+      <c r="A380" s="11" t="s">
+        <v>600</v>
+      </c>
+      <c r="B380" s="8" t="s">
+        <v>601</v>
+      </c>
+      <c r="C380" s="8" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="381" ht="14.25" spans="1:3">
+      <c r="A381" s="11" t="s">
+        <v>603</v>
+      </c>
+      <c r="B381" s="8" t="s">
+        <v>604</v>
+      </c>
+      <c r="C381" s="8" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="382" ht="14.25" spans="1:3">
+      <c r="A382" s="11" t="s">
+        <v>606</v>
+      </c>
+      <c r="B382" s="8" t="s">
+        <v>607</v>
+      </c>
+      <c r="C382" s="8" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="383" ht="14.25" spans="1:3">
+      <c r="A383" s="11" t="s">
+        <v>609</v>
+      </c>
+      <c r="B383" s="8" t="s">
+        <v>610</v>
+      </c>
+      <c r="C383" s="8" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="384" ht="14.25" spans="1:3">
+      <c r="A384" s="11" t="s">
+        <v>612</v>
+      </c>
+      <c r="B384" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="C384" s="8" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="385" ht="14.25" spans="1:3">
+      <c r="A385" s="11" t="s">
+        <v>615</v>
+      </c>
+      <c r="B385" s="8" t="s">
+        <v>616</v>
+      </c>
+      <c r="C385" s="8" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="386" ht="14.25" spans="1:3">
+      <c r="A386" s="11" t="s">
+        <v>618</v>
+      </c>
+      <c r="B386" s="8" t="s">
+        <v>619</v>
+      </c>
+      <c r="C386" s="8" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="387" ht="14.25" spans="1:3">
+      <c r="A387" s="11" t="s">
+        <v>621</v>
+      </c>
+      <c r="B387" s="8" t="s">
+        <v>622</v>
+      </c>
+      <c r="C387" s="8" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="388" ht="14.25" spans="1:3">
+      <c r="A388" s="11" t="s">
+        <v>624</v>
+      </c>
+      <c r="B388" s="8" t="s">
+        <v>625</v>
+      </c>
+      <c r="C388" s="8" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="389" ht="14.25" spans="1:3">
+      <c r="A389" s="11" t="s">
+        <v>627</v>
+      </c>
+      <c r="B389" s="8" t="s">
+        <v>628</v>
+      </c>
+      <c r="C389" s="8" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="390" ht="13.5" spans="1:1">
+      <c r="A390" s="10" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="391" ht="14.25" spans="1:3">
+      <c r="A391" s="11" t="s">
+        <v>631</v>
+      </c>
+      <c r="B391" s="8" t="s">
+        <v>632</v>
+      </c>
+      <c r="C391" s="8" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="392" ht="14.25" spans="1:3">
+      <c r="A392" s="11" t="s">
+        <v>634</v>
+      </c>
+      <c r="B392" s="8" t="s">
+        <v>635</v>
+      </c>
+      <c r="C392" s="8" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="393" ht="13.5" spans="1:1">
+      <c r="A393" s="10" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="394" ht="14.25" spans="1:3">
+      <c r="A394" s="11" t="s">
+        <v>638</v>
+      </c>
+      <c r="B394" s="8" t="s">
+        <v>639</v>
+      </c>
+      <c r="C394" s="8" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="395" ht="14.25" spans="1:3">
+      <c r="A395" s="11" t="s">
+        <v>641</v>
+      </c>
+      <c r="B395" s="8" t="s">
+        <v>642</v>
+      </c>
+      <c r="C395" s="8" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="396" ht="14.25" spans="1:3">
+      <c r="A396" s="11" t="s">
+        <v>644</v>
+      </c>
+      <c r="B396" s="8" t="s">
+        <v>645</v>
+      </c>
+      <c r="C396" s="8" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="397" ht="14.25" spans="1:3">
+      <c r="A397" s="11" t="s">
+        <v>647</v>
+      </c>
+      <c r="B397" s="8" t="s">
+        <v>648</v>
+      </c>
+      <c r="C397" s="8" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="398" ht="14.25" spans="1:3">
+      <c r="A398" s="11" t="s">
+        <v>650</v>
+      </c>
+      <c r="B398" s="8" t="s">
+        <v>651</v>
+      </c>
+      <c r="C398" s="8" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="399" ht="14.25" spans="1:3">
+      <c r="A399" s="11" t="s">
+        <v>653</v>
+      </c>
+      <c r="B399" s="8" t="s">
+        <v>654</v>
+      </c>
+      <c r="C399" s="8" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="400" ht="14.25" spans="1:3">
+      <c r="A400" s="11" t="s">
+        <v>656</v>
+      </c>
+      <c r="B400" s="8" t="s">
+        <v>657</v>
+      </c>
+      <c r="C400" s="8" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="401" ht="14.25" spans="1:3">
+      <c r="A401" s="11" t="s">
+        <v>659</v>
+      </c>
+      <c r="B401" s="8" t="s">
+        <v>660</v>
+      </c>
+      <c r="C401" s="8" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="402" ht="14.25" spans="1:3">
+      <c r="A402" s="11" t="s">
+        <v>662</v>
+      </c>
+      <c r="B402" s="8" t="s">
+        <v>663</v>
+      </c>
+      <c r="C402" s="8" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="403" ht="14.25" spans="1:3">
+      <c r="A403" s="11" t="s">
+        <v>665</v>
+      </c>
+      <c r="B403" s="8" t="s">
+        <v>666</v>
+      </c>
+      <c r="C403" s="8" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="404" ht="14.25" spans="1:3">
+      <c r="A404" s="11" t="s">
+        <v>668</v>
+      </c>
+      <c r="B404" s="8" t="s">
+        <v>669</v>
+      </c>
+      <c r="C404" s="8" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="405" ht="14.25" spans="1:3">
+      <c r="A405" s="11" t="s">
+        <v>671</v>
+      </c>
+      <c r="B405" s="8" t="s">
+        <v>672</v>
+      </c>
+      <c r="C405" s="8" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="406" ht="14.25" spans="1:3">
+      <c r="A406" s="11" t="s">
+        <v>674</v>
+      </c>
+      <c r="B406" s="8" t="s">
+        <v>675</v>
+      </c>
+      <c r="C406" s="8" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="407" ht="14.25" spans="1:3">
+      <c r="A407" s="11" t="s">
+        <v>677</v>
+      </c>
+      <c r="B407" s="8" t="s">
+        <v>678</v>
+      </c>
+      <c r="C407" s="8" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="408" ht="14.25" spans="1:3">
+      <c r="A408" s="11" t="s">
+        <v>680</v>
+      </c>
+      <c r="B408" s="8" t="s">
+        <v>681</v>
+      </c>
+      <c r="C408" s="8" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="409" ht="14.25" spans="1:3">
+      <c r="A409" s="11" t="s">
+        <v>683</v>
+      </c>
+      <c r="B409" s="8" t="s">
+        <v>684</v>
+      </c>
+      <c r="C409" s="8" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="410" ht="14.25" spans="1:3">
+      <c r="A410" s="11" t="s">
+        <v>686</v>
+      </c>
+      <c r="B410" s="8" t="s">
+        <v>687</v>
+      </c>
+      <c r="C410" s="8" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="411" ht="14.25" spans="1:3">
+      <c r="A411" s="11" t="s">
+        <v>689</v>
+      </c>
+      <c r="B411" s="8" t="s">
+        <v>690</v>
+      </c>
+      <c r="C411" s="8" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="412" ht="14.25" spans="1:3">
+      <c r="A412" s="11" t="s">
+        <v>692</v>
+      </c>
+      <c r="B412" s="8" t="s">
+        <v>693</v>
+      </c>
+      <c r="C412" s="8" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="413" ht="14.25" spans="1:3">
+      <c r="A413" s="11" t="s">
+        <v>695</v>
+      </c>
+      <c r="B413" s="8" t="s">
+        <v>696</v>
+      </c>
+      <c r="C413" s="8" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="414" ht="14.25" spans="1:3">
+      <c r="A414" s="11" t="s">
+        <v>698</v>
+      </c>
+      <c r="B414" s="8" t="s">
+        <v>699</v>
+      </c>
+      <c r="C414" s="8" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="415" ht="14.25" spans="1:3">
+      <c r="A415" s="11" t="s">
+        <v>701</v>
+      </c>
+      <c r="B415" s="8" t="s">
+        <v>702</v>
+      </c>
+      <c r="C415" s="8" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="416" ht="14.25" spans="1:3">
+      <c r="A416" s="11" t="s">
+        <v>704</v>
+      </c>
+      <c r="B416" s="8" t="s">
+        <v>705</v>
+      </c>
+      <c r="C416" s="8" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="417" ht="14.25" spans="1:3">
+      <c r="A417" s="11" t="s">
+        <v>707</v>
+      </c>
+      <c r="B417" s="8" t="s">
+        <v>708</v>
+      </c>
+      <c r="C417" s="8" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="418" ht="14.25" spans="1:3">
+      <c r="A418" s="11" t="s">
+        <v>710</v>
+      </c>
+      <c r="B418" s="8" t="s">
+        <v>711</v>
+      </c>
+      <c r="C418" s="8" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="419" ht="14.25" spans="1:3">
+      <c r="A419" s="11" t="s">
+        <v>713</v>
+      </c>
+      <c r="B419" s="8" t="s">
+        <v>714</v>
+      </c>
+      <c r="C419" s="8" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="420" ht="14.25" spans="1:3">
+      <c r="A420" s="11" t="s">
+        <v>716</v>
+      </c>
+      <c r="B420" s="8" t="s">
+        <v>717</v>
+      </c>
+      <c r="C420" s="8" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="421" ht="14.25" spans="1:3">
+      <c r="A421" s="11" t="s">
+        <v>719</v>
+      </c>
+      <c r="B421" s="8" t="s">
+        <v>720</v>
+      </c>
+      <c r="C421" s="8" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="422" ht="14.25" spans="1:3">
+      <c r="A422" s="11" t="s">
+        <v>722</v>
+      </c>
+      <c r="B422" s="8" t="s">
+        <v>723</v>
+      </c>
+      <c r="C422" s="8" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="423" ht="14.25" spans="1:3">
+      <c r="A423" s="11" t="s">
+        <v>725</v>
+      </c>
+      <c r="B423" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="C423" s="8" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="424" ht="14.25" spans="1:3">
+      <c r="A424" s="11" t="s">
+        <v>728</v>
+      </c>
+      <c r="B424" s="8" t="s">
+        <v>729</v>
+      </c>
+      <c r="C424" s="8" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="425" ht="14.25" spans="1:3">
+      <c r="A425" s="11" t="s">
+        <v>731</v>
+      </c>
+      <c r="B425" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="C425" s="8" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="426" ht="14.25" spans="1:3">
+      <c r="A426" s="11" t="s">
+        <v>734</v>
+      </c>
+      <c r="B426" s="8" t="s">
+        <v>735</v>
+      </c>
+      <c r="C426" s="8" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="427" ht="14.25" spans="1:3">
+      <c r="A427" s="11" t="s">
+        <v>737</v>
+      </c>
+      <c r="B427" s="8" t="s">
+        <v>738</v>
+      </c>
+      <c r="C427" s="8" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="428" ht="14.25" spans="1:3">
+      <c r="A428" s="11" t="s">
+        <v>740</v>
+      </c>
+      <c r="B428" s="8" t="s">
+        <v>741</v>
+      </c>
+      <c r="C428" s="8" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="429" ht="14.25" spans="1:3">
+      <c r="A429" s="11" t="s">
+        <v>743</v>
+      </c>
+      <c r="B429" s="8" t="s">
+        <v>744</v>
+      </c>
+      <c r="C429" s="8" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="430" ht="14.25" spans="1:3">
+      <c r="A430" s="11" t="s">
+        <v>746</v>
+      </c>
+      <c r="B430" s="8" t="s">
+        <v>747</v>
+      </c>
+      <c r="C430" s="8" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="431" ht="14.25" spans="1:3">
+      <c r="A431" s="11" t="s">
+        <v>749</v>
+      </c>
+      <c r="B431" s="8" t="s">
+        <v>750</v>
+      </c>
+      <c r="C431" s="8" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="432" ht="13.5" spans="1:1">
+      <c r="A432" s="10" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="433" ht="14.25" spans="1:3">
+      <c r="A433" s="11" t="s">
+        <v>753</v>
+      </c>
+      <c r="B433" s="8" t="s">
+        <v>754</v>
+      </c>
+      <c r="C433" s="8" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="434" ht="14.25" spans="1:3">
+      <c r="A434" s="11" t="s">
+        <v>756</v>
+      </c>
+      <c r="B434" s="8" t="s">
+        <v>757</v>
+      </c>
+      <c r="C434" s="8" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="435" ht="14.25" spans="1:3">
+      <c r="A435" s="11" t="s">
+        <v>759</v>
+      </c>
+      <c r="B435" s="8" t="s">
+        <v>759</v>
+      </c>
+      <c r="C435" s="8" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="436" ht="14.25" spans="1:3">
+      <c r="A436" s="11" t="s">
+        <v>761</v>
+      </c>
+      <c r="B436" s="8" t="s">
+        <v>762</v>
+      </c>
+      <c r="C436" s="8" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="437" ht="14.25" spans="1:3">
+      <c r="A437" s="11" t="s">
+        <v>764</v>
+      </c>
+      <c r="B437" s="8" t="s">
+        <v>765</v>
+      </c>
+      <c r="C437" s="8" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="438" ht="14.25" spans="1:3">
+      <c r="A438" s="11" t="s">
+        <v>767</v>
+      </c>
+      <c r="B438" s="8" t="s">
+        <v>768</v>
+      </c>
+      <c r="C438" s="8" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="439" ht="14.25" spans="1:3">
+      <c r="A439" s="11" t="s">
+        <v>770</v>
+      </c>
+      <c r="B439" s="8" t="s">
+        <v>771</v>
+      </c>
+      <c r="C439" s="8" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="440" ht="14.25" spans="1:3">
+      <c r="A440" s="11" t="s">
+        <v>773</v>
+      </c>
+      <c r="B440" s="8" t="s">
+        <v>774</v>
+      </c>
+      <c r="C440" s="8" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="441" ht="14.25" spans="1:3">
+      <c r="A441" s="11" t="s">
+        <v>776</v>
+      </c>
+      <c r="B441" s="8" t="s">
+        <v>777</v>
+      </c>
+      <c r="C441" s="8" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="442" ht="13.5" spans="1:1">
+      <c r="A442" s="10" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="443" ht="14.25" spans="1:3">
+      <c r="A443" s="11" t="s">
+        <v>780</v>
+      </c>
+      <c r="B443" s="8" t="s">
+        <v>781</v>
+      </c>
+      <c r="C443" s="8" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="444" ht="14.25" spans="1:3">
+      <c r="A444" s="11" t="s">
+        <v>783</v>
+      </c>
+      <c r="B444" s="8" t="s">
+        <v>784</v>
+      </c>
+      <c r="C444" s="8" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="445" ht="14.25" spans="1:3">
+      <c r="A445" s="11" t="s">
+        <v>786</v>
+      </c>
+      <c r="B445" s="8" t="s">
+        <v>787</v>
+      </c>
+      <c r="C445" s="8" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="446" ht="14.25" spans="1:3">
+      <c r="A446" s="11" t="s">
+        <v>789</v>
+      </c>
+      <c r="B446" s="8" t="s">
+        <v>790</v>
+      </c>
+      <c r="C446" s="8" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="447" ht="14.25" spans="1:3">
+      <c r="A447" s="11" t="s">
+        <v>792</v>
+      </c>
+      <c r="B447" s="8" t="s">
+        <v>793</v>
+      </c>
+      <c r="C447" s="8" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="448" ht="14.25" spans="1:3">
+      <c r="A448" s="11" t="s">
+        <v>795</v>
+      </c>
+      <c r="B448" s="8" t="s">
+        <v>796</v>
+      </c>
+      <c r="C448" s="8" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="449" ht="14.25" spans="1:3">
+      <c r="A449" s="11" t="s">
+        <v>798</v>
+      </c>
+      <c r="B449" s="8" t="s">
+        <v>799</v>
+      </c>
+      <c r="C449" s="8" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="450" ht="14.25" spans="1:3">
+      <c r="A450" s="11" t="s">
+        <v>801</v>
+      </c>
+      <c r="B450" s="8" t="s">
+        <v>802</v>
+      </c>
+      <c r="C450" s="8" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="451" ht="14.25" spans="1:3">
+      <c r="A451" s="11" t="s">
+        <v>804</v>
+      </c>
+      <c r="B451" s="8" t="s">
+        <v>805</v>
+      </c>
+      <c r="C451" s="8" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="452" ht="14.25" spans="1:3">
+      <c r="A452" s="11" t="s">
+        <v>807</v>
+      </c>
+      <c r="B452" s="8" t="s">
+        <v>808</v>
+      </c>
+      <c r="C452" s="8" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="453" ht="14.25" spans="1:3">
+      <c r="A453" s="11" t="s">
+        <v>810</v>
+      </c>
+      <c r="B453" s="8" t="s">
+        <v>811</v>
+      </c>
+      <c r="C453" s="8" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="454" ht="14.25" spans="1:3">
+      <c r="A454" s="11" t="s">
+        <v>813</v>
+      </c>
+      <c r="B454" s="8" t="s">
+        <v>814</v>
+      </c>
+      <c r="C454" s="8" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="455" ht="14.25" spans="1:3">
+      <c r="A455" s="11" t="s">
+        <v>816</v>
+      </c>
+      <c r="B455" s="8" t="s">
+        <v>817</v>
+      </c>
+      <c r="C455" s="8" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="456" ht="14.25" spans="1:3">
+      <c r="A456" s="11" t="s">
+        <v>819</v>
+      </c>
+      <c r="B456" s="8" t="s">
+        <v>820</v>
+      </c>
+      <c r="C456" s="8" t="s">
+        <v>821</v>
       </c>
     </row>
   </sheetData>

--- a/07_渗透测试字典/协议/协议清单.xlsx
+++ b/07_渗透测试字典/协议/协议清单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26640" windowHeight="13410"/>
+    <workbookView windowWidth="10908" windowHeight="8927"/>
   </bookViews>
   <sheets>
     <sheet name="协议清单" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="822">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="968">
   <si>
     <t>协议缩写</t>
   </si>
@@ -45,6 +45,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="helvetica"/>
+        <charset val="134"/>
+      </rPr>
       <t>3COM (</t>
     </r>
     <r>
@@ -82,7 +88,7 @@
     <t>Third Party Connect Protocol</t>
   </si>
   <si>
-    <t>第三方连接协议，用于建立两个网络实体间的连接。</t>
+    <t>第三方连接协议，用于建立两个网络实体间的连接</t>
   </si>
   <si>
     <t>ABIS</t>
@@ -121,7 +127,7 @@
     <t>Apple Filing Protocol</t>
   </si>
   <si>
-    <t>苹果文件协议，用于在网络中共享文件。</t>
+    <t>苹果文件协议，用于在网络中共享文件</t>
   </si>
   <si>
     <t>AN</t>
@@ -130,7 +136,7 @@
     <t>Active Networks</t>
   </si>
   <si>
-    <t>活跃网络，一种允许网络数据包携带可执行代码的技术。</t>
+    <t>活跃网络，一种允许网络数据包携带可执行代码的技术</t>
   </si>
   <si>
     <t>ANCP</t>
@@ -139,31 +145,61 @@
     <t>Access Node Control Protocol</t>
   </si>
   <si>
-    <t>接入节点控制协议，用于管理网络接入点。</t>
+    <t>接入节点控制协议，用于管理网络接入点</t>
   </si>
   <si>
     <t>AODV</t>
   </si>
   <si>
+    <t>Ad-hoc On-demand Distance Vector Routing</t>
+  </si>
+  <si>
+    <t>一种动态的、按需的、距离矢量路由协议，用于无线移动网络</t>
+  </si>
+  <si>
     <t>AOE</t>
   </si>
   <si>
+    <t>AoE (ATA over Ethernet)</t>
+  </si>
+  <si>
+    <t>一种通过以太网传输ATA硬盘数据的技术</t>
+  </si>
+  <si>
     <t>AOL</t>
   </si>
   <si>
+    <t>America Online</t>
+  </si>
+  <si>
+    <t>一个提供互联网服务的公司，也指其提供的即时通讯软件</t>
+  </si>
+  <si>
     <t>AP1394</t>
   </si>
   <si>
+    <t>Apple's IEEE 1394</t>
+  </si>
+  <si>
+    <t>苹果公司支持的IEEE 1394标准，也称为FireWire或i.Link</t>
+  </si>
+  <si>
     <t>ARCNET</t>
   </si>
   <si>
+    <t>Attached Resource Computer Network</t>
+  </si>
+  <si>
+    <t>一种局域网技术，使用令牌传递协议</t>
+  </si>
+  <si>
     <t>ARGUS</t>
   </si>
   <si>
     <t>ARGUS Internet Traffic Tap</t>
   </si>
   <si>
-    <t>ARGUS网络流量监听器，用于监控网络流量。</t>
+    <t>ARGUS网络流量监听器，用于监控网络流量</t>
   </si>
   <si>
     <t>ARIS</t>
@@ -172,7 +208,7 @@
     <t>Application-Layer Traffic Indexing Service</t>
   </si>
   <si>
-    <t>应用层流量索引服务，用于网络流量分析。</t>
+    <t>应用层流量索引服务，用于网络流量分析</t>
   </si>
   <si>
     <t>ARMAGETRONAD</t>
@@ -181,6 +217,12 @@
     <t>ARP</t>
   </si>
   <si>
+    <t>Address Resolution Protocol</t>
+  </si>
+  <si>
+    <t>用于将网络层地址（如IP地址）解析为数据链路层地址（如MAC地址）的协议</t>
+  </si>
+  <si>
     <t>ARUBA</t>
   </si>
   <si>
@@ -193,15 +235,53 @@
     <t>ASF</t>
   </si>
   <si>
+    <t>Advanced Systems Format</t>
+  </si>
+  <si>
+    <t>微软推出的一种多媒体容器格式</t>
+  </si>
+  <si>
     <t>ASTERIX</t>
   </si>
   <si>
     <t>ATALK</t>
   </si>
   <si>
+    <t>AppleTalk</t>
+  </si>
+  <si>
+    <r>
+      <t>苹果公司开发的网络协议套件，用于早期的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF060607"/>
+        <rFont val="helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Macintosh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF060607"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>计算机</t>
+    </r>
+  </si>
+  <si>
     <t>ATM</t>
   </si>
   <si>
+    <t>Asynchronous Transfer Mode</t>
+  </si>
+  <si>
+    <t>一种用于高速网络的数据传输技术</t>
+  </si>
+  <si>
     <t>ATMTCP</t>
   </si>
   <si>
@@ -232,24 +312,51 @@
     <t>BABEL</t>
   </si>
   <si>
+    <t>一种基于DSDV的路由协议，用于动态网络</t>
+  </si>
+  <si>
     <t>BACNET</t>
   </si>
   <si>
+    <t>Building Automation and Control Networks</t>
+  </si>
+  <si>
+    <t>用于建筑自动化和控制系统的通信协议</t>
+  </si>
+  <si>
     <t>BACP</t>
   </si>
   <si>
+    <t>Building Automation and Control Profiles</t>
+  </si>
+  <si>
+    <t>用于建筑自动化和控制系统的配置文件</t>
+  </si>
+  <si>
     <t>BANANA</t>
   </si>
   <si>
     <t>BAP</t>
   </si>
   <si>
+    <t>Bearer Independent Call Control Protocol</t>
+  </si>
+  <si>
+    <t>一种用于呼叫控制的协议</t>
+  </si>
+  <si>
     <t>BAT</t>
   </si>
   <si>
     <t>BATADV</t>
   </si>
   <si>
+    <t>B.A.T.M.A.N. Advanced</t>
+  </si>
+  <si>
+    <t>一种用于无线mesh网络的自组织网络协议</t>
+  </si>
+  <si>
     <t>BBN_RCC</t>
   </si>
   <si>
@@ -262,15 +369,39 @@
     <t>BCP</t>
   </si>
   <si>
+    <t>Bootstrap Configuration Protocol</t>
+  </si>
+  <si>
+    <t>一种用于网络设备启动时自动配置的协议</t>
+  </si>
+  <si>
     <t>BEEP</t>
   </si>
   <si>
+    <t>Blocks Extensible Exchange Protocol</t>
+  </si>
+  <si>
+    <t>一种用于构建异构网络应用程序的协议</t>
+  </si>
+  <si>
     <t>BER</t>
   </si>
   <si>
+    <t>Basic Encoding Rules</t>
+  </si>
+  <si>
+    <t>一种用于编码ASN.1数据类型的规则</t>
+  </si>
+  <si>
     <t>BFD</t>
   </si>
   <si>
+    <t>Bidirectional Forwarding Detection</t>
+  </si>
+  <si>
+    <t>一种用于检测网络链路故障的协议</t>
+  </si>
+  <si>
     <t>BGP</t>
   </si>
   <si>
@@ -283,9 +414,18 @@
     <t>BICC</t>
   </si>
   <si>
+    <t>Bearer Independent Call Control</t>
+  </si>
+  <si>
+    <t>一种用于呼叫控制的协议，独立于承载网络</t>
+  </si>
+  <si>
     <t>BITTORRENT</t>
   </si>
   <si>
+    <t>一种流行的点对点文件共享协议</t>
+  </si>
+  <si>
     <t>BJNP</t>
   </si>
   <si>
@@ -313,6 +453,12 @@
     <t>BPDU</t>
   </si>
   <si>
+    <t>Bridge Protocol Data Unit</t>
+  </si>
+  <si>
+    <t>用于生成树协议的数据单元</t>
+  </si>
+  <si>
     <t>BPQ</t>
   </si>
   <si>
@@ -334,72 +480,174 @@
     <t>BSSAP</t>
   </si>
   <si>
+    <t>Base Station System Application Part</t>
+  </si>
+  <si>
+    <t>用于GSM网络的基站系统应用部分</t>
+  </si>
+  <si>
     <t>BT</t>
   </si>
   <si>
+    <t>Bluetooth</t>
+  </si>
+  <si>
+    <t>一种短距离无线通信技术</t>
+  </si>
+  <si>
     <t>BT3DS</t>
   </si>
   <si>
     <t>BTA2DP</t>
   </si>
   <si>
+    <t>Bluetooth Advanced Audio Distribution Profile</t>
+  </si>
+  <si>
+    <t>蓝牙高级音频分发配置文件</t>
+  </si>
+  <si>
     <t>BTAMP</t>
   </si>
   <si>
     <t>BTATT</t>
   </si>
   <si>
+    <t>Bluetooth ATT (Attribute Protocol)</t>
+  </si>
+  <si>
+    <t>蓝牙属性协议</t>
+  </si>
+  <si>
     <t>BTAVCTP</t>
   </si>
   <si>
+    <t>Bluetooth AVCTP (Audio/Video Control Transport Protocol)</t>
+  </si>
+  <si>
+    <t>蓝牙音视频控制传输协议</t>
+  </si>
+  <si>
     <t>BTAVDTP</t>
   </si>
   <si>
+    <t>Bluetooth AVDTP (Audio/Video Distribution Transport Protocol)</t>
+  </si>
+  <si>
+    <t>蓝牙音视频分发传输协议</t>
+  </si>
+  <si>
     <t>BTAVRCP</t>
   </si>
   <si>
+    <t>Bluetooth AVRCP (Audio/Video Remote Control Profile)</t>
+  </si>
+  <si>
+    <t>蓝牙音视频远程控制配置文件</t>
+  </si>
+  <si>
     <t>BTBNEP</t>
   </si>
   <si>
+    <t>Bluetooth BNEP (Bluetooth Network Encapsulation Protocol)</t>
+  </si>
+  <si>
+    <t>蓝牙网络封装协议</t>
+  </si>
+  <si>
     <t>BTDUN</t>
   </si>
   <si>
+    <t>Bluetooth DUN (Dial-Up Networking)</t>
+  </si>
+  <si>
+    <t>蓝牙拨号网络</t>
+  </si>
+  <si>
     <t>BTGNSS</t>
   </si>
   <si>
     <t>BTHCI</t>
   </si>
   <si>
+    <t>Bluetooth HCI (Host Controller Interface)</t>
+  </si>
+  <si>
+    <t>蓝牙主机控制器接口</t>
+  </si>
+  <si>
     <t>BTHCRP</t>
   </si>
   <si>
     <t>BTHFP</t>
   </si>
   <si>
+    <t>Bluetooth HFP (Hands-Free Profile)</t>
+  </si>
+  <si>
+    <t>蓝牙免提配置文件</t>
+  </si>
+  <si>
     <t>BTHID</t>
   </si>
   <si>
+    <t>Bluetooth HID (Human Interface Device)</t>
+  </si>
+  <si>
+    <t>蓝牙人机接口设备</t>
+  </si>
+  <si>
     <t>BTMCAP</t>
   </si>
   <si>
     <t>BTOBEX</t>
   </si>
   <si>
+    <t>Bluetooth OBEX (Object Exchange)</t>
+  </si>
+  <si>
+    <t>蓝牙对象交换协议</t>
+  </si>
+  <si>
     <t>BTRFCOMM</t>
   </si>
   <si>
+    <t>Bluetooth RFCOMM (Radio Frequency Communication)</t>
+  </si>
+  <si>
+    <t>蓝牙无线频率通信协议</t>
+  </si>
+  <si>
     <t>BTSAP</t>
   </si>
   <si>
     <t>BTSDP</t>
   </si>
   <si>
+    <t>Bluetooth SDP (Service Discovery Protocol)</t>
+  </si>
+  <si>
+    <t>蓝牙服务发现协议</t>
+  </si>
+  <si>
     <t>BTSMP</t>
   </si>
   <si>
+    <t>Bluetooth SMP (Security Manager Protocol)</t>
+  </si>
+  <si>
+    <t>蓝牙安全管理协议</t>
+  </si>
+  <si>
     <t>BTSPP</t>
   </si>
   <si>
+    <t>Bluetooth SPP (Serial Port Profile)</t>
+  </si>
+  <si>
+    <t>蓝牙串行端口配置文件</t>
+  </si>
+  <si>
     <t>BTVDP</t>
   </si>
   <si>
@@ -430,15 +678,39 @@
     <t>CAP</t>
   </si>
   <si>
+    <t>Common Application Platform</t>
+  </si>
+  <si>
+    <t>一种用于电信网络的应用程序平台</t>
+  </si>
+  <si>
     <t>CAPWAP</t>
   </si>
   <si>
+    <t>Control and Provisioning of Wireless Access Points</t>
+  </si>
+  <si>
+    <t>用于无线接入点控制和配置的协议</t>
+  </si>
+  <si>
     <t>CARP</t>
   </si>
   <si>
+    <t>Common Address Redundancy Protocol</t>
+  </si>
+  <si>
+    <t>一种用于网络地址冗余的协议</t>
+  </si>
+  <si>
     <t>CAST</t>
   </si>
   <si>
+    <t>Core-based Tree</t>
+  </si>
+  <si>
+    <t>一种用于构建多播转发树的协议</t>
+  </si>
+  <si>
     <t>CATAPULT</t>
   </si>
   <si>
@@ -457,21 +729,48 @@
     <t>CCID</t>
   </si>
   <si>
+    <t>智能卡接口设备类</t>
+  </si>
+  <si>
     <t>CCP</t>
   </si>
   <si>
+    <t>Compression Control Protocol</t>
+  </si>
+  <si>
+    <t>用于PPP连接的数据压缩控制协议</t>
+  </si>
+  <si>
     <t>CDP</t>
   </si>
   <si>
+    <t>Cisco Discovery Protocol</t>
+  </si>
+  <si>
+    <t>思科发现协议，用于发现本地网络中的思科设备</t>
+  </si>
+  <si>
     <t>CDPCP</t>
   </si>
   <si>
     <t>CFM</t>
   </si>
   <si>
+    <t>Connectivity Fault Management</t>
+  </si>
+  <si>
+    <t>用于网络连接故障管理的协议</t>
+  </si>
+  <si>
     <t>CGMP</t>
   </si>
   <si>
+    <t>Cisco Group Management Protocol</t>
+  </si>
+  <si>
+    <t>思科组管理协议</t>
+  </si>
+  <si>
     <t>CHAOS</t>
   </si>
   <si>
@@ -484,15 +783,33 @@
     <t>CHAP</t>
   </si>
   <si>
+    <t>Challenge Handshake Authentication Protocol</t>
+  </si>
+  <si>
+    <t>一种用于验证远程用户身份的协议</t>
+  </si>
+  <si>
     <t>CHDLC</t>
   </si>
   <si>
+    <t>Cisco HDLC</t>
+  </si>
+  <si>
+    <t>思科版本的高级数据链路控制协议</t>
+  </si>
+  <si>
     <t>CIMETRICS</t>
   </si>
   <si>
     <t>CIP</t>
   </si>
   <si>
+    <t>Common Industrial Protocol</t>
+  </si>
+  <si>
+    <t>用于工业自动化的通用工业协议</t>
+  </si>
+  <si>
     <t>CIPSAFETY</t>
   </si>
   <si>
@@ -505,6 +822,12 @@
     <t>CLNP</t>
   </si>
   <si>
+    <t>Connectionless Network Protocol</t>
+  </si>
+  <si>
+    <t>一种无连接的网络层协议</t>
+  </si>
+  <si>
     <t>CMD</t>
   </si>
   <si>
@@ -514,6 +837,12 @@
     <t>CMPP</t>
   </si>
   <si>
+    <t>China Mobile Multimedia Messaging Service Protocol</t>
+  </si>
+  <si>
+    <t>中国移动多媒体消息服务协议</t>
+  </si>
+  <si>
     <t>CMTP</t>
   </si>
   <si>
@@ -529,6 +858,12 @@
     <t>COAP</t>
   </si>
   <si>
+    <t>Constrained Application Protocol</t>
+  </si>
+  <si>
+    <t>用于物联网设备的受限应用协议</t>
+  </si>
+  <si>
     <t>COLLECTD</t>
   </si>
   <si>
@@ -556,6 +891,12 @@
     <t>COPS</t>
   </si>
   <si>
+    <t>Common Open Policy Service</t>
+  </si>
+  <si>
+    <t>一种用于网络策略决策的协议</t>
+  </si>
+  <si>
     <t>CORBA</t>
   </si>
   <si>
@@ -622,24 +963,54 @@
     <t>CSM</t>
   </si>
   <si>
+    <t>Circuit Switched Multimedia</t>
+  </si>
+  <si>
+    <t>电路交换多媒体</t>
+  </si>
+  <si>
     <t>CUPS</t>
   </si>
   <si>
+    <t>Common Unix Printing System</t>
+  </si>
+  <si>
+    <t>一种用于Unix/Linux系统的打印服务</t>
+  </si>
+  <si>
     <t>CWIDS</t>
   </si>
   <si>
     <t>DAP</t>
   </si>
   <si>
+    <t>Directory Access Protocol</t>
+  </si>
+  <si>
+    <t>一种用于访问目录服务的协议</t>
+  </si>
+  <si>
     <t>DAYTIME</t>
   </si>
   <si>
+    <t>Daytime Protocol</t>
+  </si>
+  <si>
+    <t>一种简单的网络协议，用于获取服务器当前的日期和时间</t>
+  </si>
+  <si>
     <t>DB</t>
   </si>
   <si>
     <t>DBUS</t>
   </si>
   <si>
+    <t>D-Bus</t>
+  </si>
+  <si>
+    <t>一种用于进程间通信的机制</t>
+  </si>
+  <si>
     <t>DCCP</t>
   </si>
   <si>
@@ -673,6 +1044,12 @@
     <t>DCP</t>
   </si>
   <si>
+    <t>Dynamic Configuration Protocol</t>
+  </si>
+  <si>
+    <t>一种用于动态配置的协议</t>
+  </si>
+  <si>
     <t>DDP</t>
   </si>
   <si>
@@ -697,9 +1074,21 @@
     <t>DEC</t>
   </si>
   <si>
+    <t>Digital Equipment Corporation</t>
+  </si>
+  <si>
+    <t>一种早期的网络设备制造商</t>
+  </si>
+  <si>
     <t>DECT</t>
   </si>
   <si>
+    <t>Digital Enhanced Cordless Telecommunications</t>
+  </si>
+  <si>
+    <t>一种无线通信标准</t>
+  </si>
+  <si>
     <t>DGP</t>
   </si>
   <si>
@@ -742,9 +1131,21 @@
     <t>DISTCC</t>
   </si>
   <si>
+    <t>Distributed Compiler</t>
+  </si>
+  <si>
+    <t>一种用于分布式编译的系统</t>
+  </si>
+  <si>
     <t>DLM3</t>
   </si>
   <si>
+    <t>Distributed Network Protocol 3</t>
+  </si>
+  <si>
+    <t>一种用于工业控制网络的协议</t>
+  </si>
+  <si>
     <t>DLSW</t>
   </si>
   <si>
@@ -769,12 +1170,24 @@
     <t>DPNSS</t>
   </si>
   <si>
+    <t>Digital Private Network Signaling System</t>
+  </si>
+  <si>
+    <t>一种用于数字私有网络的信令系统</t>
+  </si>
+  <si>
     <t>DSI</t>
   </si>
   <si>
     <t>DSMCC</t>
   </si>
   <si>
+    <t>Digital Storage Media Command and Control</t>
+  </si>
+  <si>
+    <t>一种用于数字存储媒体的命令和控制协议</t>
+  </si>
+  <si>
     <t>DSP</t>
   </si>
   <si>
@@ -799,12 +1212,30 @@
     <t>DTCP</t>
   </si>
   <si>
+    <t>Dynamic Trunking Control Protocol</t>
+  </si>
+  <si>
+    <t>一种用于动态中继控制的协议</t>
+  </si>
+  <si>
     <t>DTLS</t>
   </si>
   <si>
+    <t>Datagram Transport Layer Security</t>
+  </si>
+  <si>
+    <t>一种用于数据报传输的安全层协议</t>
+  </si>
+  <si>
     <t>DTP</t>
   </si>
   <si>
+    <t>Dynamic Trunking Protocol</t>
+  </si>
+  <si>
+    <t>一种用于动态中继的协议</t>
+  </si>
+  <si>
     <t>DTPT</t>
   </si>
   <si>
@@ -814,21 +1245,48 @@
     <t>DVBCI</t>
   </si>
   <si>
+    <t>Digital Video Broadcasting - Cable Interface</t>
+  </si>
+  <si>
+    <t>一种用于有线电视的数字视频广播标准</t>
+  </si>
+  <si>
     <t>EAP</t>
   </si>
   <si>
+    <t>Extensible Authentication Protocol</t>
+  </si>
+  <si>
+    <t>一种用于网络认证的协议</t>
+  </si>
+  <si>
     <t>EAPOL</t>
   </si>
   <si>
+    <t>EAP over LAN</t>
+  </si>
+  <si>
+    <t>一种用于局域网的扩展认证协议</t>
+  </si>
+  <si>
     <t>ECHO</t>
   </si>
   <si>
+    <t>Echo Protocol</t>
+  </si>
+  <si>
+    <t>一种用于测试网络连接的协议</t>
+  </si>
+  <si>
     <t>ECP</t>
   </si>
   <si>
     <t>EDONKEY</t>
   </si>
   <si>
+    <t>一种基于P2P技术的文件共享网络</t>
+  </si>
+  <si>
     <t>EDP</t>
   </si>
   <si>
@@ -899,6 +1357,12 @@
   </si>
   <si>
     <t>EPMD</t>
+  </si>
+  <si>
+    <t>Erlang Port Mapper Daemon</t>
+  </si>
+  <si>
+    <t>用于Erlang分布式系统的端口映射守护进程</t>
   </si>
   <si>
     <t>ERF</t>
@@ -2534,7 +2998,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="28">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -2569,6 +3033,18 @@
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF060607"/>
+      <name val="helvetica"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF060607"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3065,28 +3541,19 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3095,122 +3562,131 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3227,13 +3703,14 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3598,15 +4075,15 @@
   </sheetPr>
   <dimension ref="A1:C456"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A234" workbookViewId="0">
+      <selection activeCell="B243" sqref="B243"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="12.75" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="13.2" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="22" style="1" customWidth="1"/>
-    <col min="2" max="2" width="105" customWidth="1"/>
-    <col min="3" max="3" width="77" customWidth="1"/>
+    <col min="2" max="2" width="54.3703703703704" customWidth="1"/>
+    <col min="3" max="3" width="30.8425925925926" customWidth="1"/>
     <col min="4" max="20" width="10" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3633,18 +4110,18 @@
       <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1" spans="1:3">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3663,7 +4140,7 @@
       <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="5" t="s">
@@ -3674,7 +4151,7 @@
       <c r="A7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="5" t="s">
@@ -3690,3317 +4167,3756 @@
       </c>
     </row>
     <row r="9" ht="15" customHeight="1" spans="1:3">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1" spans="1:3">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="7" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1" spans="1:3">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1" spans="1:1">
+    <row r="12" ht="15" customHeight="1" spans="1:3">
       <c r="A12" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="13" ht="15" customHeight="1" spans="1:1">
+      <c r="B12" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" ht="15" customHeight="1" spans="1:3">
       <c r="A13" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" ht="15" customHeight="1" spans="1:1">
+        <v>31</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1" spans="1:3">
       <c r="A14" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" ht="15" customHeight="1" spans="1:1">
+        <v>34</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1" spans="1:3">
       <c r="A15" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" ht="15" customHeight="1" spans="1:1">
+        <v>37</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="1" spans="1:3">
       <c r="A16" s="4" t="s">
-        <v>32</v>
+        <v>40</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1" spans="1:3">
-      <c r="A17" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>35</v>
+      <c r="A17" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1" spans="1:3">
-      <c r="A18" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>38</v>
+      <c r="A18" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1" spans="1:1">
       <c r="A19" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" ht="15" customHeight="1" spans="1:1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" ht="15" customHeight="1" spans="1:3">
       <c r="A20" s="4" t="s">
-        <v>40</v>
+        <v>50</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1" spans="1:1">
       <c r="A21" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" ht="15" customHeight="1" spans="1:1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" ht="15" customHeight="1" spans="1:2">
       <c r="A22" s="4" t="s">
-        <v>42</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="B22" s="8"/>
     </row>
     <row r="23" ht="15" customHeight="1" spans="1:1">
       <c r="A23" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" ht="15" customHeight="1" spans="1:1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" ht="15" customHeight="1" spans="1:3">
       <c r="A24" s="4" t="s">
-        <v>44</v>
+        <v>56</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1" spans="1:1">
       <c r="A25" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" ht="15" customHeight="1" spans="1:1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" ht="15" customHeight="1" spans="1:3">
       <c r="A26" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="27" ht="15" customHeight="1" spans="1:1">
+        <v>60</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" ht="15" customHeight="1" spans="1:3">
       <c r="A27" s="4" t="s">
-        <v>47</v>
+        <v>63</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="28" ht="15" customHeight="1" spans="1:1">
       <c r="A28" s="4" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" ht="15" customHeight="1" spans="1:1">
       <c r="A29" s="4" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" ht="15" customHeight="1" spans="1:3">
-      <c r="A30" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>52</v>
+      <c r="A30" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="31" ht="15" customHeight="1" spans="1:3">
-      <c r="A31" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>55</v>
+      <c r="A31" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1" spans="1:1">
       <c r="A32" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="33" ht="15" customHeight="1" spans="1:1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" ht="15" customHeight="1" spans="1:3">
       <c r="A33" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="34" ht="15" customHeight="1" spans="1:1">
+        <v>75</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" ht="15" customHeight="1" spans="1:3">
       <c r="A34" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="35" ht="15" customHeight="1" spans="1:1">
+        <v>77</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" ht="15" customHeight="1" spans="1:3">
       <c r="A35" s="4" t="s">
-        <v>59</v>
+        <v>80</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="36" ht="15" customHeight="1" spans="1:1">
       <c r="A36" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="37" ht="15" customHeight="1" spans="1:1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="37" ht="15" customHeight="1" spans="1:3">
       <c r="A37" s="4" t="s">
-        <v>61</v>
+        <v>84</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="38" ht="15" customHeight="1" spans="1:1">
       <c r="A38" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="39" ht="15" customHeight="1" spans="1:1">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="39" ht="15" customHeight="1" spans="1:3">
       <c r="A39" s="4" t="s">
-        <v>63</v>
+        <v>88</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="40" ht="15" customHeight="1" spans="1:3">
-      <c r="A40" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="41" ht="15" customHeight="1" spans="1:1">
+      <c r="A40" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="41" ht="15" customHeight="1" spans="1:3">
       <c r="A41" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="42" ht="15" customHeight="1" spans="1:1">
+        <v>94</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="42" ht="15" customHeight="1" spans="1:3">
       <c r="A42" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="43" ht="15" customHeight="1" spans="1:1">
+        <v>97</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="43" ht="15" customHeight="1" spans="1:3">
       <c r="A43" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="44" ht="15" customHeight="1" spans="1:1">
+        <v>100</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="44" ht="15" customHeight="1" spans="1:3">
       <c r="A44" s="4" t="s">
-        <v>70</v>
+        <v>103</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="45" ht="15" customHeight="1" spans="1:3">
-      <c r="A45" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="46" ht="15" customHeight="1" spans="1:1">
+      <c r="A45" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="46" ht="15" customHeight="1" spans="1:3">
       <c r="A46" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="47" ht="15" customHeight="1" spans="1:1">
+        <v>109</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="47" ht="15" customHeight="1" spans="1:3">
       <c r="A47" s="4" t="s">
-        <v>75</v>
+        <v>112</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="48" ht="15" customHeight="1" spans="1:1">
       <c r="A48" s="4" t="s">
-        <v>76</v>
+        <v>114</v>
       </c>
     </row>
     <row r="49" ht="15" customHeight="1" spans="1:3">
-      <c r="A49" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>79</v>
+      <c r="A49" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="50" ht="15" customHeight="1" spans="1:1">
       <c r="A50" s="4" t="s">
-        <v>80</v>
+        <v>118</v>
       </c>
     </row>
     <row r="51" ht="15" customHeight="1" spans="1:3">
-      <c r="A51" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="52" ht="15" customHeight="1" spans="1:1">
+      <c r="A51" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="52" ht="15" customHeight="1" spans="1:3">
       <c r="A52" s="4" t="s">
-        <v>84</v>
+        <v>122</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="53" ht="15" customHeight="1" spans="1:1">
       <c r="A53" s="4" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
     </row>
     <row r="54" ht="15" customHeight="1" spans="1:1">
       <c r="A54" s="4" t="s">
-        <v>86</v>
+        <v>126</v>
       </c>
     </row>
     <row r="55" ht="15" customHeight="1" spans="1:1">
       <c r="A55" s="4" t="s">
-        <v>87</v>
+        <v>127</v>
       </c>
     </row>
     <row r="56" ht="15" customHeight="1" spans="1:3">
-      <c r="A56" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="57" ht="15" customHeight="1" spans="1:1">
+      <c r="A56" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="57" ht="15" customHeight="1" spans="1:3">
       <c r="A57" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="58" ht="15" customHeight="1" spans="1:1">
+        <v>131</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="58" ht="15" customHeight="1" spans="1:3">
       <c r="A58" s="4" t="s">
-        <v>92</v>
+        <v>134</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="59" ht="15" customHeight="1" spans="1:1">
       <c r="A59" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="60" ht="15" customHeight="1" spans="1:1">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="60" ht="15" customHeight="1" spans="1:3">
       <c r="A60" s="4" t="s">
-        <v>94</v>
+        <v>138</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="61" ht="15" customHeight="1" spans="1:1">
       <c r="A61" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="62" ht="15" customHeight="1" spans="1:1">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="62" ht="15" customHeight="1" spans="1:3">
       <c r="A62" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="63" ht="15" customHeight="1" spans="1:1">
+        <v>142</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="63" ht="15" customHeight="1" spans="1:3">
       <c r="A63" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="64" ht="15" customHeight="1" spans="1:1">
+        <v>145</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="64" ht="15" customHeight="1" spans="1:3">
       <c r="A64" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="65" ht="15" customHeight="1" spans="1:1">
+        <v>148</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="65" ht="15" customHeight="1" spans="1:3">
       <c r="A65" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="66" ht="15" customHeight="1" spans="1:1">
+        <v>151</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="66" ht="15" customHeight="1" spans="1:3">
       <c r="A66" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="67" ht="15" customHeight="1" spans="1:1">
+        <v>154</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="67" ht="15" customHeight="1" spans="1:3">
       <c r="A67" s="4" t="s">
-        <v>101</v>
+        <v>157</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="68" ht="15" customHeight="1" spans="1:1">
       <c r="A68" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="69" ht="15" customHeight="1" spans="1:1">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="69" ht="15" customHeight="1" spans="1:3">
       <c r="A69" s="4" t="s">
-        <v>103</v>
+        <v>161</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="70" ht="15" customHeight="1" spans="1:1">
       <c r="A70" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="71" ht="15" customHeight="1" spans="1:1">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="71" ht="15" customHeight="1" spans="1:3">
       <c r="A71" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="72" ht="15" customHeight="1" spans="1:1">
+        <v>165</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="72" ht="15" customHeight="1" spans="1:3">
       <c r="A72" s="4" t="s">
-        <v>106</v>
+        <v>168</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="73" ht="15" customHeight="1" spans="1:1">
       <c r="A73" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="74" ht="15" customHeight="1" spans="1:1">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="74" ht="15" customHeight="1" spans="1:3">
       <c r="A74" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="75" ht="15" customHeight="1" spans="1:1">
+        <v>172</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="75" ht="15" customHeight="1" spans="1:3">
       <c r="A75" s="4" t="s">
-        <v>109</v>
+        <v>175</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="76" ht="15" customHeight="1" spans="1:1">
       <c r="A76" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="77" ht="15" customHeight="1" spans="1:1">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="77" ht="15" customHeight="1" spans="1:3">
       <c r="A77" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="78" ht="15" customHeight="1" spans="1:1">
+        <v>179</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="78" ht="15" customHeight="1" spans="1:3">
       <c r="A78" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="79" ht="15" customHeight="1" spans="1:1">
+        <v>182</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="79" ht="15" customHeight="1" spans="1:3">
       <c r="A79" s="4" t="s">
-        <v>113</v>
+        <v>185</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1" spans="1:1">
       <c r="A80" s="4" t="s">
-        <v>114</v>
+        <v>188</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1" spans="1:3">
-      <c r="A81" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="B81" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="C81" s="8" t="s">
-        <v>117</v>
+      <c r="A81" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1" spans="1:1">
       <c r="A82" s="4" t="s">
-        <v>118</v>
+        <v>192</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1" spans="1:1">
       <c r="A83" s="4" t="s">
-        <v>119</v>
+        <v>193</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1" spans="1:1">
       <c r="A84" s="4" t="s">
-        <v>120</v>
+        <v>194</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1" spans="1:1">
       <c r="A85" s="4" t="s">
-        <v>121</v>
+        <v>195</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1" spans="1:1">
       <c r="A86" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="87" ht="15" customHeight="1" spans="1:1">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="87" ht="15" customHeight="1" spans="1:3">
       <c r="A87" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="88" ht="15" customHeight="1" spans="1:1">
+        <v>197</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="88" ht="15" customHeight="1" spans="1:3">
       <c r="A88" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="89" ht="15" customHeight="1" spans="1:1">
+        <v>200</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="89" ht="15" customHeight="1" spans="1:3">
       <c r="A89" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="90" ht="15" customHeight="1" spans="1:1">
+        <v>203</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="90" ht="15" customHeight="1" spans="1:3">
       <c r="A90" s="4" t="s">
-        <v>126</v>
+        <v>206</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1" spans="1:1">
       <c r="A91" s="4" t="s">
-        <v>127</v>
+        <v>209</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1" spans="1:1">
       <c r="A92" s="4" t="s">
-        <v>128</v>
+        <v>210</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1" spans="1:3">
-      <c r="A93" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="B93" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="C93" s="8" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="94" ht="15" customHeight="1" spans="1:1">
+      <c r="A93" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="94" ht="15" customHeight="1" spans="1:3">
       <c r="A94" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="95" ht="15" customHeight="1" spans="1:1">
+        <v>214</v>
+      </c>
+      <c r="C94" s="8" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="95" ht="15" customHeight="1" spans="1:3">
       <c r="A95" s="4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="96" ht="15" customHeight="1" spans="1:1">
+        <v>216</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="C95" s="8" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="96" ht="15" customHeight="1" spans="1:3">
       <c r="A96" s="4" t="s">
-        <v>134</v>
+        <v>219</v>
+      </c>
+      <c r="B96" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="C96" s="8" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1" spans="1:1">
       <c r="A97" s="4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="98" ht="15" customHeight="1" spans="1:1">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="98" ht="15" customHeight="1" spans="1:3">
       <c r="A98" s="4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="99" ht="15" customHeight="1" spans="1:1">
+        <v>223</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="C98" s="8" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="99" ht="15" customHeight="1" spans="1:3">
       <c r="A99" s="4" t="s">
-        <v>137</v>
+        <v>226</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1" spans="1:3">
-      <c r="A100" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="B100" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="C100" s="8" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="101" ht="15" customHeight="1" spans="1:1">
+      <c r="A100" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="101" ht="15" customHeight="1" spans="1:3">
       <c r="A101" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="102" ht="15" customHeight="1" spans="1:1">
+        <v>232</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="C101" s="8" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="102" ht="15" customHeight="1" spans="1:3">
       <c r="A102" s="4" t="s">
-        <v>142</v>
+        <v>235</v>
+      </c>
+      <c r="B102" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="C102" s="8" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1" spans="1:1">
       <c r="A103" s="4" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="104" ht="15" customHeight="1" spans="1:1">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="104" ht="15" customHeight="1" spans="1:3">
       <c r="A104" s="4" t="s">
-        <v>144</v>
+        <v>239</v>
+      </c>
+      <c r="B104" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="C104" s="8" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1" spans="1:1">
       <c r="A105" s="4" t="s">
-        <v>145</v>
+        <v>242</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1" spans="1:1">
       <c r="A106" s="4" t="s">
-        <v>146</v>
+        <v>243</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1" spans="1:1">
       <c r="A107" s="4" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="108" ht="15" customHeight="1" spans="1:1">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="108" ht="15" customHeight="1" spans="1:3">
       <c r="A108" s="4" t="s">
-        <v>148</v>
+        <v>245</v>
+      </c>
+      <c r="B108" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="C108" s="8" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1" spans="1:1">
       <c r="A109" s="4" t="s">
-        <v>149</v>
+        <v>248</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1" spans="1:1">
       <c r="A110" s="4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="111" ht="15" customHeight="1" spans="1:1">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="111" ht="15" customHeight="1" spans="1:3">
       <c r="A111" s="4" t="s">
-        <v>151</v>
+        <v>250</v>
+      </c>
+      <c r="B111" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="C111" s="8" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1" spans="1:3">
-      <c r="A112" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="B112" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="C112" s="8" t="s">
-        <v>154</v>
+      <c r="A112" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1" spans="1:1">
       <c r="A113" s="4" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="114" ht="15" customHeight="1" spans="1:1">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="114" ht="15" customHeight="1" spans="1:3">
       <c r="A114" s="4" t="s">
-        <v>156</v>
+        <v>257</v>
+      </c>
+      <c r="B114" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="C114" s="8" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1" spans="1:3">
-      <c r="A115" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="B115" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="C115" s="8" t="s">
-        <v>159</v>
+      <c r="A115" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="C115" s="7" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1" spans="1:1">
       <c r="A116" s="4" t="s">
-        <v>160</v>
+        <v>263</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1" spans="1:3">
-      <c r="A117" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="B117" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="C117" s="8" t="s">
-        <v>163</v>
+      <c r="A117" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="B117" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="C117" s="7" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1" spans="1:1">
       <c r="A118" s="4" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="119" ht="15" customHeight="1" spans="1:1">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="119" ht="15" customHeight="1" spans="1:3">
       <c r="A119" s="4" t="s">
-        <v>165</v>
+        <v>268</v>
+      </c>
+      <c r="B119" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="C119" s="8" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1" spans="1:3">
-      <c r="A120" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="B120" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="C120" s="8" t="s">
-        <v>168</v>
+      <c r="A120" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="C120" s="7" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1" spans="1:1">
       <c r="A121" s="4" t="s">
-        <v>169</v>
+        <v>274</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1" spans="1:3">
-      <c r="A122" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="B122" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="C122" s="8" t="s">
-        <v>172</v>
+      <c r="A122" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="B122" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="C122" s="7" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1" spans="1:1">
       <c r="A123" s="4" t="s">
-        <v>173</v>
+        <v>278</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1" spans="1:1">
       <c r="A124" s="4" t="s">
-        <v>174</v>
+        <v>279</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1" spans="1:3">
-      <c r="A125" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="B125" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="C125" s="8" t="s">
-        <v>177</v>
+      <c r="A125" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="C125" s="7" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1" spans="1:3">
-      <c r="A126" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="B126" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="C126" s="8" t="s">
-        <v>180</v>
+      <c r="A126" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="B126" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="C126" s="7" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1" spans="1:3">
-      <c r="A127" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="B127" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="C127" s="8" t="s">
-        <v>183</v>
+      <c r="A127" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="C127" s="7" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1" spans="1:3">
-      <c r="A128" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="B128" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="C128" s="8" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="129" ht="15" customHeight="1" spans="1:1">
+      <c r="A128" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="B128" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="C128" s="7" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="129" ht="15" customHeight="1" spans="1:3">
       <c r="A129" s="4" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="130" ht="15" customHeight="1" spans="1:1">
+        <v>292</v>
+      </c>
+      <c r="B129" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="C129" s="8" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="130" ht="15" customHeight="1" spans="1:3">
       <c r="A130" s="4" t="s">
-        <v>188</v>
+        <v>295</v>
+      </c>
+      <c r="B130" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="C130" s="8" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1" spans="1:1">
       <c r="A131" s="4" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="132" ht="15" customHeight="1" spans="1:1">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="132" ht="15" customHeight="1" spans="1:3">
       <c r="A132" s="4" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="133" ht="15" customHeight="1" spans="1:1">
+        <v>299</v>
+      </c>
+      <c r="B132" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="C132" s="8" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="133" ht="15" customHeight="1" spans="1:3">
       <c r="A133" s="4" t="s">
-        <v>191</v>
+        <v>302</v>
+      </c>
+      <c r="B133" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="C133" s="8" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1" spans="1:1">
       <c r="A134" s="4" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="135" ht="15" customHeight="1" spans="1:1">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="135" ht="15" customHeight="1" spans="1:3">
       <c r="A135" s="4" t="s">
-        <v>193</v>
+        <v>306</v>
+      </c>
+      <c r="B135" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="C135" s="8" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1" spans="1:3">
-      <c r="A136" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="B136" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="C136" s="8" t="s">
-        <v>196</v>
+      <c r="A136" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="B136" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="C136" s="7" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1" spans="1:3">
-      <c r="A137" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="B137" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="C137" s="8" t="s">
-        <v>199</v>
+      <c r="A137" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="B137" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="C137" s="7" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1" spans="1:1">
       <c r="A138" s="4" t="s">
-        <v>200</v>
+        <v>315</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1" spans="1:3">
-      <c r="A139" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="B139" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="C139" s="8" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="140" ht="15" customHeight="1" spans="1:1">
+      <c r="A139" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="B139" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="C139" s="7" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="140" ht="15" customHeight="1" spans="1:3">
       <c r="A140" s="4" t="s">
-        <v>204</v>
+        <v>319</v>
+      </c>
+      <c r="B140" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="C140" s="8" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1" spans="1:3">
-      <c r="A141" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="B141" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="C141" s="8" t="s">
-        <v>207</v>
+      <c r="A141" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="B141" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="C141" s="7" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1" spans="1:1">
       <c r="A142" s="4" t="s">
-        <v>208</v>
+        <v>325</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1" spans="1:3">
-      <c r="A143" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="B143" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="C143" s="8" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="144" ht="15" customHeight="1" spans="1:1">
+      <c r="A143" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="B143" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="C143" s="7" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="144" ht="15" customHeight="1" spans="1:3">
       <c r="A144" s="4" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="145" ht="15" customHeight="1" spans="1:1">
+        <v>329</v>
+      </c>
+      <c r="B144" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="C144" s="8" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="145" ht="15" customHeight="1" spans="1:3">
       <c r="A145" s="4" t="s">
-        <v>213</v>
+        <v>332</v>
+      </c>
+      <c r="B145" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="C145" s="8" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1" spans="1:3">
-      <c r="A146" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="B146" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="C146" s="8" t="s">
-        <v>216</v>
+      <c r="A146" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="B146" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="C146" s="7" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1" spans="1:3">
-      <c r="A147" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="B147" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="C147" s="8" t="s">
-        <v>219</v>
+      <c r="A147" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="B147" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="C147" s="7" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1" spans="1:1">
       <c r="A148" s="4" t="s">
-        <v>220</v>
+        <v>341</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1" spans="1:3">
-      <c r="A149" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="B149" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="C149" s="8" t="s">
-        <v>223</v>
+      <c r="A149" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="B149" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="C149" s="7" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1" spans="1:1">
       <c r="A150" s="4" t="s">
-        <v>224</v>
+        <v>345</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1" spans="1:1">
       <c r="A151" s="4" t="s">
-        <v>225</v>
+        <v>346</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1" spans="1:1">
       <c r="A152" s="4" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="153" ht="15" customHeight="1" spans="1:1">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="153" ht="15" customHeight="1" spans="1:3">
       <c r="A153" s="4" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="154" ht="15" customHeight="1" spans="1:1">
+        <v>348</v>
+      </c>
+      <c r="B153" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="C153" s="8" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="154" ht="15" customHeight="1" spans="1:3">
       <c r="A154" s="4" t="s">
-        <v>228</v>
+        <v>351</v>
+      </c>
+      <c r="B154" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="C154" s="8" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1" spans="1:1">
       <c r="A155" s="4" t="s">
-        <v>229</v>
+        <v>354</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1" spans="1:1">
       <c r="A156" s="4" t="s">
-        <v>230</v>
+        <v>355</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1" spans="1:1">
       <c r="A157" s="4" t="s">
-        <v>231</v>
+        <v>356</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1" spans="1:3">
-      <c r="A158" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="B158" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="C158" s="8" t="s">
-        <v>234</v>
+      <c r="A158" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="B158" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="C158" s="7" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1" spans="1:1">
       <c r="A159" s="4" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="160" ht="15" customHeight="1" spans="1:1">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="160" ht="15" customHeight="1" spans="1:3">
       <c r="A160" s="4" t="s">
-        <v>236</v>
+        <v>361</v>
+      </c>
+      <c r="B160" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="C160" s="8" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1" spans="1:1">
       <c r="A161" s="4" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="162" ht="15" customHeight="1" spans="1:1">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="162" ht="15" customHeight="1" spans="1:3">
       <c r="A162" s="4" t="s">
-        <v>238</v>
+        <v>365</v>
+      </c>
+      <c r="B162" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="C162" s="8" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1" spans="1:1">
       <c r="A163" s="4" t="s">
-        <v>239</v>
+        <v>368</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1" spans="1:3">
-      <c r="A164" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="B164" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="C164" s="8" t="s">
-        <v>242</v>
+      <c r="A164" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="B164" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="C164" s="7" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1" spans="1:3">
-      <c r="A165" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="B165" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="C165" s="8" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="166" ht="15" customHeight="1" spans="1:1">
+      <c r="A165" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="B165" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="C165" s="7" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="166" ht="15" customHeight="1" spans="1:3">
       <c r="A166" s="4" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="167" ht="15" customHeight="1" spans="1:1">
+        <v>375</v>
+      </c>
+      <c r="B166" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="C166" s="8" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="167" ht="15" customHeight="1" spans="1:3">
       <c r="A167" s="4" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="168" ht="15" customHeight="1" spans="1:1">
+        <v>378</v>
+      </c>
+      <c r="B167" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="C167" s="8" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="168" ht="15" customHeight="1" spans="1:3">
       <c r="A168" s="4" t="s">
-        <v>248</v>
+        <v>381</v>
+      </c>
+      <c r="B168" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="C168" s="8" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1" spans="1:1">
       <c r="A169" s="4" t="s">
-        <v>249</v>
+        <v>384</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1" spans="1:1">
       <c r="A170" s="4" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="171" ht="15" customHeight="1" spans="1:1">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="171" ht="15" customHeight="1" spans="1:3">
       <c r="A171" s="4" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1">
-      <c r="A172" s="9" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1">
-      <c r="A173" s="10" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1">
-      <c r="A174" s="10" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1">
-      <c r="A175" s="10" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="176" spans="1:1">
-      <c r="A176" s="10" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1">
-      <c r="A177" s="10" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="178" ht="13.5" spans="1:1">
-      <c r="A178" s="10" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="179" ht="14.25" spans="1:3">
-      <c r="A179" s="11" t="s">
-        <v>259</v>
-      </c>
-      <c r="B179" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="C179" s="8" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="180" ht="14.25" spans="1:3">
-      <c r="A180" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="B180" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="C180" s="8" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1">
-      <c r="A181" s="10" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="182" ht="13.5" spans="1:1">
-      <c r="A182" s="10" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="183" ht="14.25" spans="1:3">
-      <c r="A183" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="B183" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="C183" s="8" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="184" ht="13.5" spans="1:1">
-      <c r="A184" s="10" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="185" ht="14.25" spans="1:3">
-      <c r="A185" s="11" t="s">
-        <v>271</v>
-      </c>
-      <c r="B185" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="C185" s="8" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="186" ht="14.25" spans="1:3">
-      <c r="A186" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="B186" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="C186" s="8" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="187" spans="1:1">
-      <c r="A187" s="10" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="188" spans="1:1">
-      <c r="A188" s="10" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1">
-      <c r="A189" s="10" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="190" spans="1:1">
-      <c r="A190" s="10" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="191" spans="1:1">
-      <c r="A191" s="10" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="192" spans="1:1">
-      <c r="A192" s="10" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="193" spans="1:1">
-      <c r="A193" s="10" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="194" spans="1:1">
-      <c r="A194" s="10" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1">
-      <c r="A195" s="10" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="196" ht="13.5" spans="1:1">
-      <c r="A196" s="10" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="197" ht="14.25" spans="1:3">
-      <c r="A197" s="11" t="s">
-        <v>287</v>
-      </c>
-      <c r="B197" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="C197" s="8" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="198" spans="1:1">
-      <c r="A198" s="10" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="199" spans="1:1">
-      <c r="A199" s="10" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="200" spans="1:1">
-      <c r="A200" s="10" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="201" spans="1:1">
-      <c r="A201" s="10" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="202" ht="13.5" spans="1:1">
-      <c r="A202" s="10" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="203" ht="14.25" spans="1:3">
-      <c r="A203" s="11" t="s">
-        <v>295</v>
-      </c>
-      <c r="B203" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="C203" s="8" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="204" spans="1:1">
-      <c r="A204" s="10" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="205" spans="1:1">
-      <c r="A205" s="10" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="206" spans="1:1">
-      <c r="A206" s="10" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="207" spans="1:1">
-      <c r="A207" s="10" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="208" spans="1:1">
-      <c r="A208" s="10" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="209" spans="1:1">
-      <c r="A209" s="10" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="210" spans="1:1">
-      <c r="A210" s="10" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="211" spans="1:1">
-      <c r="A211" s="10" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="212" spans="1:1">
-      <c r="A212" s="10" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="213" spans="1:1">
-      <c r="A213" s="10" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="214" spans="1:1">
-      <c r="A214" s="10" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="215" spans="1:1">
-      <c r="A215" s="10" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="216" spans="1:1">
-      <c r="A216" s="10" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="217" spans="1:1">
-      <c r="A217" s="10" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="218" spans="1:1">
-      <c r="A218" s="10" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="219" ht="13.5" spans="1:1">
-      <c r="A219" s="10" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="220" ht="14.25" spans="1:3">
-      <c r="A220" s="11" t="s">
-        <v>314</v>
-      </c>
-      <c r="B220" s="8" t="s">
-        <v>315</v>
-      </c>
-      <c r="C220" s="8" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="221" spans="1:1">
-      <c r="A221" s="10" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="222" spans="1:1">
-      <c r="A222" s="10" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="223" spans="1:1">
-      <c r="A223" s="10" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="224" spans="1:1">
-      <c r="A224" s="10" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="225" spans="1:1">
-      <c r="A225" s="10" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="226" ht="13.5" spans="1:1">
-      <c r="A226" s="10" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="227" ht="14.25" spans="1:3">
-      <c r="A227" s="11" t="s">
-        <v>323</v>
-      </c>
-      <c r="B227" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="C227" s="8" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="228" ht="14.25" spans="1:3">
-      <c r="A228" s="11" t="s">
-        <v>326</v>
-      </c>
-      <c r="B228" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="C228" s="8" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="229" spans="1:1">
-      <c r="A229" s="10" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="230" spans="1:1">
-      <c r="A230" s="10" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="231" spans="1:1">
-      <c r="A231" s="10" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="232" spans="1:1">
-      <c r="A232" s="10" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="233" ht="13.5" spans="1:1">
-      <c r="A233" s="10" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="234" ht="14.25" spans="1:3">
-      <c r="A234" s="11" t="s">
-        <v>334</v>
-      </c>
-      <c r="B234" s="8" t="s">
-        <v>335</v>
-      </c>
-      <c r="C234" s="8" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="235" spans="1:1">
-      <c r="A235" s="10" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="236" spans="1:1">
-      <c r="A236" s="10" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="237" spans="1:1">
-      <c r="A237" s="10" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="238" spans="1:1">
-      <c r="A238" s="10" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="239" ht="13.5" spans="1:1">
-      <c r="A239" s="10" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="240" ht="14.25" spans="1:3">
-      <c r="A240" s="11" t="s">
-        <v>342</v>
-      </c>
-      <c r="B240" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="C240" s="8" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="241" spans="1:1">
-      <c r="A241" s="10" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="242" spans="1:1">
-      <c r="A242" s="10" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="243" spans="1:1">
-      <c r="A243" s="10" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="244" spans="1:1">
-      <c r="A244" s="10" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="245" spans="1:1">
-      <c r="A245" s="10" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="246" spans="1:1">
-      <c r="A246" s="10" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="247" spans="1:1">
-      <c r="A247" s="10" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="248" spans="1:1">
-      <c r="A248" s="10" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="249" spans="1:1">
-      <c r="A249" s="10" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="250" spans="1:1">
-      <c r="A250" s="10" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="251" spans="1:1">
-      <c r="A251" s="10" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="252" spans="1:1">
-      <c r="A252" s="10" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="253" spans="1:1">
-      <c r="A253" s="10" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="254" spans="1:1">
-      <c r="A254" s="10" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="255" spans="1:1">
-      <c r="A255" s="10" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="256" spans="1:1">
-      <c r="A256" s="10" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="257" spans="1:1">
-      <c r="A257" s="10" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="258" spans="1:1">
-      <c r="A258" s="10" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="259" spans="1:1">
-      <c r="A259" s="10" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="260" spans="1:1">
-      <c r="A260" s="10" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="261" spans="1:1">
-      <c r="A261" s="10" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="262" ht="13.5" spans="1:1">
-      <c r="A262" s="10" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="263" ht="14.25" spans="1:3">
-      <c r="A263" s="11" t="s">
-        <v>367</v>
-      </c>
-      <c r="B263" s="8" t="s">
-        <v>368</v>
-      </c>
-      <c r="C263" s="8" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="264" ht="14.25" spans="1:3">
-      <c r="A264" s="11" t="s">
-        <v>370</v>
-      </c>
-      <c r="B264" s="8" t="s">
-        <v>371</v>
-      </c>
-      <c r="C264" s="8" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="265" spans="1:1">
-      <c r="A265" s="10" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="266" spans="1:1">
-      <c r="A266" s="10" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="267" spans="1:1">
-      <c r="A267" s="10" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="268" spans="1:1">
-      <c r="A268" s="10" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="269" spans="1:1">
-      <c r="A269" s="10" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="270" spans="1:1">
-      <c r="A270" s="10" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="271" ht="13.5" spans="1:1">
-      <c r="A271" s="10" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="272" ht="14.25" spans="1:3">
-      <c r="A272" s="11" t="s">
-        <v>380</v>
-      </c>
-      <c r="B272" s="8" t="s">
-        <v>381</v>
-      </c>
-      <c r="C272" s="8" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="273" ht="14.25" spans="1:3">
-      <c r="A273" s="11" t="s">
-        <v>383</v>
-      </c>
-      <c r="B273" s="8" t="s">
-        <v>384</v>
-      </c>
-      <c r="C273" s="8" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="274" spans="1:1">
-      <c r="A274" s="10" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="275" spans="1:1">
-      <c r="A275" s="10" t="s">
+      <c r="B171" s="8" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="276" ht="13.5" spans="1:1">
-      <c r="A276" s="10" t="s">
+      <c r="C171" s="8" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="277" ht="14.25" spans="1:3">
-      <c r="A277" s="11" t="s">
+    <row r="172" ht="14.55" spans="1:3">
+      <c r="A172" s="10" t="s">
         <v>389</v>
       </c>
-      <c r="B277" s="8" t="s">
+      <c r="B172" s="8" t="s">
         <v>390</v>
       </c>
-      <c r="C277" s="8" t="s">
+      <c r="C172" s="8" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="278" spans="1:1">
-      <c r="A278" s="10" t="s">
+    <row r="173" ht="14.55" spans="1:3">
+      <c r="A173" s="11" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="279" spans="1:1">
-      <c r="A279" s="10" t="s">
+      <c r="B173" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="280" spans="1:1">
-      <c r="A280" s="10" t="s">
+      <c r="C173" s="8" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="281" ht="13.5" spans="1:1">
-      <c r="A281" s="10" t="s">
+    <row r="174" ht="14.55" spans="1:3">
+      <c r="A174" s="11" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="282" ht="14.25" spans="1:3">
-      <c r="A282" s="11" t="s">
+      <c r="B174" s="8" t="s">
         <v>396</v>
       </c>
-      <c r="B282" s="8" t="s">
+      <c r="C174" s="8" t="s">
         <v>397</v>
       </c>
-      <c r="C282" s="8" t="s">
+    </row>
+    <row r="175" ht="13.95" spans="1:1">
+      <c r="A175" s="11" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="283" ht="14.25" spans="1:3">
-      <c r="A283" s="11" t="s">
+    <row r="176" ht="14.55" spans="1:3">
+      <c r="A176" s="11" t="s">
         <v>399</v>
       </c>
-      <c r="B283" s="8" t="s">
+      <c r="C176" s="8" t="s">
         <v>400</v>
       </c>
-      <c r="C283" s="8" t="s">
+    </row>
+    <row r="177" ht="13.95" spans="1:1">
+      <c r="A177" s="11" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="284" spans="1:1">
-      <c r="A284" s="10" t="s">
+    <row r="178" ht="13.95" spans="1:1">
+      <c r="A178" s="11" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="285" spans="1:1">
-      <c r="A285" s="10" t="s">
+    <row r="179" ht="14.55" spans="1:3">
+      <c r="A179" s="12" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="286" spans="1:1">
-      <c r="A286" s="10" t="s">
+      <c r="B179" s="7" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="287" ht="13.5" spans="1:1">
-      <c r="A287" s="10" t="s">
+      <c r="C179" s="7" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="288" ht="14.25" spans="1:3">
-      <c r="A288" s="11" t="s">
+    <row r="180" ht="14.55" spans="1:3">
+      <c r="A180" s="12" t="s">
         <v>406</v>
       </c>
-      <c r="B288" s="8" t="s">
+      <c r="B180" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="C288" s="8" t="s">
+      <c r="C180" s="7" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="289" ht="14.25" spans="1:3">
-      <c r="A289" s="11" t="s">
+    <row r="181" ht="13.95" spans="1:1">
+      <c r="A181" s="11" t="s">
         <v>409</v>
       </c>
-      <c r="B289" s="8" t="s">
+    </row>
+    <row r="182" ht="13.95" spans="1:1">
+      <c r="A182" s="11" t="s">
         <v>410</v>
       </c>
-      <c r="C289" s="8" t="s">
+    </row>
+    <row r="183" ht="14.55" spans="1:3">
+      <c r="A183" s="12" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="290" ht="14.25" spans="1:3">
-      <c r="A290" s="11" t="s">
+      <c r="B183" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="B290" s="8" t="s">
+      <c r="C183" s="7" t="s">
         <v>413</v>
       </c>
-      <c r="C290" s="8" t="s">
+    </row>
+    <row r="184" ht="13.95" spans="1:1">
+      <c r="A184" s="11" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="291" spans="1:1">
-      <c r="A291" s="10" t="s">
+    <row r="185" ht="14.55" spans="1:3">
+      <c r="A185" s="12" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="292" spans="1:1">
-      <c r="A292" s="10" t="s">
+      <c r="B185" s="7" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="293" spans="1:1">
-      <c r="A293" s="10" t="s">
+      <c r="C185" s="7" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="294" spans="1:1">
-      <c r="A294" s="10" t="s">
+    <row r="186" ht="14.55" spans="1:3">
+      <c r="A186" s="12" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="295" ht="13.5" spans="1:1">
-      <c r="A295" s="10" t="s">
+      <c r="B186" s="7" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="296" ht="14.25" spans="1:3">
-      <c r="A296" s="11" t="s">
+      <c r="C186" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="B296" s="8" t="s">
+    </row>
+    <row r="187" ht="13.95" spans="1:1">
+      <c r="A187" s="11" t="s">
         <v>421</v>
       </c>
-      <c r="C296" s="8" t="s">
+    </row>
+    <row r="188" ht="13.95" spans="1:1">
+      <c r="A188" s="11" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="297" ht="14.25" spans="1:3">
-      <c r="A297" s="11" t="s">
+    <row r="189" ht="13.95" spans="1:1">
+      <c r="A189" s="11" t="s">
         <v>423</v>
       </c>
-      <c r="B297" s="8" t="s">
+    </row>
+    <row r="190" ht="14.55" spans="1:3">
+      <c r="A190" s="11" t="s">
         <v>424</v>
       </c>
-      <c r="C297" s="8" t="s">
+      <c r="B190" s="8" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="298" ht="14.25" spans="1:3">
-      <c r="A298" s="11" t="s">
+      <c r="C190" s="8" t="s">
         <v>426</v>
       </c>
-      <c r="B298" s="8" t="s">
+    </row>
+    <row r="191" ht="13.95" spans="1:1">
+      <c r="A191" s="11" t="s">
         <v>427</v>
       </c>
-      <c r="C298" s="8" t="s">
+    </row>
+    <row r="192" ht="13.95" spans="1:1">
+      <c r="A192" s="11" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="299" ht="14.25" spans="1:3">
-      <c r="A299" s="11" t="s">
+    <row r="193" ht="13.95" spans="1:1">
+      <c r="A193" s="11" t="s">
         <v>429</v>
       </c>
-      <c r="B299" s="8" t="s">
+    </row>
+    <row r="194" ht="13.95" spans="1:1">
+      <c r="A194" s="11" t="s">
         <v>430</v>
       </c>
-      <c r="C299" s="8" t="s">
+    </row>
+    <row r="195" ht="13.95" spans="1:1">
+      <c r="A195" s="11" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="300" spans="1:1">
-      <c r="A300" s="10" t="s">
+    <row r="196" ht="13.95" spans="1:1">
+      <c r="A196" s="11" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="301" spans="1:1">
-      <c r="A301" s="10" t="s">
+    <row r="197" ht="14.55" spans="1:3">
+      <c r="A197" s="12" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="302" ht="13.5" spans="1:1">
-      <c r="A302" s="10" t="s">
+      <c r="B197" s="7" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="303" ht="14.25" spans="1:3">
-      <c r="A303" s="11" t="s">
+      <c r="C197" s="7" t="s">
         <v>435</v>
       </c>
-      <c r="B303" s="8" t="s">
+    </row>
+    <row r="198" ht="13.95" spans="1:1">
+      <c r="A198" s="11" t="s">
         <v>436</v>
       </c>
-      <c r="C303" s="8" t="s">
+    </row>
+    <row r="199" ht="13.95" spans="1:1">
+      <c r="A199" s="11" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="304" spans="1:1">
-      <c r="A304" s="10" t="s">
+    <row r="200" ht="13.95" spans="1:1">
+      <c r="A200" s="11" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="305" ht="13.5" spans="1:1">
-      <c r="A305" s="10" t="s">
+    <row r="201" ht="13.95" spans="1:1">
+      <c r="A201" s="11" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="306" ht="14.25" spans="1:3">
-      <c r="A306" s="11" t="s">
+    <row r="202" ht="13.95" spans="1:1">
+      <c r="A202" s="11" t="s">
         <v>440</v>
       </c>
-      <c r="B306" s="8" t="s">
+    </row>
+    <row r="203" ht="14.55" spans="1:3">
+      <c r="A203" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="C306" s="8" t="s">
+      <c r="B203" s="7" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="307" spans="1:1">
-      <c r="A307" s="10" t="s">
+      <c r="C203" s="7" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="308" spans="1:1">
-      <c r="A308" s="10" t="s">
+    <row r="204" ht="13.95" spans="1:1">
+      <c r="A204" s="11" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="309" ht="13.5" spans="1:1">
-      <c r="A309" s="10" t="s">
+    <row r="205" ht="13.95" spans="1:1">
+      <c r="A205" s="11" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="310" ht="14.25" spans="1:3">
-      <c r="A310" s="11" t="s">
+    <row r="206" ht="13.95" spans="1:1">
+      <c r="A206" s="11" t="s">
         <v>446</v>
       </c>
-      <c r="B310" s="8" t="s">
+    </row>
+    <row r="207" ht="13.95" spans="1:1">
+      <c r="A207" s="11" t="s">
         <v>447</v>
       </c>
-      <c r="C310" s="8" t="s">
+    </row>
+    <row r="208" ht="13.95" spans="1:1">
+      <c r="A208" s="11" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="311" ht="14.25" spans="1:3">
-      <c r="A311" s="11" t="s">
+    <row r="209" ht="13.95" spans="1:1">
+      <c r="A209" s="11" t="s">
         <v>449</v>
       </c>
-      <c r="B311" s="8" t="s">
+    </row>
+    <row r="210" ht="13.95" spans="1:1">
+      <c r="A210" s="11" t="s">
         <v>450</v>
       </c>
-      <c r="C311" s="8" t="s">
+    </row>
+    <row r="211" ht="13.95" spans="1:1">
+      <c r="A211" s="11" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="312" spans="1:1">
-      <c r="A312" s="10" t="s">
+    <row r="212" ht="13.95" spans="1:1">
+      <c r="A212" s="11" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="313" spans="1:1">
-      <c r="A313" s="10" t="s">
+    <row r="213" ht="13.95" spans="1:1">
+      <c r="A213" s="11" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="314" ht="13.5" spans="1:1">
-      <c r="A314" s="10" t="s">
+    <row r="214" ht="13.95" spans="1:1">
+      <c r="A214" s="11" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="315" ht="14.25" spans="1:3">
-      <c r="A315" s="11" t="s">
+    <row r="215" ht="13.95" spans="1:1">
+      <c r="A215" s="11" t="s">
         <v>455</v>
       </c>
-      <c r="B315" s="8" t="s">
+    </row>
+    <row r="216" ht="13.95" spans="1:1">
+      <c r="A216" s="11" t="s">
         <v>456</v>
       </c>
-      <c r="C315" s="8" t="s">
+    </row>
+    <row r="217" ht="13.95" spans="1:1">
+      <c r="A217" s="11" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="316" ht="14.25" spans="1:3">
-      <c r="A316" s="11" t="s">
+    <row r="218" ht="13.95" spans="1:1">
+      <c r="A218" s="11" t="s">
         <v>458</v>
       </c>
-      <c r="B316" s="8" t="s">
+    </row>
+    <row r="219" ht="13.95" spans="1:1">
+      <c r="A219" s="11" t="s">
         <v>459</v>
       </c>
-      <c r="C316" s="8" t="s">
+    </row>
+    <row r="220" ht="14.55" spans="1:3">
+      <c r="A220" s="12" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="317" ht="14.25" spans="1:3">
-      <c r="A317" s="11" t="s">
+      <c r="B220" s="7" t="s">
         <v>461</v>
       </c>
-      <c r="B317" s="8" t="s">
+      <c r="C220" s="7" t="s">
         <v>462</v>
       </c>
-      <c r="C317" s="8" t="s">
+    </row>
+    <row r="221" ht="13.95" spans="1:1">
+      <c r="A221" s="11" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="318" spans="1:1">
-      <c r="A318" s="10" t="s">
+    <row r="222" ht="13.95" spans="1:1">
+      <c r="A222" s="11" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="319" spans="1:1">
-      <c r="A319" s="10" t="s">
+    <row r="223" ht="13.95" spans="1:1">
+      <c r="A223" s="11" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="320" spans="1:1">
-      <c r="A320" s="10" t="s">
+    <row r="224" ht="13.95" spans="1:1">
+      <c r="A224" s="11" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="321" spans="1:1">
-      <c r="A321" s="10" t="s">
+    <row r="225" ht="13.95" spans="1:1">
+      <c r="A225" s="11" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="322" spans="1:1">
-      <c r="A322" s="10" t="s">
+    <row r="226" ht="13.95" spans="1:1">
+      <c r="A226" s="11" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="323" spans="1:1">
-      <c r="A323" s="10" t="s">
+    <row r="227" ht="14.55" spans="1:3">
+      <c r="A227" s="12" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="324" ht="13.5" spans="1:1">
-      <c r="A324" s="10" t="s">
+      <c r="B227" s="7" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="325" ht="14.25" spans="1:3">
-      <c r="A325" s="11" t="s">
+      <c r="C227" s="7" t="s">
         <v>471</v>
       </c>
-      <c r="B325" s="8" t="s">
+    </row>
+    <row r="228" ht="14.55" spans="1:3">
+      <c r="A228" s="12" t="s">
         <v>472</v>
       </c>
-      <c r="C325" s="8" t="s">
+      <c r="B228" s="7" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="326" spans="1:1">
-      <c r="A326" s="10" t="s">
+      <c r="C228" s="7" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="327" ht="13.5" spans="1:1">
-      <c r="A327" s="10" t="s">
+    <row r="229" ht="13.95" spans="1:1">
+      <c r="A229" s="11" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="328" ht="14.25" spans="1:3">
-      <c r="A328" s="11" t="s">
+    <row r="230" ht="13.95" spans="1:1">
+      <c r="A230" s="11" t="s">
         <v>476</v>
       </c>
-      <c r="B328" s="8" t="s">
+    </row>
+    <row r="231" ht="13.95" spans="1:1">
+      <c r="A231" s="11" t="s">
         <v>477</v>
       </c>
-      <c r="C328" s="8" t="s">
+    </row>
+    <row r="232" ht="13.95" spans="1:1">
+      <c r="A232" s="11" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="329" spans="1:1">
-      <c r="A329" s="10" t="s">
+    <row r="233" ht="13.95" spans="1:1">
+      <c r="A233" s="11" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="330" spans="1:1">
-      <c r="A330" s="10" t="s">
+    <row r="234" ht="14.55" spans="1:3">
+      <c r="A234" s="12" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="331" spans="1:1">
-      <c r="A331" s="10" t="s">
+      <c r="B234" s="7" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="332" spans="1:1">
-      <c r="A332" s="10" t="s">
+      <c r="C234" s="7" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="333" spans="1:1">
-      <c r="A333" s="10" t="s">
+    <row r="235" ht="13.95" spans="1:1">
+      <c r="A235" s="11" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="334" spans="1:1">
-      <c r="A334" s="10" t="s">
+    <row r="236" ht="13.95" spans="1:1">
+      <c r="A236" s="11" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="335" spans="1:1">
-      <c r="A335" s="10" t="s">
+    <row r="237" ht="13.95" spans="1:1">
+      <c r="A237" s="11" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="336" spans="1:1">
-      <c r="A336" s="10" t="s">
+    <row r="238" ht="13.95" spans="1:1">
+      <c r="A238" s="11" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="337" spans="1:1">
-      <c r="A337" s="10" t="s">
+    <row r="239" ht="13.95" spans="1:1">
+      <c r="A239" s="11" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="338" spans="1:1">
-      <c r="A338" s="10" t="s">
+    <row r="240" ht="14.55" spans="1:3">
+      <c r="A240" s="12" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="339" spans="1:1">
-      <c r="A339" s="10" t="s">
+      <c r="B240" s="7" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="340" spans="1:1">
-      <c r="A340" s="10" t="s">
+      <c r="C240" s="7" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="341" spans="1:1">
-      <c r="A341" s="10" t="s">
+    <row r="241" ht="13.95" spans="1:1">
+      <c r="A241" s="11" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="342" spans="1:1">
-      <c r="A342" s="10" t="s">
+    <row r="242" ht="13.95" spans="1:1">
+      <c r="A242" s="11" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="343" ht="13.5" spans="1:1">
-      <c r="A343" s="10" t="s">
+    <row r="243" ht="13.95" spans="1:1">
+      <c r="A243" s="11" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="344" ht="14.25" spans="1:3">
-      <c r="A344" s="11" t="s">
+    <row r="244" ht="13.95" spans="1:1">
+      <c r="A244" s="11" t="s">
         <v>494</v>
       </c>
-      <c r="B344" s="8" t="s">
+    </row>
+    <row r="245" ht="13.95" spans="1:1">
+      <c r="A245" s="11" t="s">
         <v>495</v>
       </c>
-      <c r="C344" s="8" t="s">
+    </row>
+    <row r="246" ht="13.95" spans="1:1">
+      <c r="A246" s="11" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="345" ht="14.25" spans="1:3">
-      <c r="A345" s="11" t="s">
+    <row r="247" ht="13.95" spans="1:1">
+      <c r="A247" s="11" t="s">
         <v>497</v>
       </c>
-      <c r="B345" s="8" t="s">
+    </row>
+    <row r="248" ht="13.95" spans="1:1">
+      <c r="A248" s="11" t="s">
         <v>498</v>
       </c>
-      <c r="C345" s="8" t="s">
+    </row>
+    <row r="249" ht="13.95" spans="1:1">
+      <c r="A249" s="11" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="346" ht="14.25" spans="1:3">
-      <c r="A346" s="11" t="s">
+    <row r="250" ht="13.95" spans="1:1">
+      <c r="A250" s="11" t="s">
         <v>500</v>
       </c>
-      <c r="B346" s="8" t="s">
+    </row>
+    <row r="251" ht="13.95" spans="1:1">
+      <c r="A251" s="11" t="s">
         <v>501</v>
       </c>
-      <c r="C346" s="8" t="s">
+    </row>
+    <row r="252" ht="13.95" spans="1:1">
+      <c r="A252" s="11" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="347" ht="14.25" spans="1:3">
-      <c r="A347" s="11" t="s">
+    <row r="253" ht="13.95" spans="1:1">
+      <c r="A253" s="11" t="s">
         <v>503</v>
       </c>
-      <c r="B347" s="8" t="s">
+    </row>
+    <row r="254" ht="13.95" spans="1:1">
+      <c r="A254" s="11" t="s">
         <v>504</v>
       </c>
-      <c r="C347" s="8" t="s">
+    </row>
+    <row r="255" ht="13.95" spans="1:1">
+      <c r="A255" s="11" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="348" ht="14.25" spans="1:3">
-      <c r="A348" s="11" t="s">
+    <row r="256" ht="13.95" spans="1:1">
+      <c r="A256" s="11" t="s">
         <v>506</v>
       </c>
-      <c r="B348" s="8" t="s">
+    </row>
+    <row r="257" ht="13.95" spans="1:1">
+      <c r="A257" s="11" t="s">
         <v>507</v>
       </c>
-      <c r="C348" s="8" t="s">
+    </row>
+    <row r="258" ht="13.95" spans="1:1">
+      <c r="A258" s="11" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="349" ht="14.25" spans="1:3">
-      <c r="A349" s="11" t="s">
+    <row r="259" ht="13.95" spans="1:1">
+      <c r="A259" s="11" t="s">
         <v>509</v>
       </c>
-      <c r="B349" s="8" t="s">
+    </row>
+    <row r="260" ht="13.95" spans="1:1">
+      <c r="A260" s="11" t="s">
         <v>510</v>
       </c>
-      <c r="C349" s="8" t="s">
+    </row>
+    <row r="261" ht="13.95" spans="1:1">
+      <c r="A261" s="11" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="350" ht="14.25" spans="1:3">
-      <c r="A350" s="11" t="s">
+    <row r="262" ht="13.95" spans="1:1">
+      <c r="A262" s="11" t="s">
         <v>512</v>
       </c>
-      <c r="B350" s="8" t="s">
+    </row>
+    <row r="263" ht="14.55" spans="1:3">
+      <c r="A263" s="12" t="s">
         <v>513</v>
       </c>
-      <c r="C350" s="8" t="s">
+      <c r="B263" s="7" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="351" ht="14.25" spans="1:3">
-      <c r="A351" s="11" t="s">
+      <c r="C263" s="7" t="s">
         <v>515</v>
       </c>
-      <c r="B351" s="8" t="s">
+    </row>
+    <row r="264" ht="14.55" spans="1:3">
+      <c r="A264" s="12" t="s">
         <v>516</v>
       </c>
-      <c r="C351" s="8" t="s">
+      <c r="B264" s="7" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="352" ht="14.25" spans="1:3">
-      <c r="A352" s="11" t="s">
+      <c r="C264" s="7" t="s">
         <v>518</v>
       </c>
-      <c r="B352" s="8" t="s">
+    </row>
+    <row r="265" ht="13.95" spans="1:1">
+      <c r="A265" s="11" t="s">
         <v>519</v>
       </c>
-      <c r="C352" s="8" t="s">
+    </row>
+    <row r="266" ht="13.95" spans="1:1">
+      <c r="A266" s="11" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="353" ht="14.25" spans="1:3">
-      <c r="A353" s="11" t="s">
+    <row r="267" ht="13.95" spans="1:1">
+      <c r="A267" s="11" t="s">
         <v>521</v>
       </c>
-      <c r="B353" s="8" t="s">
+    </row>
+    <row r="268" ht="13.95" spans="1:1">
+      <c r="A268" s="11" t="s">
         <v>522</v>
       </c>
-      <c r="C353" s="8" t="s">
+    </row>
+    <row r="269" ht="13.95" spans="1:1">
+      <c r="A269" s="11" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="354" ht="14.25" spans="1:3">
-      <c r="A354" s="11" t="s">
+    <row r="270" ht="13.95" spans="1:1">
+      <c r="A270" s="11" t="s">
         <v>524</v>
       </c>
-      <c r="B354" s="8" t="s">
+    </row>
+    <row r="271" ht="13.95" spans="1:1">
+      <c r="A271" s="11" t="s">
         <v>525</v>
       </c>
-      <c r="C354" s="8" t="s">
+    </row>
+    <row r="272" ht="14.55" spans="1:3">
+      <c r="A272" s="12" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="355" ht="14.25" spans="1:3">
-      <c r="A355" s="11" t="s">
+      <c r="B272" s="7" t="s">
         <v>527</v>
       </c>
-      <c r="B355" s="8" t="s">
+      <c r="C272" s="7" t="s">
         <v>528</v>
       </c>
-      <c r="C355" s="8" t="s">
+    </row>
+    <row r="273" ht="14.55" spans="1:3">
+      <c r="A273" s="12" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="356" ht="14.25" spans="1:3">
-      <c r="A356" s="11" t="s">
-        <v>527</v>
-      </c>
-      <c r="B356" s="8" t="s">
-        <v>528</v>
-      </c>
-      <c r="C356" s="8" t="s">
+      <c r="B273" s="7" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="357" ht="14.25" spans="1:3">
-      <c r="A357" s="11" t="s">
+      <c r="C273" s="7" t="s">
         <v>531</v>
       </c>
-      <c r="B357" s="8" t="s">
+    </row>
+    <row r="274" ht="13.95" spans="1:1">
+      <c r="A274" s="11" t="s">
         <v>532</v>
       </c>
-      <c r="C357" s="8" t="s">
+    </row>
+    <row r="275" ht="13.95" spans="1:1">
+      <c r="A275" s="11" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="358" ht="14.25" spans="1:3">
-      <c r="A358" s="11" t="s">
+    <row r="276" ht="13.95" spans="1:1">
+      <c r="A276" s="11" t="s">
         <v>534</v>
       </c>
-      <c r="B358" s="8" t="s">
+    </row>
+    <row r="277" ht="14.55" spans="1:3">
+      <c r="A277" s="12" t="s">
         <v>535</v>
       </c>
-      <c r="C358" s="8" t="s">
+      <c r="B277" s="7" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="359" ht="14.25" spans="1:3">
-      <c r="A359" s="11" t="s">
+      <c r="C277" s="7" t="s">
         <v>537</v>
       </c>
-      <c r="B359" s="8" t="s">
+    </row>
+    <row r="278" ht="13.95" spans="1:1">
+      <c r="A278" s="11" t="s">
         <v>538</v>
       </c>
-      <c r="C359" s="8" t="s">
+    </row>
+    <row r="279" ht="13.95" spans="1:1">
+      <c r="A279" s="11" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="360" ht="14.25" spans="1:3">
-      <c r="A360" s="11" t="s">
+    <row r="280" ht="13.95" spans="1:1">
+      <c r="A280" s="11" t="s">
         <v>540</v>
       </c>
-      <c r="B360" s="8" t="s">
+    </row>
+    <row r="281" ht="13.95" spans="1:1">
+      <c r="A281" s="11" t="s">
         <v>541</v>
       </c>
-      <c r="C360" s="8" t="s">
+    </row>
+    <row r="282" ht="14.55" spans="1:3">
+      <c r="A282" s="12" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="361" ht="14.25" spans="1:3">
-      <c r="A361" s="11" t="s">
+      <c r="B282" s="7" t="s">
         <v>543</v>
       </c>
-      <c r="B361" s="8" t="s">
+      <c r="C282" s="7" t="s">
         <v>544</v>
       </c>
-      <c r="C361" s="8" t="s">
+    </row>
+    <row r="283" ht="14.55" spans="1:3">
+      <c r="A283" s="12" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="362" ht="14.25" spans="1:3">
-      <c r="A362" s="11" t="s">
+      <c r="B283" s="7" t="s">
         <v>546</v>
       </c>
-      <c r="B362" s="8" t="s">
+      <c r="C283" s="7" t="s">
         <v>547</v>
       </c>
-      <c r="C362" s="8" t="s">
+    </row>
+    <row r="284" ht="13.95" spans="1:1">
+      <c r="A284" s="11" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="363" ht="14.25" spans="1:3">
-      <c r="A363" s="11" t="s">
+    <row r="285" ht="13.95" spans="1:1">
+      <c r="A285" s="11" t="s">
         <v>549</v>
       </c>
-      <c r="B363" s="8" t="s">
+    </row>
+    <row r="286" ht="13.95" spans="1:1">
+      <c r="A286" s="11" t="s">
         <v>550</v>
       </c>
-      <c r="C363" s="8" t="s">
+    </row>
+    <row r="287" ht="13.95" spans="1:1">
+      <c r="A287" s="11" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="364" ht="14.25" spans="1:3">
-      <c r="A364" s="11" t="s">
+    <row r="288" ht="14.55" spans="1:3">
+      <c r="A288" s="12" t="s">
         <v>552</v>
       </c>
-      <c r="B364" s="8" t="s">
+      <c r="B288" s="7" t="s">
         <v>553</v>
       </c>
-      <c r="C364" s="8" t="s">
+      <c r="C288" s="7" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="365" ht="14.25" spans="1:3">
-      <c r="A365" s="11" t="s">
+    <row r="289" ht="14.55" spans="1:3">
+      <c r="A289" s="12" t="s">
         <v>555</v>
       </c>
-      <c r="B365" s="8" t="s">
+      <c r="B289" s="7" t="s">
         <v>556</v>
       </c>
-      <c r="C365" s="8" t="s">
+      <c r="C289" s="7" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="366" ht="14.25" spans="1:3">
-      <c r="A366" s="11" t="s">
+    <row r="290" ht="14.55" spans="1:3">
+      <c r="A290" s="12" t="s">
         <v>558</v>
       </c>
-      <c r="B366" s="8" t="s">
+      <c r="B290" s="7" t="s">
         <v>559</v>
       </c>
-      <c r="C366" s="8" t="s">
+      <c r="C290" s="7" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="367" ht="14.25" spans="1:3">
-      <c r="A367" s="11" t="s">
+    <row r="291" ht="13.95" spans="1:1">
+      <c r="A291" s="11" t="s">
         <v>561</v>
       </c>
-      <c r="B367" s="8" t="s">
+    </row>
+    <row r="292" ht="13.95" spans="1:1">
+      <c r="A292" s="11" t="s">
         <v>562</v>
       </c>
-      <c r="C367" s="8" t="s">
+    </row>
+    <row r="293" ht="13.95" spans="1:1">
+      <c r="A293" s="11" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="368" ht="14.25" spans="1:3">
-      <c r="A368" s="11" t="s">
+    <row r="294" ht="13.95" spans="1:1">
+      <c r="A294" s="11" t="s">
         <v>564</v>
       </c>
-      <c r="B368" s="8" t="s">
+    </row>
+    <row r="295" ht="13.95" spans="1:1">
+      <c r="A295" s="11" t="s">
         <v>565</v>
       </c>
-      <c r="C368" s="8" t="s">
+    </row>
+    <row r="296" ht="14.55" spans="1:3">
+      <c r="A296" s="12" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="369" ht="14.25" spans="1:3">
-      <c r="A369" s="11" t="s">
+      <c r="B296" s="7" t="s">
         <v>567</v>
       </c>
-      <c r="B369" s="8" t="s">
+      <c r="C296" s="7" t="s">
         <v>568</v>
       </c>
-      <c r="C369" s="8" t="s">
+    </row>
+    <row r="297" ht="14.55" spans="1:3">
+      <c r="A297" s="12" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="370" ht="14.25" spans="1:3">
-      <c r="A370" s="11" t="s">
+      <c r="B297" s="7" t="s">
         <v>570</v>
       </c>
-      <c r="B370" s="8" t="s">
+      <c r="C297" s="7" t="s">
         <v>571</v>
       </c>
-      <c r="C370" s="8" t="s">
+    </row>
+    <row r="298" ht="14.55" spans="1:3">
+      <c r="A298" s="12" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="371" ht="14.25" spans="1:3">
-      <c r="A371" s="11" t="s">
+      <c r="B298" s="7" t="s">
         <v>573</v>
       </c>
-      <c r="B371" s="8" t="s">
+      <c r="C298" s="7" t="s">
         <v>574</v>
       </c>
-      <c r="C371" s="8" t="s">
+    </row>
+    <row r="299" ht="14.55" spans="1:3">
+      <c r="A299" s="12" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="372" ht="14.25" spans="1:3">
-      <c r="A372" s="11" t="s">
+      <c r="B299" s="7" t="s">
         <v>576</v>
       </c>
-      <c r="B372" s="8" t="s">
+      <c r="C299" s="7" t="s">
         <v>577</v>
       </c>
-      <c r="C372" s="8" t="s">
+    </row>
+    <row r="300" ht="13.95" spans="1:1">
+      <c r="A300" s="11" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="373" ht="14.25" spans="1:3">
-      <c r="A373" s="11" t="s">
+    <row r="301" ht="13.95" spans="1:1">
+      <c r="A301" s="11" t="s">
         <v>579</v>
       </c>
-      <c r="B373" s="8" t="s">
+    </row>
+    <row r="302" ht="13.95" spans="1:1">
+      <c r="A302" s="11" t="s">
         <v>580</v>
       </c>
-      <c r="C373" s="8" t="s">
+    </row>
+    <row r="303" ht="14.55" spans="1:3">
+      <c r="A303" s="12" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="374" ht="14.25" spans="1:3">
-      <c r="A374" s="11" t="s">
+      <c r="B303" s="7" t="s">
         <v>582</v>
       </c>
-      <c r="B374" s="8" t="s">
+      <c r="C303" s="7" t="s">
         <v>583</v>
       </c>
-      <c r="C374" s="8" t="s">
+    </row>
+    <row r="304" ht="13.95" spans="1:1">
+      <c r="A304" s="11" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="375" ht="14.25" spans="1:3">
-      <c r="A375" s="11" t="s">
+    <row r="305" ht="13.95" spans="1:1">
+      <c r="A305" s="11" t="s">
         <v>585</v>
       </c>
-      <c r="B375" s="8" t="s">
+    </row>
+    <row r="306" ht="14.55" spans="1:3">
+      <c r="A306" s="12" t="s">
         <v>586</v>
       </c>
-      <c r="C375" s="8" t="s">
+      <c r="B306" s="7" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="376" ht="14.25" spans="1:3">
-      <c r="A376" s="11" t="s">
+      <c r="C306" s="7" t="s">
         <v>588</v>
       </c>
-      <c r="B376" s="8" t="s">
+    </row>
+    <row r="307" ht="13.95" spans="1:1">
+      <c r="A307" s="11" t="s">
         <v>589</v>
       </c>
-      <c r="C376" s="8" t="s">
+    </row>
+    <row r="308" ht="13.95" spans="1:1">
+      <c r="A308" s="11" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="377" ht="14.25" spans="1:3">
-      <c r="A377" s="11" t="s">
+    <row r="309" ht="13.95" spans="1:1">
+      <c r="A309" s="11" t="s">
         <v>591</v>
       </c>
-      <c r="B377" s="8" t="s">
+    </row>
+    <row r="310" ht="14.55" spans="1:3">
+      <c r="A310" s="12" t="s">
         <v>592</v>
       </c>
-      <c r="C377" s="8" t="s">
+      <c r="B310" s="7" t="s">
         <v>593</v>
       </c>
-    </row>
-    <row r="378" ht="14.25" spans="1:3">
-      <c r="A378" s="11" t="s">
+      <c r="C310" s="7" t="s">
         <v>594</v>
       </c>
-      <c r="B378" s="8" t="s">
+    </row>
+    <row r="311" ht="14.55" spans="1:3">
+      <c r="A311" s="12" t="s">
         <v>595</v>
       </c>
-      <c r="C378" s="8" t="s">
+      <c r="B311" s="7" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="379" ht="14.25" spans="1:3">
-      <c r="A379" s="11" t="s">
+      <c r="C311" s="7" t="s">
         <v>597</v>
       </c>
-      <c r="B379" s="8" t="s">
+    </row>
+    <row r="312" ht="13.95" spans="1:1">
+      <c r="A312" s="11" t="s">
         <v>598</v>
       </c>
-      <c r="C379" s="8" t="s">
+    </row>
+    <row r="313" ht="13.95" spans="1:1">
+      <c r="A313" s="11" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="380" ht="14.25" spans="1:3">
-      <c r="A380" s="11" t="s">
+    <row r="314" ht="13.95" spans="1:1">
+      <c r="A314" s="11" t="s">
         <v>600</v>
       </c>
-      <c r="B380" s="8" t="s">
+    </row>
+    <row r="315" ht="14.55" spans="1:3">
+      <c r="A315" s="12" t="s">
         <v>601</v>
       </c>
-      <c r="C380" s="8" t="s">
+      <c r="B315" s="7" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="381" ht="14.25" spans="1:3">
-      <c r="A381" s="11" t="s">
+      <c r="C315" s="7" t="s">
         <v>603</v>
       </c>
-      <c r="B381" s="8" t="s">
+    </row>
+    <row r="316" ht="14.55" spans="1:3">
+      <c r="A316" s="12" t="s">
         <v>604</v>
       </c>
-      <c r="C381" s="8" t="s">
+      <c r="B316" s="7" t="s">
         <v>605</v>
       </c>
-    </row>
-    <row r="382" ht="14.25" spans="1:3">
-      <c r="A382" s="11" t="s">
+      <c r="C316" s="7" t="s">
         <v>606</v>
       </c>
-      <c r="B382" s="8" t="s">
+    </row>
+    <row r="317" ht="14.55" spans="1:3">
+      <c r="A317" s="12" t="s">
         <v>607</v>
       </c>
-      <c r="C382" s="8" t="s">
+      <c r="B317" s="7" t="s">
         <v>608</v>
       </c>
-    </row>
-    <row r="383" ht="14.25" spans="1:3">
-      <c r="A383" s="11" t="s">
+      <c r="C317" s="7" t="s">
         <v>609</v>
       </c>
-      <c r="B383" s="8" t="s">
+    </row>
+    <row r="318" ht="13.95" spans="1:1">
+      <c r="A318" s="11" t="s">
         <v>610</v>
       </c>
-      <c r="C383" s="8" t="s">
+    </row>
+    <row r="319" ht="13.95" spans="1:1">
+      <c r="A319" s="11" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="384" ht="14.25" spans="1:3">
-      <c r="A384" s="11" t="s">
+    <row r="320" ht="13.95" spans="1:1">
+      <c r="A320" s="11" t="s">
         <v>612</v>
       </c>
-      <c r="B384" s="8" t="s">
+    </row>
+    <row r="321" ht="13.95" spans="1:1">
+      <c r="A321" s="11" t="s">
         <v>613</v>
       </c>
-      <c r="C384" s="8" t="s">
+    </row>
+    <row r="322" ht="13.95" spans="1:1">
+      <c r="A322" s="11" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="385" ht="14.25" spans="1:3">
-      <c r="A385" s="11" t="s">
+    <row r="323" ht="13.95" spans="1:1">
+      <c r="A323" s="11" t="s">
         <v>615</v>
       </c>
-      <c r="B385" s="8" t="s">
+    </row>
+    <row r="324" ht="13.95" spans="1:1">
+      <c r="A324" s="11" t="s">
         <v>616</v>
       </c>
-      <c r="C385" s="8" t="s">
+    </row>
+    <row r="325" ht="14.55" spans="1:3">
+      <c r="A325" s="12" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="386" ht="14.25" spans="1:3">
-      <c r="A386" s="11" t="s">
+      <c r="B325" s="7" t="s">
         <v>618</v>
       </c>
-      <c r="B386" s="8" t="s">
+      <c r="C325" s="7" t="s">
         <v>619</v>
       </c>
-      <c r="C386" s="8" t="s">
+    </row>
+    <row r="326" ht="13.95" spans="1:1">
+      <c r="A326" s="11" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="387" ht="14.25" spans="1:3">
-      <c r="A387" s="11" t="s">
+    <row r="327" ht="13.95" spans="1:1">
+      <c r="A327" s="11" t="s">
         <v>621</v>
       </c>
-      <c r="B387" s="8" t="s">
+    </row>
+    <row r="328" ht="14.55" spans="1:3">
+      <c r="A328" s="12" t="s">
         <v>622</v>
       </c>
-      <c r="C387" s="8" t="s">
+      <c r="B328" s="7" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="388" ht="14.25" spans="1:3">
-      <c r="A388" s="11" t="s">
+      <c r="C328" s="7" t="s">
         <v>624</v>
       </c>
-      <c r="B388" s="8" t="s">
+    </row>
+    <row r="329" ht="13.95" spans="1:1">
+      <c r="A329" s="11" t="s">
         <v>625</v>
       </c>
-      <c r="C388" s="8" t="s">
+    </row>
+    <row r="330" ht="13.95" spans="1:1">
+      <c r="A330" s="11" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="389" ht="14.25" spans="1:3">
-      <c r="A389" s="11" t="s">
+    <row r="331" ht="13.95" spans="1:1">
+      <c r="A331" s="11" t="s">
         <v>627</v>
       </c>
-      <c r="B389" s="8" t="s">
+    </row>
+    <row r="332" ht="13.95" spans="1:1">
+      <c r="A332" s="11" t="s">
         <v>628</v>
       </c>
-      <c r="C389" s="8" t="s">
+    </row>
+    <row r="333" ht="13.95" spans="1:1">
+      <c r="A333" s="11" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="390" ht="13.5" spans="1:1">
-      <c r="A390" s="10" t="s">
+    <row r="334" ht="13.95" spans="1:1">
+      <c r="A334" s="11" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="391" ht="14.25" spans="1:3">
-      <c r="A391" s="11" t="s">
+    <row r="335" ht="13.95" spans="1:1">
+      <c r="A335" s="11" t="s">
         <v>631</v>
       </c>
-      <c r="B391" s="8" t="s">
+    </row>
+    <row r="336" ht="13.95" spans="1:1">
+      <c r="A336" s="11" t="s">
         <v>632</v>
       </c>
-      <c r="C391" s="8" t="s">
+    </row>
+    <row r="337" ht="13.95" spans="1:1">
+      <c r="A337" s="11" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="392" ht="14.25" spans="1:3">
-      <c r="A392" s="11" t="s">
+    <row r="338" ht="13.95" spans="1:1">
+      <c r="A338" s="11" t="s">
         <v>634</v>
       </c>
-      <c r="B392" s="8" t="s">
+    </row>
+    <row r="339" ht="13.95" spans="1:1">
+      <c r="A339" s="11" t="s">
         <v>635</v>
       </c>
-      <c r="C392" s="8" t="s">
+    </row>
+    <row r="340" ht="13.95" spans="1:1">
+      <c r="A340" s="11" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="393" ht="13.5" spans="1:1">
-      <c r="A393" s="10" t="s">
+    <row r="341" ht="13.95" spans="1:1">
+      <c r="A341" s="11" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="394" ht="14.25" spans="1:3">
-      <c r="A394" s="11" t="s">
+    <row r="342" ht="13.95" spans="1:1">
+      <c r="A342" s="11" t="s">
         <v>638</v>
       </c>
-      <c r="B394" s="8" t="s">
+    </row>
+    <row r="343" ht="13.95" spans="1:1">
+      <c r="A343" s="11" t="s">
         <v>639</v>
       </c>
-      <c r="C394" s="8" t="s">
+    </row>
+    <row r="344" ht="14.55" spans="1:3">
+      <c r="A344" s="12" t="s">
         <v>640</v>
       </c>
-    </row>
-    <row r="395" ht="14.25" spans="1:3">
-      <c r="A395" s="11" t="s">
+      <c r="B344" s="7" t="s">
         <v>641</v>
       </c>
-      <c r="B395" s="8" t="s">
+      <c r="C344" s="7" t="s">
         <v>642</v>
       </c>
-      <c r="C395" s="8" t="s">
+    </row>
+    <row r="345" ht="14.55" spans="1:3">
+      <c r="A345" s="12" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="396" ht="14.25" spans="1:3">
-      <c r="A396" s="11" t="s">
+      <c r="B345" s="7" t="s">
         <v>644</v>
       </c>
-      <c r="B396" s="8" t="s">
+      <c r="C345" s="7" t="s">
         <v>645</v>
       </c>
-      <c r="C396" s="8" t="s">
+    </row>
+    <row r="346" ht="14.55" spans="1:3">
+      <c r="A346" s="12" t="s">
         <v>646</v>
       </c>
-    </row>
-    <row r="397" ht="14.25" spans="1:3">
-      <c r="A397" s="11" t="s">
+      <c r="B346" s="7" t="s">
         <v>647</v>
       </c>
-      <c r="B397" s="8" t="s">
+      <c r="C346" s="7" t="s">
         <v>648</v>
       </c>
-      <c r="C397" s="8" t="s">
+    </row>
+    <row r="347" ht="14.55" spans="1:3">
+      <c r="A347" s="12" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="398" ht="14.25" spans="1:3">
-      <c r="A398" s="11" t="s">
+      <c r="B347" s="7" t="s">
         <v>650</v>
       </c>
-      <c r="B398" s="8" t="s">
+      <c r="C347" s="7" t="s">
         <v>651</v>
       </c>
-      <c r="C398" s="8" t="s">
+    </row>
+    <row r="348" ht="14.55" spans="1:3">
+      <c r="A348" s="12" t="s">
         <v>652</v>
       </c>
-    </row>
-    <row r="399" ht="14.25" spans="1:3">
-      <c r="A399" s="11" t="s">
+      <c r="B348" s="7" t="s">
         <v>653</v>
       </c>
-      <c r="B399" s="8" t="s">
+      <c r="C348" s="7" t="s">
         <v>654</v>
       </c>
-      <c r="C399" s="8" t="s">
+    </row>
+    <row r="349" ht="14.55" spans="1:3">
+      <c r="A349" s="12" t="s">
         <v>655</v>
       </c>
-    </row>
-    <row r="400" ht="14.25" spans="1:3">
-      <c r="A400" s="11" t="s">
+      <c r="B349" s="7" t="s">
         <v>656</v>
       </c>
-      <c r="B400" s="8" t="s">
+      <c r="C349" s="7" t="s">
         <v>657</v>
       </c>
-      <c r="C400" s="8" t="s">
+    </row>
+    <row r="350" ht="14.55" spans="1:3">
+      <c r="A350" s="12" t="s">
         <v>658</v>
       </c>
-    </row>
-    <row r="401" ht="14.25" spans="1:3">
-      <c r="A401" s="11" t="s">
+      <c r="B350" s="7" t="s">
         <v>659</v>
       </c>
-      <c r="B401" s="8" t="s">
+      <c r="C350" s="7" t="s">
         <v>660</v>
       </c>
-      <c r="C401" s="8" t="s">
+    </row>
+    <row r="351" ht="14.55" spans="1:3">
+      <c r="A351" s="12" t="s">
         <v>661</v>
       </c>
-    </row>
-    <row r="402" ht="14.25" spans="1:3">
-      <c r="A402" s="11" t="s">
+      <c r="B351" s="7" t="s">
         <v>662</v>
       </c>
-      <c r="B402" s="8" t="s">
+      <c r="C351" s="7" t="s">
         <v>663</v>
       </c>
-      <c r="C402" s="8" t="s">
+    </row>
+    <row r="352" ht="14.55" spans="1:3">
+      <c r="A352" s="12" t="s">
         <v>664</v>
       </c>
-    </row>
-    <row r="403" ht="14.25" spans="1:3">
-      <c r="A403" s="11" t="s">
+      <c r="B352" s="7" t="s">
         <v>665</v>
       </c>
-      <c r="B403" s="8" t="s">
+      <c r="C352" s="7" t="s">
         <v>666</v>
       </c>
-      <c r="C403" s="8" t="s">
+    </row>
+    <row r="353" ht="14.55" spans="1:3">
+      <c r="A353" s="12" t="s">
         <v>667</v>
       </c>
-    </row>
-    <row r="404" ht="14.25" spans="1:3">
-      <c r="A404" s="11" t="s">
+      <c r="B353" s="7" t="s">
         <v>668</v>
       </c>
-      <c r="B404" s="8" t="s">
+      <c r="C353" s="7" t="s">
         <v>669</v>
       </c>
-      <c r="C404" s="8" t="s">
+    </row>
+    <row r="354" ht="14.55" spans="1:3">
+      <c r="A354" s="12" t="s">
         <v>670</v>
       </c>
-    </row>
-    <row r="405" ht="14.25" spans="1:3">
-      <c r="A405" s="11" t="s">
+      <c r="B354" s="7" t="s">
         <v>671</v>
       </c>
-      <c r="B405" s="8" t="s">
+      <c r="C354" s="7" t="s">
         <v>672</v>
       </c>
-      <c r="C405" s="8" t="s">
+    </row>
+    <row r="355" ht="14.55" spans="1:3">
+      <c r="A355" s="12" t="s">
         <v>673</v>
       </c>
-    </row>
-    <row r="406" ht="14.25" spans="1:3">
-      <c r="A406" s="11" t="s">
+      <c r="B355" s="7" t="s">
         <v>674</v>
       </c>
-      <c r="B406" s="8" t="s">
+      <c r="C355" s="7" t="s">
         <v>675</v>
       </c>
-      <c r="C406" s="8" t="s">
+    </row>
+    <row r="356" ht="14.55" spans="1:3">
+      <c r="A356" s="12" t="s">
+        <v>673</v>
+      </c>
+      <c r="B356" s="7" t="s">
+        <v>674</v>
+      </c>
+      <c r="C356" s="7" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="407" ht="14.25" spans="1:3">
-      <c r="A407" s="11" t="s">
+    <row r="357" ht="14.55" spans="1:3">
+      <c r="A357" s="12" t="s">
         <v>677</v>
       </c>
-      <c r="B407" s="8" t="s">
+      <c r="B357" s="7" t="s">
         <v>678</v>
       </c>
-      <c r="C407" s="8" t="s">
+      <c r="C357" s="7" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="408" ht="14.25" spans="1:3">
-      <c r="A408" s="11" t="s">
+    <row r="358" ht="14.55" spans="1:3">
+      <c r="A358" s="12" t="s">
         <v>680</v>
       </c>
-      <c r="B408" s="8" t="s">
+      <c r="B358" s="7" t="s">
         <v>681</v>
       </c>
-      <c r="C408" s="8" t="s">
+      <c r="C358" s="7" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="409" ht="14.25" spans="1:3">
-      <c r="A409" s="11" t="s">
+    <row r="359" ht="14.55" spans="1:3">
+      <c r="A359" s="12" t="s">
         <v>683</v>
       </c>
-      <c r="B409" s="8" t="s">
+      <c r="B359" s="7" t="s">
         <v>684</v>
       </c>
-      <c r="C409" s="8" t="s">
+      <c r="C359" s="7" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="410" ht="14.25" spans="1:3">
-      <c r="A410" s="11" t="s">
+    <row r="360" ht="14.55" spans="1:3">
+      <c r="A360" s="12" t="s">
         <v>686</v>
       </c>
-      <c r="B410" s="8" t="s">
+      <c r="B360" s="7" t="s">
         <v>687</v>
       </c>
-      <c r="C410" s="8" t="s">
+      <c r="C360" s="7" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="411" ht="14.25" spans="1:3">
-      <c r="A411" s="11" t="s">
+    <row r="361" ht="14.55" spans="1:3">
+      <c r="A361" s="12" t="s">
         <v>689</v>
       </c>
-      <c r="B411" s="8" t="s">
+      <c r="B361" s="7" t="s">
         <v>690</v>
       </c>
-      <c r="C411" s="8" t="s">
+      <c r="C361" s="7" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="412" ht="14.25" spans="1:3">
-      <c r="A412" s="11" t="s">
+    <row r="362" ht="14.55" spans="1:3">
+      <c r="A362" s="12" t="s">
         <v>692</v>
       </c>
-      <c r="B412" s="8" t="s">
+      <c r="B362" s="7" t="s">
         <v>693</v>
       </c>
-      <c r="C412" s="8" t="s">
+      <c r="C362" s="7" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="413" ht="14.25" spans="1:3">
-      <c r="A413" s="11" t="s">
+    <row r="363" ht="14.55" spans="1:3">
+      <c r="A363" s="12" t="s">
         <v>695</v>
       </c>
-      <c r="B413" s="8" t="s">
+      <c r="B363" s="7" t="s">
         <v>696</v>
       </c>
-      <c r="C413" s="8" t="s">
+      <c r="C363" s="7" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="414" ht="14.25" spans="1:3">
-      <c r="A414" s="11" t="s">
+    <row r="364" ht="14.55" spans="1:3">
+      <c r="A364" s="12" t="s">
         <v>698</v>
       </c>
-      <c r="B414" s="8" t="s">
+      <c r="B364" s="7" t="s">
         <v>699</v>
       </c>
-      <c r="C414" s="8" t="s">
+      <c r="C364" s="7" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="415" ht="14.25" spans="1:3">
-      <c r="A415" s="11" t="s">
+    <row r="365" ht="14.55" spans="1:3">
+      <c r="A365" s="12" t="s">
         <v>701</v>
       </c>
-      <c r="B415" s="8" t="s">
+      <c r="B365" s="7" t="s">
         <v>702</v>
       </c>
-      <c r="C415" s="8" t="s">
+      <c r="C365" s="7" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="416" ht="14.25" spans="1:3">
-      <c r="A416" s="11" t="s">
+    <row r="366" ht="14.55" spans="1:3">
+      <c r="A366" s="12" t="s">
         <v>704</v>
       </c>
-      <c r="B416" s="8" t="s">
+      <c r="B366" s="7" t="s">
         <v>705</v>
       </c>
-      <c r="C416" s="8" t="s">
+      <c r="C366" s="7" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="417" ht="14.25" spans="1:3">
-      <c r="A417" s="11" t="s">
+    <row r="367" ht="14.55" spans="1:3">
+      <c r="A367" s="12" t="s">
         <v>707</v>
       </c>
-      <c r="B417" s="8" t="s">
+      <c r="B367" s="7" t="s">
         <v>708</v>
       </c>
-      <c r="C417" s="8" t="s">
+      <c r="C367" s="7" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="418" ht="14.25" spans="1:3">
-      <c r="A418" s="11" t="s">
+    <row r="368" ht="14.55" spans="1:3">
+      <c r="A368" s="12" t="s">
         <v>710</v>
       </c>
-      <c r="B418" s="8" t="s">
+      <c r="B368" s="7" t="s">
         <v>711</v>
       </c>
-      <c r="C418" s="8" t="s">
+      <c r="C368" s="7" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="419" ht="14.25" spans="1:3">
-      <c r="A419" s="11" t="s">
+    <row r="369" ht="14.55" spans="1:3">
+      <c r="A369" s="12" t="s">
         <v>713</v>
       </c>
-      <c r="B419" s="8" t="s">
+      <c r="B369" s="7" t="s">
         <v>714</v>
       </c>
-      <c r="C419" s="8" t="s">
+      <c r="C369" s="7" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="420" ht="14.25" spans="1:3">
-      <c r="A420" s="11" t="s">
+    <row r="370" ht="14.55" spans="1:3">
+      <c r="A370" s="12" t="s">
         <v>716</v>
       </c>
-      <c r="B420" s="8" t="s">
+      <c r="B370" s="7" t="s">
         <v>717</v>
       </c>
-      <c r="C420" s="8" t="s">
+      <c r="C370" s="7" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="421" ht="14.25" spans="1:3">
-      <c r="A421" s="11" t="s">
+    <row r="371" ht="14.55" spans="1:3">
+      <c r="A371" s="12" t="s">
         <v>719</v>
       </c>
-      <c r="B421" s="8" t="s">
+      <c r="B371" s="7" t="s">
         <v>720</v>
       </c>
-      <c r="C421" s="8" t="s">
+      <c r="C371" s="7" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="422" ht="14.25" spans="1:3">
-      <c r="A422" s="11" t="s">
+    <row r="372" ht="14.55" spans="1:3">
+      <c r="A372" s="12" t="s">
         <v>722</v>
       </c>
-      <c r="B422" s="8" t="s">
+      <c r="B372" s="7" t="s">
         <v>723</v>
       </c>
-      <c r="C422" s="8" t="s">
+      <c r="C372" s="7" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="423" ht="14.25" spans="1:3">
-      <c r="A423" s="11" t="s">
+    <row r="373" ht="14.55" spans="1:3">
+      <c r="A373" s="12" t="s">
         <v>725</v>
       </c>
-      <c r="B423" s="8" t="s">
+      <c r="B373" s="7" t="s">
         <v>726</v>
       </c>
-      <c r="C423" s="8" t="s">
+      <c r="C373" s="7" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="424" ht="14.25" spans="1:3">
-      <c r="A424" s="11" t="s">
+    <row r="374" ht="14.55" spans="1:3">
+      <c r="A374" s="12" t="s">
         <v>728</v>
       </c>
-      <c r="B424" s="8" t="s">
+      <c r="B374" s="7" t="s">
         <v>729</v>
       </c>
-      <c r="C424" s="8" t="s">
+      <c r="C374" s="7" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="425" ht="14.25" spans="1:3">
-      <c r="A425" s="11" t="s">
+    <row r="375" ht="14.55" spans="1:3">
+      <c r="A375" s="12" t="s">
         <v>731</v>
       </c>
-      <c r="B425" s="8" t="s">
+      <c r="B375" s="7" t="s">
         <v>732</v>
       </c>
-      <c r="C425" s="8" t="s">
+      <c r="C375" s="7" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="426" ht="14.25" spans="1:3">
-      <c r="A426" s="11" t="s">
+    <row r="376" ht="14.55" spans="1:3">
+      <c r="A376" s="12" t="s">
         <v>734</v>
       </c>
-      <c r="B426" s="8" t="s">
+      <c r="B376" s="7" t="s">
         <v>735</v>
       </c>
-      <c r="C426" s="8" t="s">
+      <c r="C376" s="7" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="427" ht="14.25" spans="1:3">
-      <c r="A427" s="11" t="s">
+    <row r="377" ht="14.55" spans="1:3">
+      <c r="A377" s="12" t="s">
         <v>737</v>
       </c>
-      <c r="B427" s="8" t="s">
+      <c r="B377" s="7" t="s">
         <v>738</v>
       </c>
-      <c r="C427" s="8" t="s">
+      <c r="C377" s="7" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="428" ht="14.25" spans="1:3">
-      <c r="A428" s="11" t="s">
+    <row r="378" ht="14.55" spans="1:3">
+      <c r="A378" s="12" t="s">
         <v>740</v>
       </c>
-      <c r="B428" s="8" t="s">
+      <c r="B378" s="7" t="s">
         <v>741</v>
       </c>
-      <c r="C428" s="8" t="s">
+      <c r="C378" s="7" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="429" ht="14.25" spans="1:3">
-      <c r="A429" s="11" t="s">
+    <row r="379" ht="14.55" spans="1:3">
+      <c r="A379" s="12" t="s">
         <v>743</v>
       </c>
-      <c r="B429" s="8" t="s">
+      <c r="B379" s="7" t="s">
         <v>744</v>
       </c>
-      <c r="C429" s="8" t="s">
+      <c r="C379" s="7" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="430" ht="14.25" spans="1:3">
-      <c r="A430" s="11" t="s">
+    <row r="380" ht="14.55" spans="1:3">
+      <c r="A380" s="12" t="s">
         <v>746</v>
       </c>
-      <c r="B430" s="8" t="s">
+      <c r="B380" s="7" t="s">
         <v>747</v>
       </c>
-      <c r="C430" s="8" t="s">
+      <c r="C380" s="7" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="431" ht="14.25" spans="1:3">
-      <c r="A431" s="11" t="s">
+    <row r="381" ht="14.55" spans="1:3">
+      <c r="A381" s="12" t="s">
         <v>749</v>
       </c>
-      <c r="B431" s="8" t="s">
+      <c r="B381" s="7" t="s">
         <v>750</v>
       </c>
-      <c r="C431" s="8" t="s">
+      <c r="C381" s="7" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="432" ht="13.5" spans="1:1">
-      <c r="A432" s="10" t="s">
+    <row r="382" ht="14.55" spans="1:3">
+      <c r="A382" s="12" t="s">
         <v>752</v>
       </c>
-    </row>
-    <row r="433" ht="14.25" spans="1:3">
-      <c r="A433" s="11" t="s">
+      <c r="B382" s="7" t="s">
         <v>753</v>
       </c>
-      <c r="B433" s="8" t="s">
+      <c r="C382" s="7" t="s">
         <v>754</v>
       </c>
-      <c r="C433" s="8" t="s">
+    </row>
+    <row r="383" ht="14.55" spans="1:3">
+      <c r="A383" s="12" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="434" ht="14.25" spans="1:3">
-      <c r="A434" s="11" t="s">
+      <c r="B383" s="7" t="s">
         <v>756</v>
       </c>
-      <c r="B434" s="8" t="s">
+      <c r="C383" s="7" t="s">
         <v>757</v>
       </c>
-      <c r="C434" s="8" t="s">
+    </row>
+    <row r="384" ht="14.55" spans="1:3">
+      <c r="A384" s="12" t="s">
         <v>758</v>
       </c>
-    </row>
-    <row r="435" ht="14.25" spans="1:3">
-      <c r="A435" s="11" t="s">
+      <c r="B384" s="7" t="s">
         <v>759</v>
       </c>
-      <c r="B435" s="8" t="s">
-        <v>759</v>
-      </c>
-      <c r="C435" s="8" t="s">
+      <c r="C384" s="7" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="436" ht="14.25" spans="1:3">
-      <c r="A436" s="11" t="s">
+    <row r="385" ht="14.55" spans="1:3">
+      <c r="A385" s="12" t="s">
         <v>761</v>
       </c>
-      <c r="B436" s="8" t="s">
+      <c r="B385" s="7" t="s">
         <v>762</v>
       </c>
-      <c r="C436" s="8" t="s">
+      <c r="C385" s="7" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="437" ht="14.25" spans="1:3">
-      <c r="A437" s="11" t="s">
+    <row r="386" ht="14.55" spans="1:3">
+      <c r="A386" s="12" t="s">
         <v>764</v>
       </c>
-      <c r="B437" s="8" t="s">
+      <c r="B386" s="7" t="s">
         <v>765</v>
       </c>
-      <c r="C437" s="8" t="s">
+      <c r="C386" s="7" t="s">
         <v>766</v>
       </c>
     </row>
-    <row r="438" ht="14.25" spans="1:3">
-      <c r="A438" s="11" t="s">
+    <row r="387" ht="14.55" spans="1:3">
+      <c r="A387" s="12" t="s">
         <v>767</v>
       </c>
-      <c r="B438" s="8" t="s">
+      <c r="B387" s="7" t="s">
         <v>768</v>
       </c>
-      <c r="C438" s="8" t="s">
+      <c r="C387" s="7" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="439" ht="14.25" spans="1:3">
-      <c r="A439" s="11" t="s">
+    <row r="388" ht="14.55" spans="1:3">
+      <c r="A388" s="12" t="s">
         <v>770</v>
       </c>
-      <c r="B439" s="8" t="s">
+      <c r="B388" s="7" t="s">
         <v>771</v>
       </c>
-      <c r="C439" s="8" t="s">
+      <c r="C388" s="7" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="440" ht="14.25" spans="1:3">
-      <c r="A440" s="11" t="s">
+    <row r="389" ht="14.55" spans="1:3">
+      <c r="A389" s="12" t="s">
         <v>773</v>
       </c>
-      <c r="B440" s="8" t="s">
+      <c r="B389" s="7" t="s">
         <v>774</v>
       </c>
-      <c r="C440" s="8" t="s">
+      <c r="C389" s="7" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="441" ht="14.25" spans="1:3">
-      <c r="A441" s="11" t="s">
+    <row r="390" ht="13.95" spans="1:1">
+      <c r="A390" s="11" t="s">
         <v>776</v>
       </c>
-      <c r="B441" s="8" t="s">
+    </row>
+    <row r="391" ht="14.55" spans="1:3">
+      <c r="A391" s="12" t="s">
         <v>777</v>
       </c>
-      <c r="C441" s="8" t="s">
+      <c r="B391" s="7" t="s">
         <v>778</v>
       </c>
-    </row>
-    <row r="442" ht="13.5" spans="1:1">
-      <c r="A442" s="10" t="s">
+      <c r="C391" s="7" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="443" ht="14.25" spans="1:3">
-      <c r="A443" s="11" t="s">
+    <row r="392" ht="14.55" spans="1:3">
+      <c r="A392" s="12" t="s">
         <v>780</v>
       </c>
-      <c r="B443" s="8" t="s">
+      <c r="B392" s="7" t="s">
         <v>781</v>
       </c>
-      <c r="C443" s="8" t="s">
+      <c r="C392" s="7" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="444" ht="14.25" spans="1:3">
-      <c r="A444" s="11" t="s">
+    <row r="393" ht="13.95" spans="1:1">
+      <c r="A393" s="11" t="s">
         <v>783</v>
       </c>
-      <c r="B444" s="8" t="s">
+    </row>
+    <row r="394" ht="14.55" spans="1:3">
+      <c r="A394" s="12" t="s">
         <v>784</v>
       </c>
-      <c r="C444" s="8" t="s">
+      <c r="B394" s="7" t="s">
         <v>785</v>
       </c>
-    </row>
-    <row r="445" ht="14.25" spans="1:3">
-      <c r="A445" s="11" t="s">
+      <c r="C394" s="7" t="s">
         <v>786</v>
       </c>
-      <c r="B445" s="8" t="s">
+    </row>
+    <row r="395" ht="14.55" spans="1:3">
+      <c r="A395" s="12" t="s">
         <v>787</v>
       </c>
-      <c r="C445" s="8" t="s">
+      <c r="B395" s="7" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="446" ht="14.25" spans="1:3">
-      <c r="A446" s="11" t="s">
+      <c r="C395" s="7" t="s">
         <v>789</v>
       </c>
-      <c r="B446" s="8" t="s">
+    </row>
+    <row r="396" ht="14.55" spans="1:3">
+      <c r="A396" s="12" t="s">
         <v>790</v>
       </c>
-      <c r="C446" s="8" t="s">
+      <c r="B396" s="7" t="s">
         <v>791</v>
       </c>
-    </row>
-    <row r="447" ht="14.25" spans="1:3">
-      <c r="A447" s="11" t="s">
+      <c r="C396" s="7" t="s">
         <v>792</v>
       </c>
-      <c r="B447" s="8" t="s">
+    </row>
+    <row r="397" ht="14.55" spans="1:3">
+      <c r="A397" s="12" t="s">
         <v>793</v>
       </c>
-      <c r="C447" s="8" t="s">
+      <c r="B397" s="7" t="s">
         <v>794</v>
       </c>
-    </row>
-    <row r="448" ht="14.25" spans="1:3">
-      <c r="A448" s="11" t="s">
+      <c r="C397" s="7" t="s">
         <v>795</v>
       </c>
-      <c r="B448" s="8" t="s">
+    </row>
+    <row r="398" ht="14.55" spans="1:3">
+      <c r="A398" s="12" t="s">
         <v>796</v>
       </c>
-      <c r="C448" s="8" t="s">
+      <c r="B398" s="7" t="s">
         <v>797</v>
       </c>
-    </row>
-    <row r="449" ht="14.25" spans="1:3">
-      <c r="A449" s="11" t="s">
+      <c r="C398" s="7" t="s">
         <v>798</v>
       </c>
-      <c r="B449" s="8" t="s">
+    </row>
+    <row r="399" ht="14.55" spans="1:3">
+      <c r="A399" s="12" t="s">
         <v>799</v>
       </c>
-      <c r="C449" s="8" t="s">
+      <c r="B399" s="7" t="s">
         <v>800</v>
       </c>
-    </row>
-    <row r="450" ht="14.25" spans="1:3">
-      <c r="A450" s="11" t="s">
+      <c r="C399" s="7" t="s">
         <v>801</v>
       </c>
-      <c r="B450" s="8" t="s">
+    </row>
+    <row r="400" ht="14.55" spans="1:3">
+      <c r="A400" s="12" t="s">
         <v>802</v>
       </c>
-      <c r="C450" s="8" t="s">
+      <c r="B400" s="7" t="s">
         <v>803</v>
       </c>
-    </row>
-    <row r="451" ht="14.25" spans="1:3">
-      <c r="A451" s="11" t="s">
+      <c r="C400" s="7" t="s">
         <v>804</v>
       </c>
-      <c r="B451" s="8" t="s">
+    </row>
+    <row r="401" ht="14.55" spans="1:3">
+      <c r="A401" s="12" t="s">
         <v>805</v>
       </c>
-      <c r="C451" s="8" t="s">
+      <c r="B401" s="7" t="s">
         <v>806</v>
       </c>
-    </row>
-    <row r="452" ht="14.25" spans="1:3">
-      <c r="A452" s="11" t="s">
+      <c r="C401" s="7" t="s">
         <v>807</v>
       </c>
-      <c r="B452" s="8" t="s">
+    </row>
+    <row r="402" ht="14.55" spans="1:3">
+      <c r="A402" s="12" t="s">
         <v>808</v>
       </c>
-      <c r="C452" s="8" t="s">
+      <c r="B402" s="7" t="s">
         <v>809</v>
       </c>
-    </row>
-    <row r="453" ht="14.25" spans="1:3">
-      <c r="A453" s="11" t="s">
+      <c r="C402" s="7" t="s">
         <v>810</v>
       </c>
-      <c r="B453" s="8" t="s">
+    </row>
+    <row r="403" ht="14.55" spans="1:3">
+      <c r="A403" s="12" t="s">
         <v>811</v>
       </c>
-      <c r="C453" s="8" t="s">
+      <c r="B403" s="7" t="s">
         <v>812</v>
       </c>
-    </row>
-    <row r="454" ht="14.25" spans="1:3">
-      <c r="A454" s="11" t="s">
+      <c r="C403" s="7" t="s">
         <v>813</v>
       </c>
-      <c r="B454" s="8" t="s">
+    </row>
+    <row r="404" ht="14.55" spans="1:3">
+      <c r="A404" s="12" t="s">
         <v>814</v>
       </c>
-      <c r="C454" s="8" t="s">
+      <c r="B404" s="7" t="s">
         <v>815</v>
       </c>
-    </row>
-    <row r="455" ht="14.25" spans="1:3">
-      <c r="A455" s="11" t="s">
+      <c r="C404" s="7" t="s">
         <v>816</v>
       </c>
-      <c r="B455" s="8" t="s">
+    </row>
+    <row r="405" ht="14.55" spans="1:3">
+      <c r="A405" s="12" t="s">
         <v>817</v>
       </c>
-      <c r="C455" s="8" t="s">
+      <c r="B405" s="7" t="s">
         <v>818</v>
       </c>
-    </row>
-    <row r="456" ht="14.25" spans="1:3">
-      <c r="A456" s="11" t="s">
+      <c r="C405" s="7" t="s">
         <v>819</v>
       </c>
-      <c r="B456" s="8" t="s">
+    </row>
+    <row r="406" ht="14.55" spans="1:3">
+      <c r="A406" s="12" t="s">
         <v>820</v>
       </c>
-      <c r="C456" s="8" t="s">
+      <c r="B406" s="7" t="s">
         <v>821</v>
+      </c>
+      <c r="C406" s="7" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="407" ht="14.55" spans="1:3">
+      <c r="A407" s="12" t="s">
+        <v>823</v>
+      </c>
+      <c r="B407" s="7" t="s">
+        <v>824</v>
+      </c>
+      <c r="C407" s="7" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="408" ht="14.55" spans="1:3">
+      <c r="A408" s="12" t="s">
+        <v>826</v>
+      </c>
+      <c r="B408" s="7" t="s">
+        <v>827</v>
+      </c>
+      <c r="C408" s="7" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="409" ht="14.55" spans="1:3">
+      <c r="A409" s="12" t="s">
+        <v>829</v>
+      </c>
+      <c r="B409" s="7" t="s">
+        <v>830</v>
+      </c>
+      <c r="C409" s="7" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="410" ht="14.55" spans="1:3">
+      <c r="A410" s="12" t="s">
+        <v>832</v>
+      </c>
+      <c r="B410" s="7" t="s">
+        <v>833</v>
+      </c>
+      <c r="C410" s="7" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="411" ht="14.55" spans="1:3">
+      <c r="A411" s="12" t="s">
+        <v>835</v>
+      </c>
+      <c r="B411" s="7" t="s">
+        <v>836</v>
+      </c>
+      <c r="C411" s="7" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="412" ht="14.55" spans="1:3">
+      <c r="A412" s="12" t="s">
+        <v>838</v>
+      </c>
+      <c r="B412" s="7" t="s">
+        <v>839</v>
+      </c>
+      <c r="C412" s="7" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="413" ht="14.55" spans="1:3">
+      <c r="A413" s="12" t="s">
+        <v>841</v>
+      </c>
+      <c r="B413" s="7" t="s">
+        <v>842</v>
+      </c>
+      <c r="C413" s="7" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="414" ht="14.55" spans="1:3">
+      <c r="A414" s="12" t="s">
+        <v>844</v>
+      </c>
+      <c r="B414" s="7" t="s">
+        <v>845</v>
+      </c>
+      <c r="C414" s="7" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="415" ht="14.55" spans="1:3">
+      <c r="A415" s="12" t="s">
+        <v>847</v>
+      </c>
+      <c r="B415" s="7" t="s">
+        <v>848</v>
+      </c>
+      <c r="C415" s="7" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="416" ht="14.55" spans="1:3">
+      <c r="A416" s="12" t="s">
+        <v>850</v>
+      </c>
+      <c r="B416" s="7" t="s">
+        <v>851</v>
+      </c>
+      <c r="C416" s="7" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="417" ht="14.55" spans="1:3">
+      <c r="A417" s="12" t="s">
+        <v>853</v>
+      </c>
+      <c r="B417" s="7" t="s">
+        <v>854</v>
+      </c>
+      <c r="C417" s="7" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="418" ht="14.55" spans="1:3">
+      <c r="A418" s="12" t="s">
+        <v>856</v>
+      </c>
+      <c r="B418" s="7" t="s">
+        <v>857</v>
+      </c>
+      <c r="C418" s="7" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="419" ht="14.55" spans="1:3">
+      <c r="A419" s="12" t="s">
+        <v>859</v>
+      </c>
+      <c r="B419" s="7" t="s">
+        <v>860</v>
+      </c>
+      <c r="C419" s="7" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="420" ht="14.55" spans="1:3">
+      <c r="A420" s="12" t="s">
+        <v>862</v>
+      </c>
+      <c r="B420" s="7" t="s">
+        <v>863</v>
+      </c>
+      <c r="C420" s="7" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="421" ht="14.55" spans="1:3">
+      <c r="A421" s="12" t="s">
+        <v>865</v>
+      </c>
+      <c r="B421" s="7" t="s">
+        <v>866</v>
+      </c>
+      <c r="C421" s="7" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="422" ht="14.55" spans="1:3">
+      <c r="A422" s="12" t="s">
+        <v>868</v>
+      </c>
+      <c r="B422" s="7" t="s">
+        <v>869</v>
+      </c>
+      <c r="C422" s="7" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="423" ht="14.55" spans="1:3">
+      <c r="A423" s="12" t="s">
+        <v>871</v>
+      </c>
+      <c r="B423" s="7" t="s">
+        <v>872</v>
+      </c>
+      <c r="C423" s="7" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="424" ht="14.55" spans="1:3">
+      <c r="A424" s="12" t="s">
+        <v>874</v>
+      </c>
+      <c r="B424" s="7" t="s">
+        <v>875</v>
+      </c>
+      <c r="C424" s="7" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="425" ht="14.55" spans="1:3">
+      <c r="A425" s="12" t="s">
+        <v>877</v>
+      </c>
+      <c r="B425" s="7" t="s">
+        <v>878</v>
+      </c>
+      <c r="C425" s="7" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="426" ht="14.55" spans="1:3">
+      <c r="A426" s="12" t="s">
+        <v>880</v>
+      </c>
+      <c r="B426" s="7" t="s">
+        <v>881</v>
+      </c>
+      <c r="C426" s="7" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="427" ht="14.55" spans="1:3">
+      <c r="A427" s="12" t="s">
+        <v>883</v>
+      </c>
+      <c r="B427" s="7" t="s">
+        <v>884</v>
+      </c>
+      <c r="C427" s="7" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="428" ht="14.55" spans="1:3">
+      <c r="A428" s="12" t="s">
+        <v>886</v>
+      </c>
+      <c r="B428" s="7" t="s">
+        <v>887</v>
+      </c>
+      <c r="C428" s="7" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="429" ht="14.55" spans="1:3">
+      <c r="A429" s="12" t="s">
+        <v>889</v>
+      </c>
+      <c r="B429" s="7" t="s">
+        <v>890</v>
+      </c>
+      <c r="C429" s="7" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="430" ht="14.55" spans="1:3">
+      <c r="A430" s="12" t="s">
+        <v>892</v>
+      </c>
+      <c r="B430" s="7" t="s">
+        <v>893</v>
+      </c>
+      <c r="C430" s="7" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="431" ht="14.55" spans="1:3">
+      <c r="A431" s="12" t="s">
+        <v>895</v>
+      </c>
+      <c r="B431" s="7" t="s">
+        <v>896</v>
+      </c>
+      <c r="C431" s="7" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="432" ht="13.95" spans="1:1">
+      <c r="A432" s="11" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="433" ht="14.55" spans="1:3">
+      <c r="A433" s="12" t="s">
+        <v>899</v>
+      </c>
+      <c r="B433" s="7" t="s">
+        <v>900</v>
+      </c>
+      <c r="C433" s="7" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="434" ht="14.55" spans="1:3">
+      <c r="A434" s="12" t="s">
+        <v>902</v>
+      </c>
+      <c r="B434" s="7" t="s">
+        <v>903</v>
+      </c>
+      <c r="C434" s="7" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="435" ht="14.55" spans="1:3">
+      <c r="A435" s="12" t="s">
+        <v>905</v>
+      </c>
+      <c r="B435" s="7" t="s">
+        <v>905</v>
+      </c>
+      <c r="C435" s="7" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="436" ht="14.55" spans="1:3">
+      <c r="A436" s="12" t="s">
+        <v>907</v>
+      </c>
+      <c r="B436" s="7" t="s">
+        <v>908</v>
+      </c>
+      <c r="C436" s="7" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="437" ht="14.55" spans="1:3">
+      <c r="A437" s="12" t="s">
+        <v>910</v>
+      </c>
+      <c r="B437" s="7" t="s">
+        <v>911</v>
+      </c>
+      <c r="C437" s="7" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="438" ht="14.55" spans="1:3">
+      <c r="A438" s="12" t="s">
+        <v>913</v>
+      </c>
+      <c r="B438" s="7" t="s">
+        <v>914</v>
+      </c>
+      <c r="C438" s="7" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="439" ht="14.55" spans="1:3">
+      <c r="A439" s="12" t="s">
+        <v>916</v>
+      </c>
+      <c r="B439" s="7" t="s">
+        <v>917</v>
+      </c>
+      <c r="C439" s="7" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="440" ht="14.55" spans="1:3">
+      <c r="A440" s="12" t="s">
+        <v>919</v>
+      </c>
+      <c r="B440" s="7" t="s">
+        <v>920</v>
+      </c>
+      <c r="C440" s="7" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="441" ht="14.55" spans="1:3">
+      <c r="A441" s="12" t="s">
+        <v>922</v>
+      </c>
+      <c r="B441" s="7" t="s">
+        <v>923</v>
+      </c>
+      <c r="C441" s="7" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="442" ht="13.95" spans="1:1">
+      <c r="A442" s="11" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="443" ht="14.55" spans="1:3">
+      <c r="A443" s="12" t="s">
+        <v>926</v>
+      </c>
+      <c r="B443" s="7" t="s">
+        <v>927</v>
+      </c>
+      <c r="C443" s="7" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="444" ht="14.55" spans="1:3">
+      <c r="A444" s="12" t="s">
+        <v>929</v>
+      </c>
+      <c r="B444" s="7" t="s">
+        <v>930</v>
+      </c>
+      <c r="C444" s="7" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="445" ht="14.55" spans="1:3">
+      <c r="A445" s="12" t="s">
+        <v>932</v>
+      </c>
+      <c r="B445" s="7" t="s">
+        <v>933</v>
+      </c>
+      <c r="C445" s="7" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="446" ht="14.55" spans="1:3">
+      <c r="A446" s="12" t="s">
+        <v>935</v>
+      </c>
+      <c r="B446" s="7" t="s">
+        <v>936</v>
+      </c>
+      <c r="C446" s="7" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="447" ht="14.55" spans="1:3">
+      <c r="A447" s="12" t="s">
+        <v>938</v>
+      </c>
+      <c r="B447" s="7" t="s">
+        <v>939</v>
+      </c>
+      <c r="C447" s="7" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="448" ht="14.55" spans="1:3">
+      <c r="A448" s="12" t="s">
+        <v>941</v>
+      </c>
+      <c r="B448" s="7" t="s">
+        <v>942</v>
+      </c>
+      <c r="C448" s="7" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="449" ht="14.55" spans="1:3">
+      <c r="A449" s="12" t="s">
+        <v>944</v>
+      </c>
+      <c r="B449" s="7" t="s">
+        <v>945</v>
+      </c>
+      <c r="C449" s="7" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="450" ht="14.55" spans="1:3">
+      <c r="A450" s="12" t="s">
+        <v>947</v>
+      </c>
+      <c r="B450" s="7" t="s">
+        <v>948</v>
+      </c>
+      <c r="C450" s="7" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="451" ht="14.55" spans="1:3">
+      <c r="A451" s="12" t="s">
+        <v>950</v>
+      </c>
+      <c r="B451" s="7" t="s">
+        <v>951</v>
+      </c>
+      <c r="C451" s="7" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="452" ht="14.55" spans="1:3">
+      <c r="A452" s="12" t="s">
+        <v>953</v>
+      </c>
+      <c r="B452" s="7" t="s">
+        <v>954</v>
+      </c>
+      <c r="C452" s="7" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="453" ht="14.55" spans="1:3">
+      <c r="A453" s="12" t="s">
+        <v>956</v>
+      </c>
+      <c r="B453" s="7" t="s">
+        <v>957</v>
+      </c>
+      <c r="C453" s="7" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="454" ht="14.55" spans="1:3">
+      <c r="A454" s="12" t="s">
+        <v>959</v>
+      </c>
+      <c r="B454" s="7" t="s">
+        <v>960</v>
+      </c>
+      <c r="C454" s="7" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="455" ht="14.55" spans="1:3">
+      <c r="A455" s="12" t="s">
+        <v>962</v>
+      </c>
+      <c r="B455" s="7" t="s">
+        <v>963</v>
+      </c>
+      <c r="C455" s="7" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="456" ht="14.55" spans="1:3">
+      <c r="A456" s="12" t="s">
+        <v>965</v>
+      </c>
+      <c r="B456" s="7" t="s">
+        <v>966</v>
+      </c>
+      <c r="C456" s="7" t="s">
+        <v>967</v>
       </c>
     </row>
   </sheetData>
